--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA7C3D5-A467-4C29-8239-F403C721BA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA037E-2875-4C28-8A94-C91E10FE001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="371">
   <si>
     <t>Edição</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Formalizar dados de fabricantes e fornecedores de produtos para a construção</t>
   </si>
   <si>
-    <t>Fabricantes</t>
-  </si>
-  <si>
     <t>Contêiner</t>
   </si>
   <si>
@@ -1072,27 +1069,9 @@
     <t>website</t>
   </si>
   <si>
-    <t>"pagina : https://www.sgpam.com.br"</t>
-  </si>
-  <si>
-    <t>"pagina : https://www.tigre.com.br"</t>
-  </si>
-  <si>
-    <t>"pagina : https://www.fischerbrasil.com.br"</t>
-  </si>
-  <si>
     <t>SG.Canalização</t>
   </si>
   <si>
-    <t>"É um fabricante de produtos de saneamento básico."</t>
-  </si>
-  <si>
-    <t>"É um fabricante de produtos de fixação."</t>
-  </si>
-  <si>
-    <t>"É um fabricante de produtos de instalações sanitárias."</t>
-  </si>
-  <si>
     <t>A.Projetista</t>
   </si>
   <si>
@@ -1151,13 +1130,70 @@
   </si>
   <si>
     <t>Fornecedor do segmento geral: é um Projetista ou Empresa de projeto</t>
+  </si>
+  <si>
+    <t>fabricante.de</t>
+  </si>
+  <si>
+    <t>"Tubos, conexões e acessórios para saneamento básico em Ferro Fundido Dúctil."</t>
+  </si>
+  <si>
+    <t>"Parafusos, chumbadores e elementos de fixação para diversos itens da construção."</t>
+  </si>
+  <si>
+    <t>Gerdau</t>
+  </si>
+  <si>
+    <t>"Tubos, conexões e acessórios para tubulações predias em PVC."</t>
+  </si>
+  <si>
+    <t>"Perfis laminado de aço estrutural, como perfis W, HP, I, etc."</t>
+  </si>
+  <si>
+    <t>Cassol</t>
+  </si>
+  <si>
+    <t>"Colunas, vigas, lajes estruturais em concreto pre-fabricado."</t>
+  </si>
+  <si>
+    <t>"página : https://www.cassol.ind.br"</t>
+  </si>
+  <si>
+    <t>"página : https://www.gerdau2.com.br"</t>
+  </si>
+  <si>
+    <t>"página : https://www.sgpam.com.br"</t>
+  </si>
+  <si>
+    <t>"página : https://www.tigre.com.br"</t>
+  </si>
+  <si>
+    <t>"página : https://www.fischerbrasil.com.br"</t>
+  </si>
+  <si>
+    <t>"Fabrica produtos de saneamento básico."</t>
+  </si>
+  <si>
+    <t>"Fabrica produtos de instalações sanitárias."</t>
+  </si>
+  <si>
+    <t>"Fabrica produtos de fixação."</t>
+  </si>
+  <si>
+    <t>"Fabrica perfis laminados estruturais."</t>
+  </si>
+  <si>
+    <t>"Fabrica soluções para a construção pré-fabricada."</t>
+  </si>
+  <si>
+    <t>Fabricantes.Construção</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,14 +1275,6 @@
       <color theme="1"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1450,9 +1478,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1635,48 +1662,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2297,7 +2291,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46012.481057060184</v>
+        <v>46012.845384837965</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -2381,7 +2375,7 @@
   <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P7" sqref="P7:P70"/>
     </sheetView>
   </sheetViews>
@@ -2503,16 +2497,16 @@
         <v>75</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>253</v>
-      </c>
       <c r="F2" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>9</v>
@@ -2546,7 +2540,7 @@
         <v>Contêiner</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q2" s="23" t="str">
         <f t="shared" ref="Q2" si="1">_xlfn.TRANSLATE(P2,"pt","es")</f>
@@ -2597,16 +2591,16 @@
         <v>75</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>9</v>
@@ -2640,7 +2634,7 @@
         <v>A Consultor</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="26" t="str">
         <f t="shared" ref="Q3:Q34" si="10">_xlfn.TRANSLATE(P3,"pt","es")</f>
@@ -2662,7 +2656,7 @@
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V3" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W3" s="60" t="str">
         <f t="shared" ref="W3:W34" si="14">CONCATENATE("Key.Fab.",A3)</f>
@@ -2675,7 +2669,7 @@
         <v>9</v>
       </c>
       <c r="Z3" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA3" s="45" t="str">
         <f t="shared" si="5"/>
@@ -2690,16 +2684,16 @@
         <v>75</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>9</v>
@@ -2733,7 +2727,7 @@
         <v>A Empresa Consultora</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2755,7 +2749,7 @@
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V4" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W4" s="60" t="str">
         <f t="shared" si="14"/>
@@ -2768,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA4" s="45" t="str">
         <f t="shared" si="5"/>
@@ -2783,16 +2777,16 @@
         <v>75</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>9</v>
@@ -2826,7 +2820,7 @@
         <v>A Fabricante</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2848,7 +2842,7 @@
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V5" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W5" s="60" t="str">
         <f t="shared" si="14"/>
@@ -2861,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="Z5" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA5" s="45" t="str">
         <f t="shared" si="5"/>
@@ -2876,16 +2870,16 @@
         <v>75</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>9</v>
@@ -2919,7 +2913,7 @@
         <v>A Fornecimento</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2941,7 +2935,7 @@
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="14"/>
@@ -2954,7 +2948,7 @@
         <v>9</v>
       </c>
       <c r="Z6" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA6" s="45" t="str">
         <f t="shared" si="5"/>
@@ -2969,16 +2963,16 @@
         <v>75</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>9</v>
@@ -3012,7 +3006,7 @@
         <v>A Projetista</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3034,7 +3028,7 @@
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3047,7 +3041,7 @@
         <v>9</v>
       </c>
       <c r="Z7" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA7" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3062,16 +3056,16 @@
         <v>75</v>
       </c>
       <c r="C8" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>96</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>97</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>9</v>
@@ -3105,7 +3099,7 @@
         <v>A Serviço</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3127,7 +3121,7 @@
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3140,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="Z8" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA8" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3155,16 +3149,16 @@
         <v>75</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>9</v>
@@ -3198,7 +3192,7 @@
         <v>A Vendedor</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3220,7 +3214,7 @@
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V9" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3233,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="Z9" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA9" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3248,16 +3242,16 @@
         <v>75</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>9</v>
@@ -3291,7 +3285,7 @@
         <v>E Consultor</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3313,7 +3307,7 @@
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V10" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3326,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="Z10" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA10" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3341,16 +3335,16 @@
         <v>75</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>9</v>
@@ -3384,7 +3378,7 @@
         <v>E Empresa Consultora</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3406,7 +3400,7 @@
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3419,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="Z11" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA11" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3434,16 +3428,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>9</v>
@@ -3477,7 +3471,7 @@
         <v>E Fabricante</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3499,7 +3493,7 @@
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3512,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="Z12" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA12" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3527,16 +3521,16 @@
         <v>75</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>9</v>
@@ -3570,7 +3564,7 @@
         <v>E Fornecimento</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3592,7 +3586,7 @@
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V13" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3605,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="Z13" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA13" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3620,16 +3614,16 @@
         <v>75</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>9</v>
@@ -3663,7 +3657,7 @@
         <v>E Projetista</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3685,7 +3679,7 @@
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3698,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="Z14" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA14" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3713,16 +3707,16 @@
         <v>75</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>9</v>
@@ -3756,7 +3750,7 @@
         <v>E Serviço</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q15" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3778,7 +3772,7 @@
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3791,7 +3785,7 @@
         <v>9</v>
       </c>
       <c r="Z15" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA15" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3806,16 +3800,16 @@
         <v>75</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>9</v>
@@ -3849,7 +3843,7 @@
         <v>E Vendedor</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3871,7 +3865,7 @@
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W16" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3884,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="Z16" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA16" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3899,16 +3893,16 @@
         <v>75</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>9</v>
@@ -3942,7 +3936,7 @@
         <v>G Consultor</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3964,7 +3958,7 @@
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W17" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3977,7 +3971,7 @@
         <v>9</v>
       </c>
       <c r="Z17" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA17" s="45" t="str">
         <f t="shared" si="5"/>
@@ -3992,16 +3986,16 @@
         <v>75</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>9</v>
@@ -4035,7 +4029,7 @@
         <v>G Empresa Consultora</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4057,7 +4051,7 @@
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V18" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4070,7 +4064,7 @@
         <v>9</v>
       </c>
       <c r="Z18" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA18" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4085,16 +4079,16 @@
         <v>75</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>9</v>
@@ -4128,7 +4122,7 @@
         <v>G Fabricante</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4150,7 +4144,7 @@
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V19" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4163,7 +4157,7 @@
         <v>9</v>
       </c>
       <c r="Z19" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA19" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4178,16 +4172,16 @@
         <v>75</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>9</v>
@@ -4221,7 +4215,7 @@
         <v>G Fornecimento</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4243,7 +4237,7 @@
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V20" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4256,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="Z20" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA20" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4271,16 +4265,16 @@
         <v>75</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>9</v>
@@ -4314,7 +4308,7 @@
         <v>G Projetista</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4336,7 +4330,7 @@
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V21" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W21" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4349,7 +4343,7 @@
         <v>9</v>
       </c>
       <c r="Z21" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA21" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4364,16 +4358,16 @@
         <v>75</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>9</v>
@@ -4407,7 +4401,7 @@
         <v>G Serviço</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4429,7 +4423,7 @@
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V22" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W22" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4442,7 +4436,7 @@
         <v>9</v>
       </c>
       <c r="Z22" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA22" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4457,16 +4451,16 @@
         <v>75</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>9</v>
@@ -4500,7 +4494,7 @@
         <v>G Vendedor</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4522,7 +4516,7 @@
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V23" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W23" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4535,7 +4529,7 @@
         <v>9</v>
       </c>
       <c r="Z23" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA23" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4550,16 +4544,16 @@
         <v>75</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>9</v>
@@ -4593,7 +4587,7 @@
         <v>H Consultor</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4615,7 +4609,7 @@
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V24" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W24" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4628,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="Z24" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA24" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4643,16 +4637,16 @@
         <v>75</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>9</v>
@@ -4686,7 +4680,7 @@
         <v>H Empresa Consultora</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4708,7 +4702,7 @@
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V25" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W25" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4721,7 +4715,7 @@
         <v>9</v>
       </c>
       <c r="Z25" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA25" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4736,16 +4730,16 @@
         <v>75</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>9</v>
@@ -4779,7 +4773,7 @@
         <v>H Fabricante</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4801,7 +4795,7 @@
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V26" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W26" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4814,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="Z26" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA26" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4829,16 +4823,16 @@
         <v>75</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>9</v>
@@ -4872,7 +4866,7 @@
         <v>H Fornecimento</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4894,7 +4888,7 @@
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V27" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W27" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4907,7 +4901,7 @@
         <v>9</v>
       </c>
       <c r="Z27" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA27" s="45" t="str">
         <f t="shared" si="5"/>
@@ -4922,16 +4916,16 @@
         <v>75</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>9</v>
@@ -4965,7 +4959,7 @@
         <v>H Projetista</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q28" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4987,7 +4981,7 @@
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V28" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W28" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5000,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="Z28" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA28" s="45" t="str">
         <f t="shared" si="5"/>
@@ -5015,16 +5009,16 @@
         <v>75</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>9</v>
@@ -5058,7 +5052,7 @@
         <v>H Serviço</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5080,7 +5074,7 @@
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V29" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W29" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5093,7 +5087,7 @@
         <v>9</v>
       </c>
       <c r="Z29" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA29" s="45" t="str">
         <f t="shared" si="5"/>
@@ -5108,16 +5102,16 @@
         <v>75</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>9</v>
@@ -5151,7 +5145,7 @@
         <v>H Vendedor</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5173,7 +5167,7 @@
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V30" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W30" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5186,7 +5180,7 @@
         <v>9</v>
       </c>
       <c r="Z30" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA30" s="45" t="str">
         <f t="shared" si="5"/>
@@ -5201,16 +5195,16 @@
         <v>75</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>9</v>
@@ -5244,7 +5238,7 @@
         <v>I Consultor</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q31" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5266,7 +5260,7 @@
         <v>Segmento de Instalações</v>
       </c>
       <c r="V31" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W31" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5279,7 +5273,7 @@
         <v>9</v>
       </c>
       <c r="Z31" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA31" s="45" t="str">
         <f t="shared" si="5"/>
@@ -5294,16 +5288,16 @@
         <v>75</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>9</v>
@@ -5337,7 +5331,7 @@
         <v>I Empresa Consultora</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q32" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5359,7 +5353,7 @@
         <v>Segmento de Instalações</v>
       </c>
       <c r="V32" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W32" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5372,7 +5366,7 @@
         <v>9</v>
       </c>
       <c r="Z32" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA32" s="45" t="str">
         <f t="shared" si="5"/>
@@ -5387,16 +5381,16 @@
         <v>75</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>9</v>
@@ -5430,7 +5424,7 @@
         <v>I Fabricante</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q33" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5452,7 +5446,7 @@
         <v>Segmento de Instalações</v>
       </c>
       <c r="V33" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W33" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5465,7 +5459,7 @@
         <v>9</v>
       </c>
       <c r="Z33" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA33" s="45" t="str">
         <f t="shared" si="5"/>
@@ -5480,16 +5474,16 @@
         <v>75</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>9</v>
@@ -5523,7 +5517,7 @@
         <v>I Fornecimento</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q34" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5545,7 +5539,7 @@
         <v>Segmento de Instalações</v>
       </c>
       <c r="V34" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W34" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5558,7 +5552,7 @@
         <v>9</v>
       </c>
       <c r="Z34" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA34" s="45" t="str">
         <f t="shared" ref="AA34:AA65" si="15">_xlfn.TRANSLATE(P34,"pt","en")</f>
@@ -5573,16 +5567,16 @@
         <v>75</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" s="57" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>9</v>
@@ -5616,7 +5610,7 @@
         <v>I Projetista</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q35" s="26" t="str">
         <f t="shared" ref="Q35:Q66" si="20">_xlfn.TRANSLATE(P35,"pt","es")</f>
@@ -5638,7 +5632,7 @@
         <v>Segmento de Instalações</v>
       </c>
       <c r="V35" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W35" s="60" t="str">
         <f t="shared" ref="W35:W66" si="24">CONCATENATE("Key.Fab.",A35)</f>
@@ -5651,7 +5645,7 @@
         <v>9</v>
       </c>
       <c r="Z35" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA35" s="45" t="str">
         <f t="shared" si="15"/>
@@ -5666,16 +5660,16 @@
         <v>75</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>9</v>
@@ -5709,7 +5703,7 @@
         <v>I Serviço</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q36" s="26" t="str">
         <f t="shared" si="20"/>
@@ -5731,7 +5725,7 @@
         <v>Segmento de Instalações</v>
       </c>
       <c r="V36" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W36" s="60" t="str">
         <f t="shared" si="24"/>
@@ -5744,7 +5738,7 @@
         <v>9</v>
       </c>
       <c r="Z36" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA36" s="45" t="str">
         <f t="shared" si="15"/>
@@ -5759,16 +5753,16 @@
         <v>75</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>9</v>
@@ -5802,7 +5796,7 @@
         <v>I Vendedor</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q37" s="26" t="str">
         <f t="shared" si="20"/>
@@ -5824,7 +5818,7 @@
         <v>Segmento de Instalações</v>
       </c>
       <c r="V37" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W37" s="60" t="str">
         <f t="shared" si="24"/>
@@ -5837,7 +5831,7 @@
         <v>9</v>
       </c>
       <c r="Z37" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA37" s="45" t="str">
         <f t="shared" si="15"/>
@@ -5852,16 +5846,16 @@
         <v>75</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>9</v>
@@ -5895,7 +5889,7 @@
         <v>L Consultor</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q38" s="26" t="str">
         <f t="shared" si="20"/>
@@ -5917,7 +5911,7 @@
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V38" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W38" s="60" t="str">
         <f t="shared" si="24"/>
@@ -5930,7 +5924,7 @@
         <v>9</v>
       </c>
       <c r="Z38" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA38" s="45" t="str">
         <f t="shared" si="15"/>
@@ -5945,16 +5939,16 @@
         <v>75</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" s="57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>9</v>
@@ -5988,7 +5982,7 @@
         <v>L Empresa Consultora</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q39" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6010,7 +6004,7 @@
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V39" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W39" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6023,7 +6017,7 @@
         <v>9</v>
       </c>
       <c r="Z39" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA39" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6038,16 +6032,16 @@
         <v>75</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F40" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>9</v>
@@ -6081,7 +6075,7 @@
         <v>L Fabricante</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q40" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6103,7 +6097,7 @@
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V40" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W40" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6116,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="Z40" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA40" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6131,16 +6125,16 @@
         <v>75</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>9</v>
@@ -6174,7 +6168,7 @@
         <v>L Fornecimento</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6196,7 +6190,7 @@
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V41" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W41" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6209,7 +6203,7 @@
         <v>9</v>
       </c>
       <c r="Z41" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA41" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6224,16 +6218,16 @@
         <v>75</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>9</v>
@@ -6267,7 +6261,7 @@
         <v>L Projetista</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q42" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6289,7 +6283,7 @@
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V42" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W42" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6302,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="Z42" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA42" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6317,16 +6311,16 @@
         <v>75</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E43" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>9</v>
@@ -6360,7 +6354,7 @@
         <v>L Serviço</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q43" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6382,7 +6376,7 @@
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V43" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W43" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6395,7 +6389,7 @@
         <v>9</v>
       </c>
       <c r="Z43" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA43" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6410,16 +6404,16 @@
         <v>75</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>9</v>
@@ -6453,7 +6447,7 @@
         <v>L Vendedor</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q44" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6475,7 +6469,7 @@
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V44" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W44" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6488,7 +6482,7 @@
         <v>9</v>
       </c>
       <c r="Z44" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA44" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6503,16 +6497,16 @@
         <v>75</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>9</v>
@@ -6546,7 +6540,7 @@
         <v>M Consultor</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q45" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6568,7 +6562,7 @@
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V45" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W45" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6581,7 +6575,7 @@
         <v>9</v>
       </c>
       <c r="Z45" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA45" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6596,16 +6590,16 @@
         <v>75</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>9</v>
@@ -6639,7 +6633,7 @@
         <v>M Empresa Consultora</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q46" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6661,7 +6655,7 @@
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V46" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W46" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6674,7 +6668,7 @@
         <v>9</v>
       </c>
       <c r="Z46" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA46" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6689,16 +6683,16 @@
         <v>75</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>9</v>
@@ -6732,7 +6726,7 @@
         <v>M Fabricante</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q47" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6754,7 +6748,7 @@
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V47" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W47" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6767,7 +6761,7 @@
         <v>9</v>
       </c>
       <c r="Z47" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA47" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6782,16 +6776,16 @@
         <v>75</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E48" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>9</v>
@@ -6825,7 +6819,7 @@
         <v>M Fornecimento</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q48" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6847,7 +6841,7 @@
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V48" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W48" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6860,7 +6854,7 @@
         <v>9</v>
       </c>
       <c r="Z48" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA48" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6875,16 +6869,16 @@
         <v>75</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E49" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>9</v>
@@ -6918,7 +6912,7 @@
         <v>M Projetista</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Q49" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6940,7 +6934,7 @@
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V49" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W49" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6953,7 +6947,7 @@
         <v>9</v>
       </c>
       <c r="Z49" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA49" s="45" t="str">
         <f t="shared" si="15"/>
@@ -6968,16 +6962,16 @@
         <v>75</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E50" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>9</v>
@@ -7011,7 +7005,7 @@
         <v>M Serviço</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q50" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7033,7 +7027,7 @@
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V50" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W50" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7046,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="Z50" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA50" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7061,16 +7055,16 @@
         <v>75</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E51" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>9</v>
@@ -7104,7 +7098,7 @@
         <v>M Vendedor</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q51" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7126,7 +7120,7 @@
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V51" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W51" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7139,7 +7133,7 @@
         <v>9</v>
       </c>
       <c r="Z51" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA51" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7154,16 +7148,16 @@
         <v>75</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E52" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>9</v>
@@ -7197,7 +7191,7 @@
         <v>N Consultor</v>
       </c>
       <c r="P52" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q52" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7219,7 +7213,7 @@
         <v>Segmento de Inovação</v>
       </c>
       <c r="V52" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W52" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7232,7 +7226,7 @@
         <v>9</v>
       </c>
       <c r="Z52" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA52" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7247,16 +7241,16 @@
         <v>75</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E53" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F53" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>9</v>
@@ -7290,7 +7284,7 @@
         <v>N Empresa Consultora</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q53" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7312,7 +7306,7 @@
         <v>Segmento de Inovação</v>
       </c>
       <c r="V53" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W53" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7325,7 +7319,7 @@
         <v>9</v>
       </c>
       <c r="Z53" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA53" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7340,16 +7334,16 @@
         <v>75</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E54" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>9</v>
@@ -7383,7 +7377,7 @@
         <v>N Fabricante</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q54" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7405,7 +7399,7 @@
         <v>Segmento de Inovação</v>
       </c>
       <c r="V54" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W54" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7418,7 +7412,7 @@
         <v>9</v>
       </c>
       <c r="Z54" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA54" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7433,16 +7427,16 @@
         <v>75</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>9</v>
@@ -7476,7 +7470,7 @@
         <v>N Fornecimento</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q55" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7498,7 +7492,7 @@
         <v>Segmento de Inovação</v>
       </c>
       <c r="V55" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W55" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7511,7 +7505,7 @@
         <v>9</v>
       </c>
       <c r="Z55" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA55" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7526,16 +7520,16 @@
         <v>75</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>9</v>
@@ -7569,7 +7563,7 @@
         <v>N Projetista</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Q56" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7591,7 +7585,7 @@
         <v>Segmento de Inovação</v>
       </c>
       <c r="V56" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W56" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7604,7 +7598,7 @@
         <v>9</v>
       </c>
       <c r="Z56" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA56" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7619,16 +7613,16 @@
         <v>75</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>9</v>
@@ -7662,7 +7656,7 @@
         <v>N Serviço</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q57" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7684,7 +7678,7 @@
         <v>Segmento de Inovação</v>
       </c>
       <c r="V57" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W57" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7697,7 +7691,7 @@
         <v>9</v>
       </c>
       <c r="Z57" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA57" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7712,16 +7706,16 @@
         <v>75</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>9</v>
@@ -7755,7 +7749,7 @@
         <v>N Vendedor</v>
       </c>
       <c r="P58" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q58" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7777,7 +7771,7 @@
         <v>Segmento de Inovação</v>
       </c>
       <c r="V58" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W58" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7790,7 +7784,7 @@
         <v>9</v>
       </c>
       <c r="Z58" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA58" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7805,16 +7799,16 @@
         <v>75</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>9</v>
@@ -7848,7 +7842,7 @@
         <v>S Consultor</v>
       </c>
       <c r="P59" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q59" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7870,7 +7864,7 @@
         <v>Segmento de Acústica</v>
       </c>
       <c r="V59" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W59" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7883,7 +7877,7 @@
         <v>9</v>
       </c>
       <c r="Z59" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA59" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7898,16 +7892,16 @@
         <v>75</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>9</v>
@@ -7941,7 +7935,7 @@
         <v>S EmpresS Consultora</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q60" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7963,7 +7957,7 @@
         <v>Segmento de Acústica</v>
       </c>
       <c r="V60" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W60" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7976,7 +7970,7 @@
         <v>9</v>
       </c>
       <c r="Z60" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA60" s="45" t="str">
         <f t="shared" si="15"/>
@@ -7991,16 +7985,16 @@
         <v>75</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>9</v>
@@ -8034,7 +8028,7 @@
         <v>S Fabricante</v>
       </c>
       <c r="P61" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q61" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8056,7 +8050,7 @@
         <v>Segmento de Acústica</v>
       </c>
       <c r="V61" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W61" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8069,7 +8063,7 @@
         <v>9</v>
       </c>
       <c r="Z61" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA61" s="45" t="str">
         <f t="shared" si="15"/>
@@ -8084,16 +8078,16 @@
         <v>75</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>9</v>
@@ -8127,7 +8121,7 @@
         <v>S Fornecimento</v>
       </c>
       <c r="P62" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q62" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8149,7 +8143,7 @@
         <v>Segmento de Acústica</v>
       </c>
       <c r="V62" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W62" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8162,7 +8156,7 @@
         <v>9</v>
       </c>
       <c r="Z62" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA62" s="45" t="str">
         <f t="shared" si="15"/>
@@ -8177,16 +8171,16 @@
         <v>75</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>9</v>
@@ -8220,7 +8214,7 @@
         <v>S Projetista</v>
       </c>
       <c r="P63" s="23" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Q63" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8242,7 +8236,7 @@
         <v>Segmento de Acústica</v>
       </c>
       <c r="V63" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W63" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8255,7 +8249,7 @@
         <v>9</v>
       </c>
       <c r="Z63" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA63" s="45" t="str">
         <f t="shared" si="15"/>
@@ -8270,16 +8264,16 @@
         <v>75</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E64" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="57" t="s">
         <v>259</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>260</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>9</v>
@@ -8313,7 +8307,7 @@
         <v>S Serviço</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q64" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8335,7 +8329,7 @@
         <v>Segmento de Acústica</v>
       </c>
       <c r="V64" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W64" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8348,7 +8342,7 @@
         <v>9</v>
       </c>
       <c r="Z64" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA64" s="45" t="str">
         <f t="shared" si="15"/>
@@ -8363,16 +8357,16 @@
         <v>75</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>9</v>
@@ -8406,7 +8400,7 @@
         <v>S Vendedor</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q65" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8428,7 +8422,7 @@
         <v>Segmento de Acústica</v>
       </c>
       <c r="V65" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W65" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8441,7 +8435,7 @@
         <v>9</v>
       </c>
       <c r="Z65" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA65" s="45" t="str">
         <f t="shared" si="15"/>
@@ -8456,16 +8450,16 @@
         <v>75</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F66" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>9</v>
@@ -8499,7 +8493,7 @@
         <v>X Consultor</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q66" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8521,7 +8515,7 @@
         <v>Segmento Geral</v>
       </c>
       <c r="V66" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W66" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8534,7 +8528,7 @@
         <v>9</v>
       </c>
       <c r="Z66" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA66" s="45" t="str">
         <f t="shared" ref="AA66:AA73" si="25">_xlfn.TRANSLATE(P66,"pt","en")</f>
@@ -8549,16 +8543,16 @@
         <v>75</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F67" s="57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>9</v>
@@ -8592,10 +8586,10 @@
         <v>X Empresa Consultora</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q67" s="26" t="str">
-        <f t="shared" ref="Q67:Q98" si="30">_xlfn.TRANSLATE(P67,"pt","es")</f>
+        <f t="shared" ref="Q67:Q72" si="30">_xlfn.TRANSLATE(P67,"pt","es")</f>
         <v>Proveedor de segmento general: es una empresa de consultoría</v>
       </c>
       <c r="R67" s="42" t="s">
@@ -8614,7 +8608,7 @@
         <v>Segmento Geral</v>
       </c>
       <c r="V67" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W67" s="60" t="str">
         <f t="shared" ref="W67:W72" si="34">CONCATENATE("Key.Fab.",A67)</f>
@@ -8627,7 +8621,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA67" s="45" t="str">
         <f t="shared" si="25"/>
@@ -8642,16 +8636,16 @@
         <v>75</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F68" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>9</v>
@@ -8685,7 +8679,7 @@
         <v>X Fabricante</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q68" s="26" t="str">
         <f t="shared" si="30"/>
@@ -8707,7 +8701,7 @@
         <v>Segmento Geral</v>
       </c>
       <c r="V68" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W68" s="60" t="str">
         <f t="shared" si="34"/>
@@ -8720,7 +8714,7 @@
         <v>9</v>
       </c>
       <c r="Z68" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AA68" s="45" t="str">
         <f t="shared" si="25"/>
@@ -8735,16 +8729,16 @@
         <v>75</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F69" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>9</v>
@@ -8778,7 +8772,7 @@
         <v>X Fornecimento</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q69" s="26" t="str">
         <f t="shared" si="30"/>
@@ -8800,7 +8794,7 @@
         <v>Segmento Geral</v>
       </c>
       <c r="V69" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W69" s="60" t="str">
         <f t="shared" si="34"/>
@@ -8813,7 +8807,7 @@
         <v>9</v>
       </c>
       <c r="Z69" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA69" s="45" t="str">
         <f t="shared" si="25"/>
@@ -8828,16 +8822,16 @@
         <v>75</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>9</v>
@@ -8871,7 +8865,7 @@
         <v>X Projetista</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q70" s="26" t="str">
         <f t="shared" si="30"/>
@@ -8893,7 +8887,7 @@
         <v>Segmento Geral</v>
       </c>
       <c r="V70" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W70" s="60" t="str">
         <f t="shared" si="34"/>
@@ -8906,7 +8900,7 @@
         <v>9</v>
       </c>
       <c r="Z70" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA70" s="45" t="str">
         <f t="shared" si="25"/>
@@ -8921,16 +8915,16 @@
         <v>75</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>9</v>
@@ -8964,7 +8958,7 @@
         <v>X Serviço</v>
       </c>
       <c r="P71" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q71" s="26" t="str">
         <f t="shared" si="30"/>
@@ -8986,7 +8980,7 @@
         <v>Segmento Geral</v>
       </c>
       <c r="V71" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W71" s="60" t="str">
         <f t="shared" si="34"/>
@@ -8999,7 +8993,7 @@
         <v>9</v>
       </c>
       <c r="Z71" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA71" s="45" t="str">
         <f t="shared" si="25"/>
@@ -9014,16 +9008,16 @@
         <v>75</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F72" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>9</v>
@@ -9057,7 +9051,7 @@
         <v>X Vendedor</v>
       </c>
       <c r="P72" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q72" s="26" t="str">
         <f t="shared" si="30"/>
@@ -9079,7 +9073,7 @@
         <v>Segmento Geral</v>
       </c>
       <c r="V72" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W72" s="60" t="str">
         <f t="shared" si="34"/>
@@ -9092,7 +9086,7 @@
         <v>9</v>
       </c>
       <c r="Z72" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA72" s="45" t="str">
         <f t="shared" si="25"/>
@@ -9107,16 +9101,16 @@
         <v>75</v>
       </c>
       <c r="C73" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="52" t="s">
         <v>249</v>
-      </c>
-      <c r="D73" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="E73" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>250</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>9</v>
@@ -9150,7 +9144,7 @@
         <v>Produto de Geotécnica</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q73" s="26" t="str">
         <f t="shared" ref="Q73:Q101" si="37">_xlfn.TRANSLATE(P73,"pt","es")</f>
@@ -9172,7 +9166,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V73" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W73" s="60" t="str">
         <f t="shared" ref="W73:W81" si="39">CONCATENATE("Key.Fab.",A73)</f>
@@ -9185,7 +9179,7 @@
         <v>9</v>
       </c>
       <c r="Z73" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA73" s="45" t="str">
         <f t="shared" si="25"/>
@@ -9200,16 +9194,16 @@
         <v>75</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F74" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>9</v>
@@ -9243,7 +9237,7 @@
         <v>Produto de Obra</v>
       </c>
       <c r="P74" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q74" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9265,7 +9259,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V74" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W74" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9278,7 +9272,7 @@
         <v>9</v>
       </c>
       <c r="Z74" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA74" s="45" t="str">
         <f t="shared" ref="AA74:AA101" si="47">_xlfn.TRANSLATE(P74,"pt","en")</f>
@@ -9293,16 +9287,16 @@
         <v>75</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>9</v>
@@ -9336,7 +9330,7 @@
         <v>Produto de Drenagem</v>
       </c>
       <c r="P75" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q75" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9358,7 +9352,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V75" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W75" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9371,7 +9365,7 @@
         <v>9</v>
       </c>
       <c r="Z75" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA75" s="45" t="str">
         <f t="shared" si="47"/>
@@ -9386,16 +9380,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F76" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>9</v>
@@ -9429,7 +9423,7 @@
         <v>Produto de Tráfego</v>
       </c>
       <c r="P76" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q76" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9451,7 +9445,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V76" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W76" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9464,7 +9458,7 @@
         <v>9</v>
       </c>
       <c r="Z76" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA76" s="45" t="str">
         <f t="shared" si="47"/>
@@ -9479,16 +9473,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E77" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F77" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>9</v>
@@ -9522,7 +9516,7 @@
         <v>Produto de Fundação</v>
       </c>
       <c r="P77" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q77" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9544,7 +9538,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V77" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W77" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9557,7 +9551,7 @@
         <v>9</v>
       </c>
       <c r="Z77" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA77" s="45" t="str">
         <f t="shared" si="47"/>
@@ -9572,16 +9566,16 @@
         <v>75</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F78" s="52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>9</v>
@@ -9615,7 +9609,7 @@
         <v>Produto de Estrutura</v>
       </c>
       <c r="P78" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q78" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9637,7 +9631,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V78" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W78" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9650,7 +9644,7 @@
         <v>9</v>
       </c>
       <c r="Z78" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA78" s="45" t="str">
         <f t="shared" si="47"/>
@@ -9665,16 +9659,16 @@
         <v>75</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>9</v>
@@ -9708,7 +9702,7 @@
         <v>Produto de Vedação</v>
       </c>
       <c r="P79" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q79" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9730,7 +9724,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V79" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W79" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9743,7 +9737,7 @@
         <v>9</v>
       </c>
       <c r="Z79" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA79" s="45" t="str">
         <f t="shared" si="47"/>
@@ -9758,16 +9752,16 @@
         <v>75</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E80" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F80" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>9</v>
@@ -9801,7 +9795,7 @@
         <v>Produto de Acabado</v>
       </c>
       <c r="P80" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q80" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9823,7 +9817,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V80" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W80" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9836,7 +9830,7 @@
         <v>9</v>
       </c>
       <c r="Z80" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA80" s="45" t="str">
         <f t="shared" si="47"/>
@@ -9851,16 +9845,16 @@
         <v>75</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>9</v>
@@ -9894,7 +9888,7 @@
         <v>Produto de Abertura</v>
       </c>
       <c r="P81" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q81" s="26" t="str">
         <f t="shared" si="37"/>
@@ -9916,7 +9910,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V81" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W81" s="60" t="str">
         <f t="shared" si="39"/>
@@ -9929,7 +9923,7 @@
         <v>9</v>
       </c>
       <c r="Z81" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AA81" s="45" t="str">
         <f t="shared" si="47"/>
@@ -9944,16 +9938,16 @@
         <v>75</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E82" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F82" s="52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>9</v>
@@ -9987,7 +9981,7 @@
         <v>Produto de Acústica</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q82" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10009,7 +10003,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V82" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W82" s="60" t="str">
         <f t="shared" ref="W82:W101" si="48">CONCATENATE("Key.Fab.",A82)</f>
@@ -10022,7 +10016,7 @@
         <v>9</v>
       </c>
       <c r="Z82" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA82" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10037,16 +10031,16 @@
         <v>75</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>9</v>
@@ -10080,7 +10074,7 @@
         <v>Produto de Elétrica</v>
       </c>
       <c r="P83" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q83" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10102,7 +10096,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V83" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W83" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10115,7 +10109,7 @@
         <v>9</v>
       </c>
       <c r="Z83" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA83" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10130,16 +10124,16 @@
         <v>75</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E84" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F84" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>9</v>
@@ -10173,7 +10167,7 @@
         <v>Produto de Iluminação</v>
       </c>
       <c r="P84" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q84" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10195,7 +10189,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V84" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W84" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10208,7 +10202,7 @@
         <v>9</v>
       </c>
       <c r="Z84" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA84" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10223,16 +10217,16 @@
         <v>75</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E85" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>9</v>
@@ -10266,7 +10260,7 @@
         <v>Produto de Exaustão Ventilação</v>
       </c>
       <c r="P85" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q85" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10288,7 +10282,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V85" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W85" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10301,7 +10295,7 @@
         <v>9</v>
       </c>
       <c r="Z85" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA85" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10316,16 +10310,16 @@
         <v>75</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E86" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F86" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>9</v>
@@ -10359,7 +10353,7 @@
         <v>Produto de Telecom Urbana</v>
       </c>
       <c r="P86" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q86" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10381,7 +10375,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V86" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W86" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10394,7 +10388,7 @@
         <v>9</v>
       </c>
       <c r="Z86" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA86" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10409,16 +10403,16 @@
         <v>75</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E87" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>9</v>
@@ -10452,7 +10446,7 @@
         <v>Produto de Telecom Predial</v>
       </c>
       <c r="P87" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q87" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10474,7 +10468,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V87" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W87" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10487,7 +10481,7 @@
         <v>9</v>
       </c>
       <c r="Z87" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA87" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10502,16 +10496,16 @@
         <v>75</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E88" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F88" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G88" s="28" t="s">
         <v>9</v>
@@ -10545,7 +10539,7 @@
         <v>Produto de Hidráulica Urbana</v>
       </c>
       <c r="P88" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q88" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10567,7 +10561,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V88" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W88" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10580,7 +10574,7 @@
         <v>9</v>
       </c>
       <c r="Z88" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA88" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10595,16 +10589,16 @@
         <v>75</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E89" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F89" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G89" s="28" t="s">
         <v>9</v>
@@ -10638,7 +10632,7 @@
         <v>Produto de Hidráulica Predial</v>
       </c>
       <c r="P89" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q89" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10660,7 +10654,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V89" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W89" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10673,7 +10667,7 @@
         <v>9</v>
       </c>
       <c r="Z89" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA89" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10688,16 +10682,16 @@
         <v>75</v>
       </c>
       <c r="C90" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E90" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F90" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G90" s="28" t="s">
         <v>9</v>
@@ -10731,7 +10725,7 @@
         <v>Produto de Pluvial</v>
       </c>
       <c r="P90" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q90" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10753,7 +10747,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V90" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W90" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10766,7 +10760,7 @@
         <v>9</v>
       </c>
       <c r="Z90" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA90" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10781,16 +10775,16 @@
         <v>75</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>9</v>
@@ -10824,7 +10818,7 @@
         <v>Produto de Esgoto Predial</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q91" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10846,7 +10840,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V91" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W91" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10859,7 +10853,7 @@
         <v>9</v>
       </c>
       <c r="Z91" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA91" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10874,16 +10868,16 @@
         <v>75</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E92" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F92" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G92" s="28" t="s">
         <v>9</v>
@@ -10917,7 +10911,7 @@
         <v>Produto de Esgoto Urbano</v>
       </c>
       <c r="P92" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q92" s="26" t="str">
         <f t="shared" si="37"/>
@@ -10939,7 +10933,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V92" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W92" s="60" t="str">
         <f t="shared" si="48"/>
@@ -10952,7 +10946,7 @@
         <v>9</v>
       </c>
       <c r="Z92" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA92" s="45" t="str">
         <f t="shared" si="47"/>
@@ -10967,16 +10961,16 @@
         <v>75</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E93" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F93" s="52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>9</v>
@@ -11010,7 +11004,7 @@
         <v>Produto de Resíduo</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q93" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11032,7 +11026,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V93" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W93" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11045,7 +11039,7 @@
         <v>9</v>
       </c>
       <c r="Z93" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA93" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11060,16 +11054,16 @@
         <v>75</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E94" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F94" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G94" s="28" t="s">
         <v>9</v>
@@ -11103,7 +11097,7 @@
         <v>Produto de Refrigeração</v>
       </c>
       <c r="P94" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q94" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11125,7 +11119,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V94" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W94" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11138,7 +11132,7 @@
         <v>9</v>
       </c>
       <c r="Z94" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA94" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11153,16 +11147,16 @@
         <v>75</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G95" s="28" t="s">
         <v>9</v>
@@ -11196,7 +11190,7 @@
         <v>Produto de Aquecimento</v>
       </c>
       <c r="P95" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q95" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11218,7 +11212,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V95" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W95" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11231,7 +11225,7 @@
         <v>9</v>
       </c>
       <c r="Z95" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA95" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11246,16 +11240,16 @@
         <v>75</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F96" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>9</v>
@@ -11289,7 +11283,7 @@
         <v>Produto de Gases</v>
       </c>
       <c r="P96" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q96" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11311,7 +11305,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V96" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W96" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11324,7 +11318,7 @@
         <v>9</v>
       </c>
       <c r="Z96" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA96" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11339,16 +11333,16 @@
         <v>75</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G97" s="28" t="s">
         <v>9</v>
@@ -11382,7 +11376,7 @@
         <v>Produto de Mobiliário</v>
       </c>
       <c r="P97" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q97" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11404,7 +11398,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V97" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W97" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11417,7 +11411,7 @@
         <v>9</v>
       </c>
       <c r="Z97" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA97" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11432,16 +11426,16 @@
         <v>75</v>
       </c>
       <c r="C98" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F98" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G98" s="28" t="s">
         <v>9</v>
@@ -11475,7 +11469,7 @@
         <v>Produto de Automação</v>
       </c>
       <c r="P98" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q98" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11497,7 +11491,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V98" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W98" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11510,7 +11504,7 @@
         <v>9</v>
       </c>
       <c r="Z98" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA98" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11525,16 +11519,16 @@
         <v>75</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>9</v>
@@ -11568,7 +11562,7 @@
         <v>Produto de Proteção de Descargas</v>
       </c>
       <c r="P99" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q99" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11590,7 +11584,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V99" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W99" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11603,7 +11597,7 @@
         <v>9</v>
       </c>
       <c r="Z99" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA99" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11618,16 +11612,16 @@
         <v>75</v>
       </c>
       <c r="C100" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E100" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F100" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G100" s="28" t="s">
         <v>9</v>
@@ -11661,7 +11655,7 @@
         <v>Produto de Proteção de Incêndio</v>
       </c>
       <c r="P100" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q100" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11683,7 +11677,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V100" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W100" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11696,7 +11690,7 @@
         <v>9</v>
       </c>
       <c r="Z100" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA100" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11711,16 +11705,16 @@
         <v>75</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E101" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F101" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>9</v>
@@ -11754,7 +11748,7 @@
         <v>Produto de Segurança Patrimonial</v>
       </c>
       <c r="P101" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q101" s="26" t="str">
         <f t="shared" si="37"/>
@@ -11776,7 +11770,7 @@
         <v>Segmento de Produto</v>
       </c>
       <c r="V101" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="W101" s="60" t="str">
         <f t="shared" si="48"/>
@@ -11789,7 +11783,7 @@
         <v>9</v>
       </c>
       <c r="Z101" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA101" s="45" t="str">
         <f t="shared" si="47"/>
@@ -11799,27 +11793,27 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F1 F73:F1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F72">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="8" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA101">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12047,30 +12041,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.85" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.53515625" customWidth="1"/>
-    <col min="2" max="2" width="6.84375" customWidth="1"/>
-    <col min="3" max="3" width="5.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.07421875" customWidth="1"/>
+    <col min="3" max="3" width="5.765625" customWidth="1"/>
     <col min="4" max="4" width="6.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.23046875" customWidth="1"/>
-    <col min="6" max="6" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.84375" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.84375" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.69140625" style="38" customWidth="1"/>
-    <col min="11" max="11" width="22.15234375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" customWidth="1"/>
+    <col min="6" max="9" width="3.15234375" style="38" customWidth="1"/>
+    <col min="10" max="10" width="4.61328125" style="38" customWidth="1"/>
+    <col min="11" max="11" width="24.23046875" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.765625" style="38" customWidth="1"/>
-    <col min="13" max="13" width="16.53515625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.84375" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.23046875" style="61" customWidth="1"/>
+    <col min="14" max="14" width="6.07421875" style="38" customWidth="1"/>
+    <col min="15" max="15" width="32.61328125" style="38" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.84375" style="34" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
@@ -12089,7 +12080,7 @@
     <col min="31" max="31" width="2.84375" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -12132,7 +12123,7 @@
       <c r="N1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="15" t="s">
@@ -12184,16 +12175,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="36" t="s">
         <v>9</v>
       </c>
@@ -12227,7 +12218,7 @@
       <c r="N2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="P2" s="33" t="s">
@@ -12279,21 +12270,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>9</v>
@@ -12311,19 +12302,19 @@
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="M3" s="63" t="s">
+        <v>362</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>9</v>
+        <v>352</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>353</v>
       </c>
       <c r="P3" s="33" t="s">
         <v>9</v>
@@ -12374,21 +12365,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>9</v>
@@ -12406,19 +12397,19 @@
         <v>16</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>9</v>
+        <v>352</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>9</v>
@@ -12469,21 +12460,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="7.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>9</v>
@@ -12501,19 +12492,19 @@
         <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>9</v>
+        <v>352</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>354</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>9</v>
@@ -12561,32 +12552,208 @@
         <v>9</v>
       </c>
       <c r="AE5" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="16">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B5">
-    <cfRule type="duplicateValues" dxfId="5" priority="481"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="482"/>
+  <conditionalFormatting sqref="B1:B7">
+    <cfRule type="duplicateValues" dxfId="2" priority="481"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="482"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" display="www.fischerbrasil.com.br" xr:uid="{58CA33B9-B0E1-4DA5-B273-CF5879237956}"/>
-    <hyperlink ref="M4" r:id="rId2" display="www.tigre.com.br" xr:uid="{5A2D01ED-3424-413F-838B-2AE13BEEBD96}"/>
-    <hyperlink ref="M3" r:id="rId3" display="www.sgpam.com.br" xr:uid="{29847125-2839-42E7-B2F5-45BA1E0F51A5}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA037E-2875-4C28-8A94-C91E10FE001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FEC237-74E1-4380-BEA3-8750A532A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="390">
   <si>
     <t>Edição</t>
   </si>
@@ -1147,9 +1147,6 @@
     <t>"Tubos, conexões e acessórios para tubulações predias em PVC."</t>
   </si>
   <si>
-    <t>"Perfis laminado de aço estrutural, como perfis W, HP, I, etc."</t>
-  </si>
-  <si>
     <t>Cassol</t>
   </si>
   <si>
@@ -1159,9 +1156,6 @@
     <t>"página : https://www.cassol.ind.br"</t>
   </si>
   <si>
-    <t>"página : https://www.gerdau2.com.br"</t>
-  </si>
-  <si>
     <t>"página : https://www.sgpam.com.br"</t>
   </si>
   <si>
@@ -1186,7 +1180,70 @@
     <t>"Fabrica soluções para a construção pré-fabricada."</t>
   </si>
   <si>
-    <t>Fabricantes.Construção</t>
+    <t>Projeto.0001</t>
+  </si>
+  <si>
+    <t>Peças.Sanitárias</t>
+  </si>
+  <si>
+    <t>Peças.Estruturais</t>
+  </si>
+  <si>
+    <t>Peças.Mobiliário</t>
+  </si>
+  <si>
+    <t>Peças.Hidráulicas</t>
+  </si>
+  <si>
+    <t>Fabricantes</t>
+  </si>
+  <si>
+    <t>Deca</t>
+  </si>
+  <si>
+    <t>Sodimac</t>
+  </si>
+  <si>
+    <t>"página : https://www.sodimac.com.br"</t>
+  </si>
+  <si>
+    <t>"página : https://www.deca.com.br"</t>
+  </si>
+  <si>
+    <t>"Fabrica peças sanitárias para banho e cozinha."</t>
+  </si>
+  <si>
+    <t>"Fabrica mobiliário para escritório."</t>
+  </si>
+  <si>
+    <t>"Contêiner com toda a informação do projeto"</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças sanitárias usadas no projeto"</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças estruturais usadas no projeto"</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças mobiliário usados no projeto"</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças hidráulicas usadas no projeto"</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de fabricantes usados no projeto"</t>
+  </si>
+  <si>
+    <t>"Peças sanitárias para banheiro e cozinha, como bacias, cubas, lavatórios, bidês, chuveiros, duchas, torneiras, misturadores, válvulas, acessórios."</t>
+  </si>
+  <si>
+    <t>"Peças estruturais de aço. Perfis laminadoss W, HP, I, cantoneiras. Barras, arames, pregos, chapas, estribos, guias de elevadores, malhas."</t>
+  </si>
+  <si>
+    <t>"página : https://mais.gerdau.com.br"</t>
+  </si>
+  <si>
+    <t>"Mesas, cadeiras, armários de escritórios."</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1659,18 +1716,56 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2291,7 +2386,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46012.845384837965</v>
+        <v>46013.333489004632</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -2374,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P7" sqref="P7:P70"/>
     </sheetView>
@@ -11793,27 +11888,27 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F1 F73:F1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F72">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="5" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA101">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12041,46 +12136,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="7.85" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" customWidth="1"/>
-    <col min="2" max="2" width="10.07421875" customWidth="1"/>
-    <col min="3" max="3" width="5.765625" customWidth="1"/>
-    <col min="4" max="4" width="6.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69140625" customWidth="1"/>
-    <col min="6" max="9" width="3.15234375" style="38" customWidth="1"/>
-    <col min="10" max="10" width="4.61328125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="24.23046875" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.765625" style="38" customWidth="1"/>
-    <col min="13" max="13" width="21.23046875" style="61" customWidth="1"/>
-    <col min="14" max="14" width="6.07421875" style="38" customWidth="1"/>
-    <col min="15" max="15" width="32.61328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.84375" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.84375" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.15234375" style="38" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.84375" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.84375" style="34" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.84375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.84375" style="38" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.84375" style="38" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.3828125" style="38" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.84375" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="7.4609375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="5.765625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="6.765625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="5.3046875" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.3828125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.84375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.15234375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="2.84375" style="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.61328125" style="63" customWidth="1"/>
+    <col min="11" max="11" width="26.07421875" style="63" customWidth="1"/>
+    <col min="12" max="12" width="3.765625" style="63" customWidth="1"/>
+    <col min="13" max="13" width="21.23046875" style="64" customWidth="1"/>
+    <col min="14" max="14" width="6.07421875" style="63" customWidth="1"/>
+    <col min="15" max="15" width="56.15234375" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.84375" style="65" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.84375" style="65" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.15234375" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.84375" style="65" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.84375" style="65" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.3828125" style="55" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.84375" style="55" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.84375" style="63" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.84375" style="63" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.84375" style="63" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.15234375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -12096,7 +12195,7 @@
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="32" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -12175,21 +12274,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>9</v>
@@ -12204,22 +12303,22 @@
         <v>9</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>360</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>9</v>
+        <v>353</v>
       </c>
       <c r="P2" s="33" t="s">
         <v>9</v>
@@ -12270,12 +12369,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>107</v>
@@ -12284,7 +12383,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>9</v>
@@ -12302,19 +12401,19 @@
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M3" s="63" t="s">
-        <v>362</v>
+      <c r="M3" s="61" t="s">
+        <v>377</v>
       </c>
       <c r="N3" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="P3" s="33" t="s">
         <v>9</v>
@@ -12365,7 +12464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -12379,7 +12478,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>9</v>
@@ -12397,13 +12496,13 @@
         <v>16</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M4" s="63" t="s">
-        <v>363</v>
+      <c r="M4" s="62" t="s">
+        <v>361</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>352</v>
@@ -12460,7 +12559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -12474,7 +12573,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>9</v>
@@ -12492,13 +12591,13 @@
         <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M5" s="63" t="s">
-        <v>364</v>
+      <c r="M5" s="62" t="s">
+        <v>362</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>352</v>
@@ -12555,7 +12654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -12569,7 +12668,7 @@
         <v>79</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>9</v>
@@ -12587,19 +12686,19 @@
         <v>16</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M6" s="62" t="s">
-        <v>361</v>
+      <c r="M6" s="61" t="s">
+        <v>388</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>9</v>
@@ -12650,12 +12749,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="7.85" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>103</v>
@@ -12664,7 +12763,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>9</v>
@@ -12682,19 +12781,19 @@
         <v>16</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M7" s="62" t="s">
-        <v>360</v>
+      <c r="M7" s="61" t="s">
+        <v>359</v>
       </c>
       <c r="N7" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>9</v>
@@ -12742,17 +12841,687 @@
         <v>9</v>
       </c>
       <c r="AE7" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="16">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE12" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16">
+        <v>13</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD13" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="18" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B7">
-    <cfRule type="duplicateValues" dxfId="2" priority="481"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="482"/>
+  <conditionalFormatting sqref="B1:B14">
+    <cfRule type="duplicateValues" dxfId="5" priority="504"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="505"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K14">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FEC237-74E1-4380-BEA3-8750A532A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9F9BA-0BFF-4A3C-BE48-46929D7C09F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="391">
   <si>
     <t>Edição</t>
   </si>
@@ -1180,9 +1180,6 @@
     <t>"Fabrica soluções para a construção pré-fabricada."</t>
   </si>
   <si>
-    <t>Projeto.0001</t>
-  </si>
-  <si>
     <t>Peças.Sanitárias</t>
   </si>
   <si>
@@ -1195,9 +1192,6 @@
     <t>Peças.Hidráulicas</t>
   </si>
   <si>
-    <t>Fabricantes</t>
-  </si>
-  <si>
     <t>Deca</t>
   </si>
   <si>
@@ -1213,9 +1207,6 @@
     <t>"Fabrica peças sanitárias para banho e cozinha."</t>
   </si>
   <si>
-    <t>"Fabrica mobiliário para escritório."</t>
-  </si>
-  <si>
     <t>"Contêiner com toda a informação do projeto"</t>
   </si>
   <si>
@@ -1243,7 +1234,19 @@
     <t>"página : https://mais.gerdau.com.br"</t>
   </si>
   <si>
-    <t>"Mesas, cadeiras, armários de escritórios."</t>
+    <t>"Loja de materiais de construção."</t>
+  </si>
+  <si>
+    <t>"Fornece produtos de diversos fabricantes: Amanco, Quartzolit, Lorenzetti, Deca, Portobello, Ceusa, Incepa, Eucatex, Eliane, Suvinil, Coral, Vedacit e Viapol."</t>
+  </si>
+  <si>
+    <t>Catálogo.Projeto.01</t>
+  </si>
+  <si>
+    <t>Projeto.01</t>
+  </si>
+  <si>
+    <t>fornecedor.de</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2389,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46013.333489004632</v>
+        <v>46013.348831249998</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -2470,8 +2473,8 @@
   <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7:P70"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12138,18 +12141,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.53515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="7.4609375" style="55" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.765625" style="55" customWidth="1"/>
     <col min="4" max="4" width="6.765625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="5.3046875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.07421875" style="55" customWidth="1"/>
     <col min="6" max="6" width="2.3828125" style="55" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.84375" style="55" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.15234375" style="63" customWidth="1"/>
@@ -12159,7 +12162,7 @@
     <col min="12" max="12" width="3.765625" style="63" customWidth="1"/>
     <col min="13" max="13" width="21.23046875" style="64" customWidth="1"/>
     <col min="14" max="14" width="6.07421875" style="63" customWidth="1"/>
-    <col min="15" max="15" width="56.15234375" style="63" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.53515625" style="63" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.84375" style="65" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
@@ -12279,16 +12282,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>9</v>
@@ -12306,19 +12309,19 @@
         <v>16</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>360</v>
+        <v>9</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>353</v>
+        <v>9</v>
       </c>
       <c r="P2" s="33" t="s">
         <v>9</v>
@@ -12374,16 +12377,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>9</v>
@@ -12401,19 +12404,19 @@
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>377</v>
+        <v>9</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>386</v>
+        <v>9</v>
       </c>
       <c r="P3" s="33" t="s">
         <v>9</v>
@@ -12469,7 +12472,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>107</v>
@@ -12478,7 +12481,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>9</v>
@@ -12496,19 +12499,19 @@
         <v>16</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>9</v>
@@ -12564,16 +12567,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>9</v>
@@ -12591,19 +12594,19 @@
         <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>362</v>
+      <c r="M5" s="61" t="s">
+        <v>375</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>9</v>
@@ -12659,16 +12662,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>9</v>
@@ -12686,19 +12689,19 @@
         <v>16</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M6" s="61" t="s">
-        <v>388</v>
+      <c r="M6" s="62" t="s">
+        <v>361</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>9</v>
@@ -12754,16 +12757,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>9</v>
@@ -12781,19 +12784,19 @@
         <v>16</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M7" s="61" t="s">
-        <v>359</v>
+      <c r="M7" s="62" t="s">
+        <v>362</v>
       </c>
       <c r="N7" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>9</v>
@@ -12849,16 +12852,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>9</v>
@@ -12876,19 +12879,19 @@
         <v>16</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M8" s="61" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="N8" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P8" s="33" t="s">
         <v>9</v>
@@ -12944,16 +12947,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>9</v>
@@ -12971,19 +12974,19 @@
         <v>16</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>359</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>9</v>
@@ -13042,13 +13045,13 @@
         <v>373</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>9</v>
@@ -13066,19 +13069,19 @@
         <v>16</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>9</v>
+        <v>387</v>
       </c>
       <c r="P10" s="33" t="s">
         <v>9</v>
@@ -13134,7 +13137,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>94</v>
@@ -13143,7 +13146,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>9</v>
@@ -13161,7 +13164,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>9</v>
@@ -13229,7 +13232,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>94</v>
@@ -13238,7 +13241,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>9</v>
@@ -13256,7 +13259,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>9</v>
@@ -13324,7 +13327,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>94</v>
@@ -13333,7 +13336,7 @@
         <v>79</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>9</v>
@@ -13351,7 +13354,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>9</v>
@@ -13419,7 +13422,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>94</v>
@@ -13428,7 +13431,7 @@
         <v>79</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>9</v>
@@ -13446,7 +13449,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L14" s="33" t="s">
         <v>9</v>
@@ -13511,17 +13514,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B14">
-    <cfRule type="duplicateValues" dxfId="5" priority="504"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="505"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K14">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B14">
+    <cfRule type="duplicateValues" dxfId="1" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="512"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9F9BA-0BFF-4A3C-BE48-46929D7C09F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B9892-4E91-41D0-B6CE-5750A9E55C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="421">
   <si>
     <t>Edição</t>
   </si>
@@ -1135,24 +1135,12 @@
     <t>fabricante.de</t>
   </si>
   <si>
-    <t>"Tubos, conexões e acessórios para saneamento básico em Ferro Fundido Dúctil."</t>
-  </si>
-  <si>
-    <t>"Parafusos, chumbadores e elementos de fixação para diversos itens da construção."</t>
-  </si>
-  <si>
     <t>Gerdau</t>
   </si>
   <si>
-    <t>"Tubos, conexões e acessórios para tubulações predias em PVC."</t>
-  </si>
-  <si>
     <t>Cassol</t>
   </si>
   <si>
-    <t>"Colunas, vigas, lajes estruturais em concreto pre-fabricado."</t>
-  </si>
-  <si>
     <t>"página : https://www.cassol.ind.br"</t>
   </si>
   <si>
@@ -1225,21 +1213,12 @@
     <t>"Contêiner do catálogo de fabricantes usados no projeto"</t>
   </si>
   <si>
-    <t>"Peças sanitárias para banheiro e cozinha, como bacias, cubas, lavatórios, bidês, chuveiros, duchas, torneiras, misturadores, válvulas, acessórios."</t>
-  </si>
-  <si>
-    <t>"Peças estruturais de aço. Perfis laminadoss W, HP, I, cantoneiras. Barras, arames, pregos, chapas, estribos, guias de elevadores, malhas."</t>
-  </si>
-  <si>
     <t>"página : https://mais.gerdau.com.br"</t>
   </si>
   <si>
     <t>"Loja de materiais de construção."</t>
   </si>
   <si>
-    <t>"Fornece produtos de diversos fabricantes: Amanco, Quartzolit, Lorenzetti, Deca, Portobello, Ceusa, Incepa, Eucatex, Eliane, Suvinil, Coral, Vedacit e Viapol."</t>
-  </si>
-  <si>
     <t>Catálogo.Projeto.01</t>
   </si>
   <si>
@@ -1247,6 +1226,117 @@
   </si>
   <si>
     <t>fornecedor.de</t>
+  </si>
+  <si>
+    <t>"página : https://www.celite.com.br"</t>
+  </si>
+  <si>
+    <t>Celite</t>
+  </si>
+  <si>
+    <t>Knauf</t>
+  </si>
+  <si>
+    <t>"Fabrica produtos de construção a seco."</t>
+  </si>
+  <si>
+    <t>"página : https://www.knauf.com"</t>
+  </si>
+  <si>
+    <t>SG.Quartzolit</t>
+  </si>
+  <si>
+    <t>"página : https://www.quartzolit.weber"</t>
+  </si>
+  <si>
+    <t>"Fabrica argamassas industrializadas."</t>
+  </si>
+  <si>
+    <t>"Argamassas, rejuntes, impermeabilizantes, limpadores, adesivos, selantes, pisos, lixa e tintas."</t>
+  </si>
+  <si>
+    <t>Tecnoflex</t>
+  </si>
+  <si>
+    <t>Alberflex</t>
+  </si>
+  <si>
+    <t>Exponencial.Móveis.Corporativos</t>
+  </si>
+  <si>
+    <t>"página : https://www.exponencial.com.br"</t>
+  </si>
+  <si>
+    <t>"página : https://www.alberflex.com.br"</t>
+  </si>
+  <si>
+    <t>"página : https://tecnoflex.com"</t>
+  </si>
+  <si>
+    <t>"Fabrica mobiliário para escritórios"</t>
+  </si>
+  <si>
+    <t>"Sistemas de mobiliário corporativo: mesas, mesas elevatórias, cadeiras, sofás modulares, paineis privativos, cabines acústicas, divisórias, nichos, sistemas de arquivos, armários, divisores."</t>
+  </si>
+  <si>
+    <t>"Soluções de construção a seco: Drywall, tetos, forros e fachadas."</t>
+  </si>
+  <si>
+    <t>"Peças sanitárias para banheiro e cozinha: bacias, cubas, lavatórios, bidês, chuveiros, duchas, torneiras, misturadores, válvulas, acessórios."</t>
+  </si>
+  <si>
+    <t>"Tubulações predias em PVC: tubos de alimentação e esgoto, conexões, ralos e acessórios para hidráulica predial."</t>
+  </si>
+  <si>
+    <t>"Elementos de fixação: parafusos, chumbadores e fixação para diversos itens da construção."</t>
+  </si>
+  <si>
+    <t>"Peças estruturais de aço: perfis laminados W, HP, I, cantoneiras, barras, arames, pregos, chapas, estribos, guias de elevadores, malhas."</t>
+  </si>
+  <si>
+    <t>"Elementos de concreto pre-fabricado: colunas, vigas, lajes alveolares."</t>
+  </si>
+  <si>
+    <t>"Fornecedor de produtos: Amanco, Quartzolit, Lorenzetti, Deca, Portobello, Ceusa, Incepa, Eucatex, Eliane, Suvinil, Coral, Vedacit e Viapol."</t>
+  </si>
+  <si>
+    <t>"Peças para saneamento básico em Ferro Fundido Dúctil: tubos, conexões e acessórios."</t>
+  </si>
+  <si>
+    <t>"Especializada em moveis de aço para a indústria: prateleiras, bancadas, mesas de separação, armários para ferramentas, arquivos e ficharios de aço, balções, roupeiros, carrinhos de transporte."</t>
+  </si>
+  <si>
+    <t>"Sistemas de mobiliário corporativo: mesas, estações plataforma, cadeiras, suportes, paineis, divisórias, nichos, sistemas de arquivos, armários, divisores."</t>
+  </si>
+  <si>
+    <t>AtenuaSom</t>
+  </si>
+  <si>
+    <t>"Fabrica soluções acústicas para o projeto."</t>
+  </si>
+  <si>
+    <t>"página : https://www.atenuasom.com.br"</t>
+  </si>
+  <si>
+    <t>"Esquadrias acústicas: janelas antirruído, portas antirruído, portas e janelas minimalistas de grandes dimensões."</t>
+  </si>
+  <si>
+    <t>Protec</t>
+  </si>
+  <si>
+    <t>"Fabrica equipamentos hospitalares."</t>
+  </si>
+  <si>
+    <t>"página : https://www.protec.com.br"</t>
+  </si>
+  <si>
+    <t>"Equipamentos hospitalares: oxímetros, analisadores, monitores multiparamétricos, ventiladores pulmonares, etc."</t>
+  </si>
+  <si>
+    <t>Equipamentos.Saúde</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de equipamentos hospitalares usados no projeto"</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1734,41 +1824,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1867,8 +1930,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2389,7 +2452,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46013.348831249998</v>
+        <v>46013.554318981478</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -2473,7 +2536,7 @@
   <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -11891,27 +11954,27 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F1 F73:F1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F72">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="8" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA101">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12139,17 +12202,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.53515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.23046875" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.765625" style="55" customWidth="1"/>
     <col min="4" max="4" width="6.765625" style="55" customWidth="1"/>
     <col min="5" max="5" width="8.07421875" style="55" customWidth="1"/>
@@ -12158,7 +12221,7 @@
     <col min="8" max="8" width="3.15234375" style="63" customWidth="1"/>
     <col min="9" max="9" width="2.84375" style="63" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.61328125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="26.07421875" style="63" customWidth="1"/>
+    <col min="11" max="11" width="28.921875" style="63" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.765625" style="63" customWidth="1"/>
     <col min="13" max="13" width="21.23046875" style="64" customWidth="1"/>
     <col min="14" max="14" width="6.07421875" style="63" customWidth="1"/>
@@ -12282,7 +12345,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>94</v>
@@ -12309,7 +12372,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>9</v>
@@ -12377,7 +12440,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>94</v>
@@ -12386,7 +12449,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>9</v>
@@ -12404,7 +12467,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>9</v>
@@ -12472,16 +12535,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>9</v>
@@ -12499,19 +12562,19 @@
         <v>16</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>9</v>
@@ -12567,16 +12630,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>9</v>
@@ -12594,19 +12657,19 @@
         <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M5" s="61" t="s">
-        <v>375</v>
+      <c r="M5" s="62" t="s">
+        <v>390</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>9</v>
@@ -12662,7 +12725,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>107</v>
@@ -12671,7 +12734,7 @@
         <v>79</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>9</v>
@@ -12689,19 +12752,19 @@
         <v>16</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>9</v>
@@ -12756,17 +12819,17 @@
       <c r="A7" s="16">
         <v>7</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>328</v>
+      <c r="B7" s="66" t="s">
+        <v>393</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>9</v>
@@ -12784,19 +12847,19 @@
         <v>16</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>9</v>
@@ -12851,17 +12914,17 @@
       <c r="A8" s="16">
         <v>8</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>355</v>
+      <c r="B8" s="66" t="s">
+        <v>395</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>9</v>
@@ -12879,19 +12942,19 @@
         <v>16</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M8" s="61" t="s">
-        <v>385</v>
+      <c r="M8" s="62" t="s">
+        <v>396</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="P8" s="33" t="s">
         <v>9</v>
@@ -12946,17 +13009,17 @@
       <c r="A9" s="16">
         <v>9</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>357</v>
+      <c r="B9" s="66" t="s">
+        <v>394</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>9</v>
@@ -12974,19 +13037,19 @@
         <v>16</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M9" s="61" t="s">
-        <v>359</v>
+      <c r="M9" s="62" t="s">
+        <v>397</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>9</v>
@@ -13042,16 +13105,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>9</v>
@@ -13069,19 +13132,19 @@
         <v>16</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M10" s="61" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="P10" s="33" t="s">
         <v>9</v>
@@ -13137,16 +13200,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>9</v>
@@ -13164,19 +13227,19 @@
         <v>16</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>413</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>9</v>
+        <v>414</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>9</v>
@@ -13232,16 +13295,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>9</v>
@@ -13259,19 +13322,19 @@
         <v>16</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>371</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>9</v>
+        <v>402</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>9</v>
@@ -13327,16 +13390,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>9</v>
@@ -13354,19 +13417,19 @@
         <v>16</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M13" s="61" t="s">
+        <v>384</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>9</v>
+        <v>402</v>
       </c>
       <c r="P13" s="33" t="s">
         <v>9</v>
@@ -13422,16 +13485,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>9</v>
@@ -13449,82 +13512,932 @@
         <v>16</v>
       </c>
       <c r="K14" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="L14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="W14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD14" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="18" t="s">
+      <c r="F15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M15" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y15" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE16" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16">
+        <v>18</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE18" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16">
+        <v>19</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16">
+        <v>20</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16">
+        <v>21</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD21" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16">
+        <v>22</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE22" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16">
+        <v>23</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE23" s="18" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="162"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K14">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B14">
-    <cfRule type="duplicateValues" dxfId="1" priority="511"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="512"/>
+  <conditionalFormatting sqref="B1:B6 B10:B23">
+    <cfRule type="duplicateValues" dxfId="1" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="514"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B9892-4E91-41D0-B6CE-5750A9E55C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1CD78E-37E3-41C9-B5ED-EF479CCBD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="433">
   <si>
     <t>Edição</t>
   </si>
@@ -1153,21 +1153,6 @@
     <t>"página : https://www.fischerbrasil.com.br"</t>
   </si>
   <si>
-    <t>"Fabrica produtos de saneamento básico."</t>
-  </si>
-  <si>
-    <t>"Fabrica produtos de instalações sanitárias."</t>
-  </si>
-  <si>
-    <t>"Fabrica produtos de fixação."</t>
-  </si>
-  <si>
-    <t>"Fabrica perfis laminados estruturais."</t>
-  </si>
-  <si>
-    <t>"Fabrica soluções para a construção pré-fabricada."</t>
-  </si>
-  <si>
     <t>Peças.Sanitárias</t>
   </si>
   <si>
@@ -1192,27 +1177,6 @@
     <t>"página : https://www.deca.com.br"</t>
   </si>
   <si>
-    <t>"Fabrica peças sanitárias para banho e cozinha."</t>
-  </si>
-  <si>
-    <t>"Contêiner com toda a informação do projeto"</t>
-  </si>
-  <si>
-    <t>"Contêiner do catálogo de peças sanitárias usadas no projeto"</t>
-  </si>
-  <si>
-    <t>"Contêiner do catálogo de peças estruturais usadas no projeto"</t>
-  </si>
-  <si>
-    <t>"Contêiner do catálogo de peças mobiliário usados no projeto"</t>
-  </si>
-  <si>
-    <t>"Contêiner do catálogo de peças hidráulicas usadas no projeto"</t>
-  </si>
-  <si>
-    <t>"Contêiner do catálogo de fabricantes usados no projeto"</t>
-  </si>
-  <si>
     <t>"página : https://mais.gerdau.com.br"</t>
   </si>
   <si>
@@ -1237,9 +1201,6 @@
     <t>Knauf</t>
   </si>
   <si>
-    <t>"Fabrica produtos de construção a seco."</t>
-  </si>
-  <si>
     <t>"página : https://www.knauf.com"</t>
   </si>
   <si>
@@ -1249,9 +1210,6 @@
     <t>"página : https://www.quartzolit.weber"</t>
   </si>
   <si>
-    <t>"Fabrica argamassas industrializadas."</t>
-  </si>
-  <si>
     <t>"Argamassas, rejuntes, impermeabilizantes, limpadores, adesivos, selantes, pisos, lixa e tintas."</t>
   </si>
   <si>
@@ -1261,9 +1219,6 @@
     <t>Alberflex</t>
   </si>
   <si>
-    <t>Exponencial.Móveis.Corporativos</t>
-  </si>
-  <si>
     <t>"página : https://www.exponencial.com.br"</t>
   </si>
   <si>
@@ -1273,18 +1228,12 @@
     <t>"página : https://tecnoflex.com"</t>
   </si>
   <si>
-    <t>"Fabrica mobiliário para escritórios"</t>
-  </si>
-  <si>
     <t>"Sistemas de mobiliário corporativo: mesas, mesas elevatórias, cadeiras, sofás modulares, paineis privativos, cabines acústicas, divisórias, nichos, sistemas de arquivos, armários, divisores."</t>
   </si>
   <si>
     <t>"Soluções de construção a seco: Drywall, tetos, forros e fachadas."</t>
   </si>
   <si>
-    <t>"Peças sanitárias para banheiro e cozinha: bacias, cubas, lavatórios, bidês, chuveiros, duchas, torneiras, misturadores, válvulas, acessórios."</t>
-  </si>
-  <si>
     <t>"Tubulações predias em PVC: tubos de alimentação e esgoto, conexões, ralos e acessórios para hidráulica predial."</t>
   </si>
   <si>
@@ -1300,9 +1249,6 @@
     <t>"Fornecedor de produtos: Amanco, Quartzolit, Lorenzetti, Deca, Portobello, Ceusa, Incepa, Eucatex, Eliane, Suvinil, Coral, Vedacit e Viapol."</t>
   </si>
   <si>
-    <t>"Peças para saneamento básico em Ferro Fundido Dúctil: tubos, conexões e acessórios."</t>
-  </si>
-  <si>
     <t>"Especializada em moveis de aço para a indústria: prateleiras, bancadas, mesas de separação, armários para ferramentas, arquivos e ficharios de aço, balções, roupeiros, carrinhos de transporte."</t>
   </si>
   <si>
@@ -1312,9 +1258,6 @@
     <t>AtenuaSom</t>
   </si>
   <si>
-    <t>"Fabrica soluções acústicas para o projeto."</t>
-  </si>
-  <si>
     <t>"página : https://www.atenuasom.com.br"</t>
   </si>
   <si>
@@ -1324,9 +1267,6 @@
     <t>Protec</t>
   </si>
   <si>
-    <t>"Fabrica equipamentos hospitalares."</t>
-  </si>
-  <si>
     <t>"página : https://www.protec.com.br"</t>
   </si>
   <si>
@@ -1336,7 +1276,103 @@
     <t>Equipamentos.Saúde</t>
   </si>
   <si>
-    <t>"Contêiner do catálogo de equipamentos hospitalares usados no projeto"</t>
+    <t>"página : https://valeflux.com.br"</t>
+  </si>
+  <si>
+    <t>Valeflux</t>
+  </si>
+  <si>
+    <t>"Peças de aço para tubulações sanitárias e industriais: tubos, conexões, válvulas e acessórios."</t>
+  </si>
+  <si>
+    <t>"Peças para saneamento básico em Ferro Fundido Dúctil: tubos, conexões, válvulas e acessórios."</t>
+  </si>
+  <si>
+    <t>Sanitrit</t>
+  </si>
+  <si>
+    <t>"página : https://www.sfasanitrit.com.br"</t>
+  </si>
+  <si>
+    <t>"Bacias inteligentes, bombas, drenos e trituradores sanitários."</t>
+  </si>
+  <si>
+    <t>Tubrax</t>
+  </si>
+  <si>
+    <t>"página : https://www.tubrax.com.br"</t>
+  </si>
+  <si>
+    <t>"Equipamentos sanitários e cozinhas: bacias monobloco e convencionais, cubas de aço inox e cerâmica, banheiras, canal organizador, tanques, acessórios."</t>
+  </si>
+  <si>
+    <t>"Equipamentos sanitários de banheiro e cozinha: bacias, cubas, lavatórios, bidês, chuveiros, duchas, torneiras, misturadores, válvulas, acessórios."</t>
+  </si>
+  <si>
+    <t>"Fabricante de produtos de construção a seco."</t>
+  </si>
+  <si>
+    <t>"Fabricante de argamassas industrializadas."</t>
+  </si>
+  <si>
+    <t>"Fabricante de produtos de saneamento básico."</t>
+  </si>
+  <si>
+    <t>"Fabricante de equipamentos sanitários, marca da empresa Grupo TBX."</t>
+  </si>
+  <si>
+    <t>"Fabricante de produtos para tubulações sanitárias e industriais."</t>
+  </si>
+  <si>
+    <t>"Fabricante de soluções de esgotamento sanitário."</t>
+  </si>
+  <si>
+    <t>"Fabricante de equipamentos hospitalares."</t>
+  </si>
+  <si>
+    <t>"Fabricante de soluções acústicas para o projeto."</t>
+  </si>
+  <si>
+    <t>"Fabricante de produtos de instalações sanitárias."</t>
+  </si>
+  <si>
+    <t>"Fabricante de produtos de fixação."</t>
+  </si>
+  <si>
+    <t>"Fabricante de perfis laminados estruturais."</t>
+  </si>
+  <si>
+    <t>"Fabricante de soluções para a construção pré-Fabricada."</t>
+  </si>
+  <si>
+    <t>"Fabricante de equipamentos sanitários para banho e cozinha."</t>
+  </si>
+  <si>
+    <t>Exponencial.Móveis</t>
+  </si>
+  <si>
+    <t>"Fabricante de mobiliário para escritórios."</t>
+  </si>
+  <si>
+    <t>"Contêiner com toda a informação do projeto."</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de Fabricante de ntes usados no projeto."</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças sanitárias usadas no projeto."</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças estruturais usadas no projeto."</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças mobiliário usados no projeto."</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de peças hidráulicas usadas no projeto."</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de equipamentos hospitalares usados no projeto."</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1826,6 +1862,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2246,7 +2288,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2452,7 +2494,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46013.554318981478</v>
+        <v>46013.721969560182</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -2536,17 +2578,17 @@
   <dimension ref="A1:AA101"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3046875" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="6.921875" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="2" max="2" width="4.61328125" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" customWidth="1"/>
+    <col min="4" max="4" width="12.3828125" customWidth="1"/>
+    <col min="5" max="5" width="10.84375" customWidth="1"/>
     <col min="6" max="6" width="13.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.4609375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.53515625" customWidth="1"/>
@@ -12202,26 +12244,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.53515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="13.23046875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.765625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="6.765625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55" customWidth="1"/>
+    <col min="3" max="3" width="6.61328125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="7.23046875" style="55" customWidth="1"/>
     <col min="5" max="5" width="8.07421875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="2.3828125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.84375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.15234375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="2.84375" style="63" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.3828125" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.84375" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.15234375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="2.84375" style="65" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.61328125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="28.921875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.84375" style="63" customWidth="1"/>
     <col min="12" max="12" width="3.765625" style="63" customWidth="1"/>
     <col min="13" max="13" width="21.23046875" style="64" customWidth="1"/>
     <col min="14" max="14" width="6.07421875" style="63" customWidth="1"/>
@@ -12261,16 +12303,16 @@
       <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -12345,7 +12387,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>94</v>
@@ -12356,23 +12398,23 @@
       <c r="E2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="37" t="s">
+      <c r="F2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>9</v>
@@ -12440,7 +12482,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>94</v>
@@ -12449,25 +12491,25 @@
         <v>79</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>9</v>
@@ -12535,7 +12577,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>97</v>
@@ -12544,37 +12586,37 @@
         <v>79</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>9</v>
@@ -12630,7 +12672,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>97</v>
@@ -12639,37 +12681,37 @@
         <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>9</v>
@@ -12724,47 +12766,47 @@
       <c r="A6" s="16">
         <v>6</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>331</v>
+      <c r="B6" s="66" t="s">
+        <v>379</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>9</v>
@@ -12820,7 +12862,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>112</v>
@@ -12829,37 +12871,37 @@
         <v>79</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>9</v>
@@ -12915,7 +12957,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>112</v>
@@ -12924,37 +12966,37 @@
         <v>79</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="P8" s="33" t="s">
         <v>9</v>
@@ -13009,47 +13051,47 @@
       <c r="A9" s="16">
         <v>9</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>394</v>
+      <c r="B9" s="17" t="s">
+        <v>396</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="61" t="s">
         <v>397</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>9</v>
@@ -13105,46 +13147,46 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M10" s="61" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="N10" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="P10" s="33" t="s">
         <v>9</v>
@@ -13200,46 +13242,46 @@
         <v>11</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M11" s="61" t="s">
-        <v>413</v>
+      <c r="M11" s="62" t="s">
+        <v>356</v>
       </c>
       <c r="N11" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>9</v>
@@ -13295,7 +13337,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>107</v>
@@ -13304,37 +13346,37 @@
         <v>79</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M12" s="61" t="s">
-        <v>371</v>
+      <c r="M12" s="62" t="s">
+        <v>408</v>
       </c>
       <c r="N12" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>9</v>
@@ -13390,7 +13432,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>107</v>
@@ -13399,31 +13441,31 @@
         <v>79</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M13" s="61" t="s">
-        <v>384</v>
+      <c r="M13" s="62" t="s">
+        <v>400</v>
       </c>
       <c r="N13" s="33" t="s">
         <v>352</v>
@@ -13485,7 +13527,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>107</v>
@@ -13494,37 +13536,37 @@
         <v>79</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J14" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="L14" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M14" s="62" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="N14" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P14" s="33" t="s">
         <v>9</v>
@@ -13580,46 +13622,46 @@
         <v>15</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>288</v>
+        <v>107</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M15" s="62" t="s">
-        <v>358</v>
+      <c r="M15" s="61" t="s">
+        <v>366</v>
       </c>
       <c r="N15" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P15" s="33" t="s">
         <v>9</v>
@@ -13675,46 +13717,46 @@
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>330</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="N16" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P16" s="33" t="s">
         <v>9</v>
@@ -13770,46 +13812,46 @@
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="L17" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M17" s="61" t="s">
-        <v>355</v>
+      <c r="M17" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>352</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>9</v>
@@ -13865,46 +13907,46 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="61" t="s">
-        <v>370</v>
+      <c r="M18" s="62" t="s">
+        <v>358</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>9</v>
@@ -13960,46 +14002,46 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>367</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="P19" s="33" t="s">
         <v>9</v>
@@ -14055,46 +14097,46 @@
         <v>20</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>355</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>9</v>
+        <v>389</v>
       </c>
       <c r="P20" s="33" t="s">
         <v>9</v>
@@ -14150,46 +14192,46 @@
         <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>9</v>
+        <v>330</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>365</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="P21" s="33" t="s">
         <v>9</v>
@@ -14245,7 +14287,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>94</v>
@@ -14254,25 +14296,25 @@
         <v>79</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F22" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="L22" s="33" t="s">
         <v>9</v>
@@ -14340,7 +14382,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>94</v>
@@ -14349,25 +14391,25 @@
         <v>79</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="68" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="L23" s="33" t="s">
         <v>9</v>
@@ -14427,17 +14469,302 @@
         <v>9</v>
       </c>
       <c r="AE23" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16">
+        <v>24</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F24" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16">
+        <v>25</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y25" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16">
+        <v>26</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="F26" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE26" s="18" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="B9:B26 B1:B5">
+    <cfRule type="duplicateValues" dxfId="2" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="514"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B6 B10:B23">
-    <cfRule type="duplicateValues" dxfId="1" priority="513"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="514"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1CD78E-37E3-41C9-B5ED-EF479CCBD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9730681-F1AF-4ADE-BC4B-9E281862301D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="FatosIn" sheetId="38" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$F$1:$F$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$F$1:$F$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="448">
   <si>
     <t>Edição</t>
   </si>
@@ -838,15 +838,6 @@
     <t>Define um contêiner de informção de acordo à norma NBR 19650-1.</t>
   </si>
   <si>
-    <t>Segmento.de.Produto</t>
-  </si>
-  <si>
-    <t>Segmentos.de.Produto</t>
-  </si>
-  <si>
-    <t>Segmentos.de.Profissionais</t>
-  </si>
-  <si>
     <t>Produto.de.Proteção.de.Descargas</t>
   </si>
   <si>
@@ -1373,6 +1364,60 @@
   </si>
   <si>
     <t>"Contêiner do catálogo de equipamentos hospitalares usados no projeto."</t>
+  </si>
+  <si>
+    <t>Segmento.do.Produto</t>
+  </si>
+  <si>
+    <t>Segmentos.dos.Produto</t>
+  </si>
+  <si>
+    <t>Segmentos.dos.Profissionais</t>
+  </si>
+  <si>
+    <t>U.Consultor</t>
+  </si>
+  <si>
+    <t>U.Empresa.Consultora</t>
+  </si>
+  <si>
+    <t>U.Fabricante</t>
+  </si>
+  <si>
+    <t>U.Fornecimento</t>
+  </si>
+  <si>
+    <t>U.Projetista</t>
+  </si>
+  <si>
+    <t>U.Serviço</t>
+  </si>
+  <si>
+    <t>U.Vendedor</t>
+  </si>
+  <si>
+    <t>Fornecedor do segmento de iluminação: é um consultor autônomo</t>
+  </si>
+  <si>
+    <t>Fornecedor do segmento de iluminação: é uma empresa consultora</t>
+  </si>
+  <si>
+    <t>Fornecedor do segmento de iluminação: é um fabricante de produtos</t>
+  </si>
+  <si>
+    <t>Fornecedor do segmento de iluminação: é um fornecedor</t>
+  </si>
+  <si>
+    <t>Fornecedor do segmento de iluminação: é um Projetista ou Empresa de projeto</t>
+  </si>
+  <si>
+    <t>Fornecedor do segmento de iluminação: é um serviço</t>
+  </si>
+  <si>
+    <t>Fornecedor do segmento de iluminação: é um vendedor de produtos</t>
+  </si>
+  <si>
+    <t>Segmento.de.Iluminação</t>
   </si>
 </sst>
 </file>
@@ -2494,7 +2539,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46013.721969560182</v>
+        <v>46013.7298099537</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -2575,11 +2620,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2797,7 +2842,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>129</v>
@@ -2826,7 +2871,7 @@
       </c>
       <c r="M3" s="23" t="str">
         <f t="shared" ref="M3:M34" si="7">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N3" s="23" t="str">
         <f t="shared" ref="N3:N34" si="8">_xlfn.CONCAT(SUBSTITUTE(E3,"."," "))</f>
@@ -2837,7 +2882,7 @@
         <v>A Consultor</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q3" s="26" t="str">
         <f t="shared" ref="Q3:Q34" si="10">_xlfn.TRANSLATE(P3,"pt","es")</f>
@@ -2852,14 +2897,14 @@
       </c>
       <c r="T3" s="43" t="str">
         <f t="shared" ref="T3:T34" si="12">SUBSTITUTE(D3, ".", " ")</f>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U3" s="43" t="str">
         <f t="shared" ref="U3:U34" si="13">SUBSTITUTE(E3, ".", " ")</f>
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V3" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W3" s="60" t="str">
         <f t="shared" ref="W3:W34" si="14">CONCATENATE("Key.Fab.",A3)</f>
@@ -2890,7 +2935,7 @@
         <v>95</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>129</v>
@@ -2919,7 +2964,7 @@
       </c>
       <c r="M4" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N4" s="23" t="str">
         <f t="shared" si="8"/>
@@ -2930,7 +2975,7 @@
         <v>A Empresa Consultora</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2945,14 +2990,14 @@
       </c>
       <c r="T4" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U4" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V4" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W4" s="60" t="str">
         <f t="shared" si="14"/>
@@ -2983,7 +3028,7 @@
         <v>95</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>129</v>
@@ -3012,7 +3057,7 @@
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N5" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3023,7 +3068,7 @@
         <v>A Fabricante</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3038,14 +3083,14 @@
       </c>
       <c r="T5" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U5" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V5" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W5" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3076,7 +3121,7 @@
         <v>95</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>129</v>
@@ -3105,7 +3150,7 @@
       </c>
       <c r="M6" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N6" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3116,7 +3161,7 @@
         <v>A Fornecimento</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3131,14 +3176,14 @@
       </c>
       <c r="T6" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U6" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V6" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3169,13 +3214,13 @@
         <v>95</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>129</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>9</v>
@@ -3198,7 +3243,7 @@
       </c>
       <c r="M7" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N7" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3209,7 +3254,7 @@
         <v>A Projetista</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3224,14 +3269,14 @@
       </c>
       <c r="T7" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U7" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V7" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3262,7 +3307,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>129</v>
@@ -3291,7 +3336,7 @@
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N8" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3302,7 +3347,7 @@
         <v>A Serviço</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3317,14 +3362,14 @@
       </c>
       <c r="T8" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U8" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3355,7 +3400,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>129</v>
@@ -3384,7 +3429,7 @@
       </c>
       <c r="M9" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N9" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3395,7 +3440,7 @@
         <v>A Vendedor</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q9" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3410,14 +3455,14 @@
       </c>
       <c r="T9" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Arquitetura</v>
       </c>
       <c r="V9" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3448,7 +3493,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>130</v>
@@ -3477,7 +3522,7 @@
       </c>
       <c r="M10" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N10" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3503,14 +3548,14 @@
       </c>
       <c r="T10" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U10" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V10" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3541,7 +3586,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>130</v>
@@ -3570,7 +3615,7 @@
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N11" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3596,14 +3641,14 @@
       </c>
       <c r="T11" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U11" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V11" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3634,7 +3679,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>130</v>
@@ -3663,7 +3708,7 @@
       </c>
       <c r="M12" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N12" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3689,14 +3734,14 @@
       </c>
       <c r="T12" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U12" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V12" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3727,7 +3772,7 @@
         <v>95</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>130</v>
@@ -3756,7 +3801,7 @@
       </c>
       <c r="M13" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N13" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3767,7 +3812,7 @@
         <v>E Fornecimento</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3782,14 +3827,14 @@
       </c>
       <c r="T13" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U13" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V13" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3820,13 +3865,13 @@
         <v>95</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>9</v>
@@ -3849,7 +3894,7 @@
       </c>
       <c r="M14" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N14" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3860,7 +3905,7 @@
         <v>E Projetista</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="26" t="str">
         <f t="shared" si="10"/>
@@ -3875,14 +3920,14 @@
       </c>
       <c r="T14" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U14" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V14" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="14"/>
@@ -3913,7 +3958,7 @@
         <v>95</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>130</v>
@@ -3942,7 +3987,7 @@
       </c>
       <c r="M15" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N15" s="23" t="str">
         <f t="shared" si="8"/>
@@ -3968,14 +4013,14 @@
       </c>
       <c r="T15" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U15" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V15" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4006,7 +4051,7 @@
         <v>95</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>130</v>
@@ -4035,7 +4080,7 @@
       </c>
       <c r="M16" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N16" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4061,14 +4106,14 @@
       </c>
       <c r="T16" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U16" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Estrutura</v>
       </c>
       <c r="V16" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W16" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4099,10 +4144,10 @@
         <v>95</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>126</v>
@@ -4128,7 +4173,7 @@
       </c>
       <c r="M17" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N17" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4154,14 +4199,14 @@
       </c>
       <c r="T17" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U17" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V17" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W17" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4192,10 +4237,10 @@
         <v>95</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>220</v>
@@ -4221,7 +4266,7 @@
       </c>
       <c r="M18" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N18" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4247,14 +4292,14 @@
       </c>
       <c r="T18" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U18" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V18" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4285,10 +4330,10 @@
         <v>95</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>128</v>
@@ -4314,7 +4359,7 @@
       </c>
       <c r="M19" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N19" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4340,14 +4385,14 @@
       </c>
       <c r="T19" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U19" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V19" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4378,10 +4423,10 @@
         <v>95</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F20" s="57" t="s">
         <v>177</v>
@@ -4407,7 +4452,7 @@
       </c>
       <c r="M20" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N20" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4418,7 +4463,7 @@
         <v>G Fornecimento</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4433,14 +4478,14 @@
       </c>
       <c r="T20" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U20" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V20" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4471,13 +4516,13 @@
         <v>95</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>9</v>
@@ -4500,7 +4545,7 @@
       </c>
       <c r="M21" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N21" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4511,7 +4556,7 @@
         <v>G Projetista</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q21" s="26" t="str">
         <f t="shared" si="10"/>
@@ -4526,14 +4571,14 @@
       </c>
       <c r="T21" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U21" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V21" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W21" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4564,10 +4609,10 @@
         <v>95</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>125</v>
@@ -4593,7 +4638,7 @@
       </c>
       <c r="M22" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N22" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4619,14 +4664,14 @@
       </c>
       <c r="T22" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U22" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V22" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W22" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4657,10 +4702,10 @@
         <v>95</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F23" s="57" t="s">
         <v>127</v>
@@ -4686,7 +4731,7 @@
       </c>
       <c r="M23" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N23" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4712,14 +4757,14 @@
       </c>
       <c r="T23" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U23" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Geotécnica</v>
       </c>
       <c r="V23" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W23" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4750,7 +4795,7 @@
         <v>95</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>134</v>
@@ -4779,7 +4824,7 @@
       </c>
       <c r="M24" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N24" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4805,14 +4850,14 @@
       </c>
       <c r="T24" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U24" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V24" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W24" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4843,7 +4888,7 @@
         <v>95</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>134</v>
@@ -4872,7 +4917,7 @@
       </c>
       <c r="M25" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N25" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4898,14 +4943,14 @@
       </c>
       <c r="T25" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U25" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V25" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W25" s="60" t="str">
         <f t="shared" si="14"/>
@@ -4936,7 +4981,7 @@
         <v>95</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>134</v>
@@ -4965,7 +5010,7 @@
       </c>
       <c r="M26" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N26" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4991,14 +5036,14 @@
       </c>
       <c r="T26" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U26" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V26" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W26" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5029,7 +5074,7 @@
         <v>95</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>134</v>
@@ -5058,7 +5103,7 @@
       </c>
       <c r="M27" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N27" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5069,7 +5114,7 @@
         <v>H Fornecimento</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q27" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5084,14 +5129,14 @@
       </c>
       <c r="T27" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U27" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V27" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W27" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5122,13 +5167,13 @@
         <v>95</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>134</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>9</v>
@@ -5151,7 +5196,7 @@
       </c>
       <c r="M28" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N28" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5162,7 +5207,7 @@
         <v>H Projetista</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q28" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5177,14 +5222,14 @@
       </c>
       <c r="T28" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U28" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V28" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W28" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5215,7 +5260,7 @@
         <v>95</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>134</v>
@@ -5244,7 +5289,7 @@
       </c>
       <c r="M29" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N29" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5270,14 +5315,14 @@
       </c>
       <c r="T29" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U29" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V29" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W29" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5308,7 +5353,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>134</v>
@@ -5337,7 +5382,7 @@
       </c>
       <c r="M30" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N30" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5363,14 +5408,14 @@
       </c>
       <c r="T30" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U30" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento Hospitalar</v>
       </c>
       <c r="V30" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W30" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5401,7 +5446,7 @@
         <v>95</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>131</v>
@@ -5430,7 +5475,7 @@
       </c>
       <c r="M31" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N31" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5456,14 +5501,14 @@
       </c>
       <c r="T31" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U31" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Instalações</v>
       </c>
       <c r="V31" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W31" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5494,7 +5539,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>131</v>
@@ -5523,7 +5568,7 @@
       </c>
       <c r="M32" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N32" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5549,14 +5594,14 @@
       </c>
       <c r="T32" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U32" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Instalações</v>
       </c>
       <c r="V32" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W32" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5587,7 +5632,7 @@
         <v>95</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>131</v>
@@ -5616,7 +5661,7 @@
       </c>
       <c r="M33" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N33" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5642,14 +5687,14 @@
       </c>
       <c r="T33" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U33" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Instalações</v>
       </c>
       <c r="V33" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W33" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5680,7 +5725,7 @@
         <v>95</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>131</v>
@@ -5709,7 +5754,7 @@
       </c>
       <c r="M34" s="23" t="str">
         <f t="shared" si="7"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N34" s="23" t="str">
         <f t="shared" si="8"/>
@@ -5720,7 +5765,7 @@
         <v>I Fornecimento</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q34" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5735,14 +5780,14 @@
       </c>
       <c r="T34" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U34" s="43" t="str">
         <f t="shared" si="13"/>
         <v>Segmento de Instalações</v>
       </c>
       <c r="V34" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W34" s="60" t="str">
         <f t="shared" si="14"/>
@@ -5773,13 +5818,13 @@
         <v>95</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E35" s="52" t="s">
         <v>131</v>
       </c>
       <c r="F35" s="57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>9</v>
@@ -5802,7 +5847,7 @@
       </c>
       <c r="M35" s="23" t="str">
         <f t="shared" ref="M35:M66" si="17">_xlfn.CONCAT(SUBSTITUTE(D35,"."," "))</f>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N35" s="23" t="str">
         <f t="shared" ref="N35:N66" si="18">_xlfn.CONCAT(SUBSTITUTE(E35,"."," "))</f>
@@ -5813,7 +5858,7 @@
         <v>I Projetista</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q35" s="26" t="str">
         <f t="shared" ref="Q35:Q66" si="20">_xlfn.TRANSLATE(P35,"pt","es")</f>
@@ -5828,14 +5873,14 @@
       </c>
       <c r="T35" s="43" t="str">
         <f t="shared" ref="T35:T66" si="22">SUBSTITUTE(D35, ".", " ")</f>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U35" s="43" t="str">
         <f t="shared" ref="U35:U66" si="23">SUBSTITUTE(E35, ".", " ")</f>
         <v>Segmento de Instalações</v>
       </c>
       <c r="V35" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W35" s="60" t="str">
         <f t="shared" ref="W35:W66" si="24">CONCATENATE("Key.Fab.",A35)</f>
@@ -5866,7 +5911,7 @@
         <v>95</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>131</v>
@@ -5895,7 +5940,7 @@
       </c>
       <c r="M36" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N36" s="23" t="str">
         <f t="shared" si="18"/>
@@ -5921,14 +5966,14 @@
       </c>
       <c r="T36" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U36" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Instalações</v>
       </c>
       <c r="V36" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W36" s="60" t="str">
         <f t="shared" si="24"/>
@@ -5959,7 +6004,7 @@
         <v>95</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>131</v>
@@ -5988,7 +6033,7 @@
       </c>
       <c r="M37" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N37" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6014,14 +6059,14 @@
       </c>
       <c r="T37" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U37" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Instalações</v>
       </c>
       <c r="V37" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W37" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6052,7 +6097,7 @@
         <v>95</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>135</v>
@@ -6081,7 +6126,7 @@
       </c>
       <c r="M38" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N38" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6107,14 +6152,14 @@
       </c>
       <c r="T38" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U38" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V38" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W38" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6145,7 +6190,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>135</v>
@@ -6174,7 +6219,7 @@
       </c>
       <c r="M39" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N39" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6200,14 +6245,14 @@
       </c>
       <c r="T39" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U39" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V39" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W39" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6238,7 +6283,7 @@
         <v>95</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>135</v>
@@ -6267,7 +6312,7 @@
       </c>
       <c r="M40" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N40" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6293,14 +6338,14 @@
       </c>
       <c r="T40" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U40" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V40" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W40" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6331,7 +6376,7 @@
         <v>95</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>135</v>
@@ -6360,7 +6405,7 @@
       </c>
       <c r="M41" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N41" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6371,7 +6416,7 @@
         <v>L Fornecimento</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q41" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6386,14 +6431,14 @@
       </c>
       <c r="T41" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U41" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V41" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W41" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6424,13 +6469,13 @@
         <v>95</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E42" s="52" t="s">
         <v>135</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>9</v>
@@ -6453,7 +6498,7 @@
       </c>
       <c r="M42" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N42" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6464,7 +6509,7 @@
         <v>L Projetista</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q42" s="26" t="str">
         <f t="shared" si="20"/>
@@ -6479,14 +6524,14 @@
       </c>
       <c r="T42" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U42" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V42" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W42" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6517,7 +6562,7 @@
         <v>95</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E43" s="52" t="s">
         <v>135</v>
@@ -6546,7 +6591,7 @@
       </c>
       <c r="M43" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N43" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6572,14 +6617,14 @@
       </c>
       <c r="T43" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U43" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V43" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W43" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6610,7 +6655,7 @@
         <v>95</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>135</v>
@@ -6639,7 +6684,7 @@
       </c>
       <c r="M44" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N44" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6665,14 +6710,14 @@
       </c>
       <c r="T44" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U44" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Laboratorial</v>
       </c>
       <c r="V44" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W44" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6703,7 +6748,7 @@
         <v>95</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E45" s="52" t="s">
         <v>133</v>
@@ -6732,7 +6777,7 @@
       </c>
       <c r="M45" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N45" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6758,14 +6803,14 @@
       </c>
       <c r="T45" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U45" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V45" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W45" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6796,7 +6841,7 @@
         <v>95</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E46" s="52" t="s">
         <v>133</v>
@@ -6825,7 +6870,7 @@
       </c>
       <c r="M46" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N46" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6851,14 +6896,14 @@
       </c>
       <c r="T46" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U46" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V46" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W46" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6889,7 +6934,7 @@
         <v>95</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>133</v>
@@ -6918,7 +6963,7 @@
       </c>
       <c r="M47" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N47" s="23" t="str">
         <f t="shared" si="18"/>
@@ -6944,14 +6989,14 @@
       </c>
       <c r="T47" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U47" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V47" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W47" s="60" t="str">
         <f t="shared" si="24"/>
@@ -6982,7 +7027,7 @@
         <v>95</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>133</v>
@@ -7011,7 +7056,7 @@
       </c>
       <c r="M48" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N48" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7022,7 +7067,7 @@
         <v>M Fornecimento</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q48" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7037,14 +7082,14 @@
       </c>
       <c r="T48" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U48" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V48" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W48" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7075,13 +7120,13 @@
         <v>95</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>133</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>9</v>
@@ -7104,7 +7149,7 @@
       </c>
       <c r="M49" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N49" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7115,7 +7160,7 @@
         <v>M Projetista</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q49" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7130,14 +7175,14 @@
       </c>
       <c r="T49" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U49" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V49" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W49" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7168,7 +7213,7 @@
         <v>95</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>133</v>
@@ -7197,7 +7242,7 @@
       </c>
       <c r="M50" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N50" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7223,14 +7268,14 @@
       </c>
       <c r="T50" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U50" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V50" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W50" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7261,7 +7306,7 @@
         <v>95</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E51" s="52" t="s">
         <v>133</v>
@@ -7290,7 +7335,7 @@
       </c>
       <c r="M51" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N51" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7316,14 +7361,14 @@
       </c>
       <c r="T51" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U51" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Mobiliário</v>
       </c>
       <c r="V51" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W51" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7354,7 +7399,7 @@
         <v>95</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E52" s="52" t="s">
         <v>132</v>
@@ -7383,7 +7428,7 @@
       </c>
       <c r="M52" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N52" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7409,14 +7454,14 @@
       </c>
       <c r="T52" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U52" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Inovação</v>
       </c>
       <c r="V52" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W52" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7447,7 +7492,7 @@
         <v>95</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E53" s="52" t="s">
         <v>132</v>
@@ -7476,7 +7521,7 @@
       </c>
       <c r="M53" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N53" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7502,14 +7547,14 @@
       </c>
       <c r="T53" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U53" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Inovação</v>
       </c>
       <c r="V53" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W53" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7540,7 +7585,7 @@
         <v>95</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E54" s="52" t="s">
         <v>132</v>
@@ -7569,7 +7614,7 @@
       </c>
       <c r="M54" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N54" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7595,14 +7640,14 @@
       </c>
       <c r="T54" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U54" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Inovação</v>
       </c>
       <c r="V54" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W54" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7633,7 +7678,7 @@
         <v>95</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>132</v>
@@ -7662,7 +7707,7 @@
       </c>
       <c r="M55" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N55" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7673,7 +7718,7 @@
         <v>N Fornecimento</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q55" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7688,14 +7733,14 @@
       </c>
       <c r="T55" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U55" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Inovação</v>
       </c>
       <c r="V55" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W55" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7726,13 +7771,13 @@
         <v>95</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>132</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>9</v>
@@ -7755,7 +7800,7 @@
       </c>
       <c r="M56" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N56" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7766,7 +7811,7 @@
         <v>N Projetista</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q56" s="26" t="str">
         <f t="shared" si="20"/>
@@ -7781,14 +7826,14 @@
       </c>
       <c r="T56" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U56" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Inovação</v>
       </c>
       <c r="V56" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W56" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7819,7 +7864,7 @@
         <v>95</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>132</v>
@@ -7848,7 +7893,7 @@
       </c>
       <c r="M57" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N57" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7874,14 +7919,14 @@
       </c>
       <c r="T57" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U57" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Inovação</v>
       </c>
       <c r="V57" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W57" s="60" t="str">
         <f t="shared" si="24"/>
@@ -7912,7 +7957,7 @@
         <v>95</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>132</v>
@@ -7941,7 +7986,7 @@
       </c>
       <c r="M58" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N58" s="23" t="str">
         <f t="shared" si="18"/>
@@ -7967,14 +8012,14 @@
       </c>
       <c r="T58" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U58" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Inovação</v>
       </c>
       <c r="V58" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W58" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8005,13 +8050,13 @@
         <v>95</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>9</v>
@@ -8034,7 +8079,7 @@
       </c>
       <c r="M59" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N59" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8045,7 +8090,7 @@
         <v>S Consultor</v>
       </c>
       <c r="P59" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q59" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8060,14 +8105,14 @@
       </c>
       <c r="T59" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U59" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Acústica</v>
       </c>
       <c r="V59" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W59" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8098,13 +8143,13 @@
         <v>95</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E60" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="57" t="s">
         <v>258</v>
-      </c>
-      <c r="F60" s="57" t="s">
-        <v>261</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>9</v>
@@ -8127,7 +8172,7 @@
       </c>
       <c r="M60" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N60" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8138,7 +8183,7 @@
         <v>S EmpresS Consultora</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q60" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8153,14 +8198,14 @@
       </c>
       <c r="T60" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U60" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Acústica</v>
       </c>
       <c r="V60" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W60" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8191,13 +8236,13 @@
         <v>95</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>9</v>
@@ -8220,7 +8265,7 @@
       </c>
       <c r="M61" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N61" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8231,7 +8276,7 @@
         <v>S Fabricante</v>
       </c>
       <c r="P61" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q61" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8246,14 +8291,14 @@
       </c>
       <c r="T61" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U61" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Acústica</v>
       </c>
       <c r="V61" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W61" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8284,13 +8329,13 @@
         <v>95</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>9</v>
@@ -8313,7 +8358,7 @@
       </c>
       <c r="M62" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N62" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8324,7 +8369,7 @@
         <v>S Fornecimento</v>
       </c>
       <c r="P62" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q62" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8339,14 +8384,14 @@
       </c>
       <c r="T62" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U62" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Acústica</v>
       </c>
       <c r="V62" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W62" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8377,13 +8422,13 @@
         <v>95</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>9</v>
@@ -8406,7 +8451,7 @@
       </c>
       <c r="M63" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N63" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8417,7 +8462,7 @@
         <v>S Projetista</v>
       </c>
       <c r="P63" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q63" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8432,14 +8477,14 @@
       </c>
       <c r="T63" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U63" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Acústica</v>
       </c>
       <c r="V63" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W63" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8470,13 +8515,13 @@
         <v>95</v>
       </c>
       <c r="D64" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="57" t="s">
         <v>256</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="F64" s="57" t="s">
-        <v>259</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>9</v>
@@ -8499,7 +8544,7 @@
       </c>
       <c r="M64" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N64" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8510,7 +8555,7 @@
         <v>S Serviço</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q64" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8525,14 +8570,14 @@
       </c>
       <c r="T64" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U64" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Acústica</v>
       </c>
       <c r="V64" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W64" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8563,13 +8608,13 @@
         <v>95</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>9</v>
@@ -8592,7 +8637,7 @@
       </c>
       <c r="M65" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N65" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8603,7 +8648,7 @@
         <v>S Vendedor</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q65" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8618,14 +8663,14 @@
       </c>
       <c r="T65" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U65" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento de Acústica</v>
       </c>
       <c r="V65" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W65" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8656,13 +8701,13 @@
         <v>95</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F66" s="57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>9</v>
@@ -8685,7 +8730,7 @@
       </c>
       <c r="M66" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N66" s="23" t="str">
         <f t="shared" si="18"/>
@@ -8696,7 +8741,7 @@
         <v>X Consultor</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q66" s="26" t="str">
         <f t="shared" si="20"/>
@@ -8711,14 +8756,14 @@
       </c>
       <c r="T66" s="43" t="str">
         <f t="shared" si="22"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U66" s="43" t="str">
         <f t="shared" si="23"/>
         <v>Segmento Geral</v>
       </c>
       <c r="V66" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W66" s="60" t="str">
         <f t="shared" si="24"/>
@@ -8734,7 +8779,7 @@
         <v>172</v>
       </c>
       <c r="AA66" s="45" t="str">
-        <f t="shared" ref="AA66:AA73" si="25">_xlfn.TRANSLATE(P66,"pt","en")</f>
+        <f t="shared" ref="AA66:AA80" si="25">_xlfn.TRANSLATE(P66,"pt","en")</f>
         <v>General segment supplier: is a self-employed consultant</v>
       </c>
     </row>
@@ -8749,13 +8794,13 @@
         <v>95</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E67" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F67" s="57" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>9</v>
@@ -8773,48 +8818,48 @@
         <v>9</v>
       </c>
       <c r="L67" s="23" t="str">
-        <f t="shared" ref="L67:L73" si="26">_xlfn.CONCAT(SUBSTITUTE(C67,"1.",""))</f>
+        <f t="shared" ref="L67:L80" si="26">_xlfn.CONCAT(SUBSTITUTE(C67,"1.",""))</f>
         <v>Fornecedores</v>
       </c>
       <c r="M67" s="23" t="str">
-        <f t="shared" ref="M67:M72" si="27">_xlfn.CONCAT(SUBSTITUTE(D67,"."," "))</f>
-        <v>Segmentos de Profissionais</v>
+        <f t="shared" ref="M67:M73" si="27">_xlfn.CONCAT(SUBSTITUTE(D67,"."," "))</f>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N67" s="23" t="str">
-        <f t="shared" ref="N67:N72" si="28">_xlfn.CONCAT(SUBSTITUTE(E67,"."," "))</f>
+        <f t="shared" ref="N67:N73" si="28">_xlfn.CONCAT(SUBSTITUTE(E67,"."," "))</f>
         <v>Segmento Geral</v>
       </c>
       <c r="O67" s="23" t="str">
-        <f t="shared" ref="O67:O72" si="29">_xlfn.CONCAT(SUBSTITUTE(F67,"."," "))</f>
+        <f t="shared" ref="O67:O73" si="29">_xlfn.CONCAT(SUBSTITUTE(F67,"."," "))</f>
         <v>X Empresa Consultora</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q67" s="26" t="str">
-        <f t="shared" ref="Q67:Q72" si="30">_xlfn.TRANSLATE(P67,"pt","es")</f>
+        <f t="shared" ref="Q67:Q73" si="30">_xlfn.TRANSLATE(P67,"pt","es")</f>
         <v>Proveedor de segmento general: es una empresa de consultoría</v>
       </c>
       <c r="R67" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S67" s="43" t="str">
-        <f t="shared" ref="S67:S72" si="31">SUBSTITUTE(C67, ".", " ")</f>
+        <f t="shared" ref="S67:S73" si="31">SUBSTITUTE(C67, ".", " ")</f>
         <v>Fornecedores</v>
       </c>
       <c r="T67" s="43" t="str">
-        <f t="shared" ref="T67:T72" si="32">SUBSTITUTE(D67, ".", " ")</f>
-        <v>Segmentos de Profissionais</v>
+        <f t="shared" ref="T67:T73" si="32">SUBSTITUTE(D67, ".", " ")</f>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U67" s="43" t="str">
-        <f t="shared" ref="U67:U72" si="33">SUBSTITUTE(E67, ".", " ")</f>
+        <f t="shared" ref="U67:U73" si="33">SUBSTITUTE(E67, ".", " ")</f>
         <v>Segmento Geral</v>
       </c>
       <c r="V67" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W67" s="60" t="str">
-        <f t="shared" ref="W67:W72" si="34">CONCATENATE("Key.Fab.",A67)</f>
+        <f t="shared" ref="W67:W73" si="34">CONCATENATE("Key.Fab.",A67)</f>
         <v>Key.Fab.67</v>
       </c>
       <c r="X67" s="41" t="s">
@@ -8842,13 +8887,13 @@
         <v>95</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F68" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>9</v>
@@ -8871,7 +8916,7 @@
       </c>
       <c r="M68" s="23" t="str">
         <f t="shared" si="27"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N68" s="23" t="str">
         <f t="shared" si="28"/>
@@ -8882,7 +8927,7 @@
         <v>X Fabricante</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q68" s="26" t="str">
         <f t="shared" si="30"/>
@@ -8897,14 +8942,14 @@
       </c>
       <c r="T68" s="43" t="str">
         <f t="shared" si="32"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U68" s="43" t="str">
         <f t="shared" si="33"/>
         <v>Segmento Geral</v>
       </c>
       <c r="V68" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W68" s="60" t="str">
         <f t="shared" si="34"/>
@@ -8935,13 +8980,13 @@
         <v>95</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F69" s="57" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>9</v>
@@ -8964,7 +9009,7 @@
       </c>
       <c r="M69" s="23" t="str">
         <f t="shared" si="27"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N69" s="23" t="str">
         <f t="shared" si="28"/>
@@ -8975,7 +9020,7 @@
         <v>X Fornecimento</v>
       </c>
       <c r="P69" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q69" s="26" t="str">
         <f t="shared" si="30"/>
@@ -8990,14 +9035,14 @@
       </c>
       <c r="T69" s="43" t="str">
         <f t="shared" si="32"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U69" s="43" t="str">
         <f t="shared" si="33"/>
         <v>Segmento Geral</v>
       </c>
       <c r="V69" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W69" s="60" t="str">
         <f t="shared" si="34"/>
@@ -9028,13 +9073,13 @@
         <v>95</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>9</v>
@@ -9057,7 +9102,7 @@
       </c>
       <c r="M70" s="23" t="str">
         <f t="shared" si="27"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N70" s="23" t="str">
         <f t="shared" si="28"/>
@@ -9068,7 +9113,7 @@
         <v>X Projetista</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q70" s="26" t="str">
         <f t="shared" si="30"/>
@@ -9083,14 +9128,14 @@
       </c>
       <c r="T70" s="43" t="str">
         <f t="shared" si="32"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U70" s="43" t="str">
         <f t="shared" si="33"/>
         <v>Segmento Geral</v>
       </c>
       <c r="V70" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W70" s="60" t="str">
         <f t="shared" si="34"/>
@@ -9121,13 +9166,13 @@
         <v>95</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>9</v>
@@ -9150,7 +9195,7 @@
       </c>
       <c r="M71" s="23" t="str">
         <f t="shared" si="27"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N71" s="23" t="str">
         <f t="shared" si="28"/>
@@ -9161,7 +9206,7 @@
         <v>X Serviço</v>
       </c>
       <c r="P71" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q71" s="26" t="str">
         <f t="shared" si="30"/>
@@ -9176,14 +9221,14 @@
       </c>
       <c r="T71" s="43" t="str">
         <f t="shared" si="32"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U71" s="43" t="str">
         <f t="shared" si="33"/>
         <v>Segmento Geral</v>
       </c>
       <c r="V71" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W71" s="60" t="str">
         <f t="shared" si="34"/>
@@ -9214,13 +9259,13 @@
         <v>95</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="E72" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F72" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>9</v>
@@ -9243,7 +9288,7 @@
       </c>
       <c r="M72" s="23" t="str">
         <f t="shared" si="27"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N72" s="23" t="str">
         <f t="shared" si="28"/>
@@ -9254,7 +9299,7 @@
         <v>X Vendedor</v>
       </c>
       <c r="P72" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q72" s="26" t="str">
         <f t="shared" si="30"/>
@@ -9269,14 +9314,14 @@
       </c>
       <c r="T72" s="43" t="str">
         <f t="shared" si="32"/>
-        <v>Segmentos de Profissionais</v>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U72" s="43" t="str">
         <f t="shared" si="33"/>
         <v>Segmento Geral</v>
       </c>
       <c r="V72" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W72" s="60" t="str">
         <f t="shared" si="34"/>
@@ -9304,16 +9349,16 @@
         <v>75</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>249</v>
+        <v>447</v>
+      </c>
+      <c r="F73" s="57" t="s">
+        <v>433</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>9</v>
@@ -9332,47 +9377,47 @@
       </c>
       <c r="L73" s="23" t="str">
         <f t="shared" si="26"/>
-        <v>Fornecidos</v>
+        <v>Fornecedores</v>
       </c>
       <c r="M73" s="23" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(D73,"."," "))</f>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="27"/>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N73" s="23" t="str">
-        <f t="shared" ref="N73" si="35">_xlfn.CONCAT(SUBSTITUTE(E73,"."," "))</f>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="28"/>
+        <v>Segmento de Iluminação</v>
       </c>
       <c r="O73" s="23" t="str">
-        <f t="shared" ref="O73" si="36">_xlfn.CONCAT(SUBSTITUTE(F73,"."," "))</f>
-        <v>Produto de Geotécnica</v>
+        <f t="shared" si="29"/>
+        <v>U Consultor</v>
       </c>
       <c r="P73" s="23" t="s">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="Q73" s="26" t="str">
-        <f t="shared" ref="Q73:Q101" si="37">_xlfn.TRANSLATE(P73,"pt","es")</f>
-        <v>Es un producto o elemento del segmento geotécnico</v>
+        <f t="shared" si="30"/>
+        <v>Proveedor del segmento de iluminación: es consultor autónomo</v>
       </c>
       <c r="R73" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S73" s="43" t="str">
-        <f>SUBSTITUTE(C73, ".", " ")</f>
-        <v>Fornecidos</v>
+        <f t="shared" si="31"/>
+        <v>Fornecedores</v>
       </c>
       <c r="T73" s="43" t="str">
-        <f>SUBSTITUTE(D73, ".", " ")</f>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="32"/>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U73" s="43" t="str">
-        <f t="shared" ref="U73" si="38">SUBSTITUTE(E73, ".", " ")</f>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="33"/>
+        <v>Segmento de Iluminação</v>
       </c>
       <c r="V73" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W73" s="60" t="str">
-        <f t="shared" ref="W73:W81" si="39">CONCATENATE("Key.Fab.",A73)</f>
+        <f t="shared" si="34"/>
         <v>Key.Fab.73</v>
       </c>
       <c r="X73" s="41" t="s">
@@ -9381,12 +9426,12 @@
       <c r="Y73" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z73" s="50" t="s">
-        <v>185</v>
+      <c r="Z73" s="41" t="s">
+        <v>172</v>
       </c>
       <c r="AA73" s="45" t="str">
-        <f t="shared" si="25"/>
-        <v>It is a product or element of the geotechnical segment</v>
+        <f t="shared" ref="AA73:AA79" si="35">_xlfn.TRANSLATE(P73,"pt","en")</f>
+        <v>Lighting Segment Supplier: is a self-employed consultant</v>
       </c>
     </row>
     <row r="74" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9397,16 +9442,16 @@
         <v>75</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F74" s="52" t="s">
-        <v>221</v>
+        <v>447</v>
+      </c>
+      <c r="F74" s="57" t="s">
+        <v>434</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>9</v>
@@ -9424,48 +9469,48 @@
         <v>9</v>
       </c>
       <c r="L74" s="23" t="str">
-        <f t="shared" ref="L74:L101" si="40">_xlfn.CONCAT(SUBSTITUTE(C74,"1.",""))</f>
-        <v>Fornecidos</v>
+        <f t="shared" ref="L74:L79" si="36">_xlfn.CONCAT(SUBSTITUTE(C74,"1.",""))</f>
+        <v>Fornecedores</v>
       </c>
       <c r="M74" s="23" t="str">
-        <f t="shared" ref="M74:M101" si="41">_xlfn.CONCAT(SUBSTITUTE(D74,"."," "))</f>
-        <v>Segmentos de Produto</v>
+        <f t="shared" ref="M74:M79" si="37">_xlfn.CONCAT(SUBSTITUTE(D74,"."," "))</f>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="N74" s="23" t="str">
-        <f t="shared" ref="N74:N101" si="42">_xlfn.CONCAT(SUBSTITUTE(E74,"."," "))</f>
-        <v>Segmento de Produto</v>
+        <f t="shared" ref="N74:N79" si="38">_xlfn.CONCAT(SUBSTITUTE(E74,"."," "))</f>
+        <v>Segmento de Iluminação</v>
       </c>
       <c r="O74" s="23" t="str">
-        <f t="shared" ref="O74:O101" si="43">_xlfn.CONCAT(SUBSTITUTE(F74,"."," "))</f>
-        <v>Produto de Obra</v>
+        <f t="shared" ref="O74:O79" si="39">_xlfn.CONCAT(SUBSTITUTE(F74,"."," "))</f>
+        <v>U Empresa Consultora</v>
       </c>
       <c r="P74" s="23" t="s">
-        <v>326</v>
+        <v>441</v>
       </c>
       <c r="Q74" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de obra</v>
+        <f t="shared" ref="Q74:Q79" si="40">_xlfn.TRANSLATE(P74,"pt","es")</f>
+        <v>Proveedor en el segmento de iluminación: es una empresa de consultoría</v>
       </c>
       <c r="R74" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S74" s="43" t="str">
-        <f t="shared" ref="S74:S101" si="44">SUBSTITUTE(C74, ".", " ")</f>
-        <v>Fornecidos</v>
+        <f t="shared" ref="S74:S79" si="41">SUBSTITUTE(C74, ".", " ")</f>
+        <v>Fornecedores</v>
       </c>
       <c r="T74" s="43" t="str">
-        <f t="shared" ref="T74:T101" si="45">SUBSTITUTE(D74, ".", " ")</f>
-        <v>Segmentos de Produto</v>
+        <f t="shared" ref="T74:T79" si="42">SUBSTITUTE(D74, ".", " ")</f>
+        <v>Segmentos dos Profissionais</v>
       </c>
       <c r="U74" s="43" t="str">
-        <f t="shared" ref="U74:U101" si="46">SUBSTITUTE(E74, ".", " ")</f>
-        <v>Segmento de Produto</v>
+        <f t="shared" ref="U74:U79" si="43">SUBSTITUTE(E74, ".", " ")</f>
+        <v>Segmento de Iluminação</v>
       </c>
       <c r="V74" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W74" s="60" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="W74:W79" si="44">CONCATENATE("Key.Fab.",A74)</f>
         <v>Key.Fab.74</v>
       </c>
       <c r="X74" s="41" t="s">
@@ -9474,12 +9519,12 @@
       <c r="Y74" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z74" s="50" t="s">
-        <v>186</v>
+      <c r="Z74" s="41" t="s">
+        <v>172</v>
       </c>
       <c r="AA74" s="45" t="str">
-        <f t="shared" ref="AA74:AA101" si="47">_xlfn.TRANSLATE(P74,"pt","en")</f>
-        <v>It is a product or element of the construction site segment</v>
+        <f t="shared" si="35"/>
+        <v>Supplier in the lighting segment: it is a consulting company</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9490,16 +9535,16 @@
         <v>75</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="E75" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>222</v>
+        <v>447</v>
+      </c>
+      <c r="F75" s="57" t="s">
+        <v>435</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>9</v>
@@ -9517,48 +9562,48 @@
         <v>9</v>
       </c>
       <c r="L75" s="23" t="str">
+        <f t="shared" si="36"/>
+        <v>Fornecedores</v>
+      </c>
+      <c r="M75" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="N75" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="O75" s="23" t="str">
+        <f t="shared" si="39"/>
+        <v>U Fabricante</v>
+      </c>
+      <c r="P75" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q75" s="26" t="str">
         <f t="shared" si="40"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="M75" s="23" t="str">
+        <v>Proveedor del segmento de iluminación: es un fabricante de productos</v>
+      </c>
+      <c r="R75" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S75" s="43" t="str">
         <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="N75" s="23" t="str">
+        <v>Fornecedores</v>
+      </c>
+      <c r="T75" s="43" t="str">
         <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="O75" s="23" t="str">
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="U75" s="43" t="str">
         <f t="shared" si="43"/>
-        <v>Produto de Drenagem</v>
-      </c>
-      <c r="P75" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q75" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de drenaje</v>
-      </c>
-      <c r="R75" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S75" s="43" t="str">
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="V75" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W75" s="60" t="str">
         <f t="shared" si="44"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="T75" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="U75" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="V75" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="W75" s="60" t="str">
-        <f t="shared" si="39"/>
         <v>Key.Fab.75</v>
       </c>
       <c r="X75" s="41" t="s">
@@ -9567,12 +9612,12 @@
       <c r="Y75" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z75" s="50" t="s">
-        <v>187</v>
+      <c r="Z75" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="AA75" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the drainage segment</v>
+        <f t="shared" si="35"/>
+        <v>Lighting Segment Supplier: is a manufacturer of products</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9583,16 +9628,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="56" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="E76" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>223</v>
+        <v>447</v>
+      </c>
+      <c r="F76" s="57" t="s">
+        <v>436</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>9</v>
@@ -9610,48 +9655,48 @@
         <v>9</v>
       </c>
       <c r="L76" s="23" t="str">
+        <f t="shared" si="36"/>
+        <v>Fornecedores</v>
+      </c>
+      <c r="M76" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="N76" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="O76" s="23" t="str">
+        <f t="shared" si="39"/>
+        <v>U Fornecimento</v>
+      </c>
+      <c r="P76" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q76" s="26" t="str">
         <f t="shared" si="40"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="M76" s="23" t="str">
+        <v>Proveedor del segmento de iluminación: es un proveedor</v>
+      </c>
+      <c r="R76" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S76" s="43" t="str">
         <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="N76" s="23" t="str">
+        <v>Fornecedores</v>
+      </c>
+      <c r="T76" s="43" t="str">
         <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="O76" s="23" t="str">
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="U76" s="43" t="str">
         <f t="shared" si="43"/>
-        <v>Produto de Tráfego</v>
-      </c>
-      <c r="P76" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q76" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de tráfico y pavimentación</v>
-      </c>
-      <c r="R76" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S76" s="43" t="str">
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="V76" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W76" s="60" t="str">
         <f t="shared" si="44"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="T76" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="U76" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="V76" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="W76" s="60" t="str">
-        <f t="shared" si="39"/>
         <v>Key.Fab.76</v>
       </c>
       <c r="X76" s="41" t="s">
@@ -9660,12 +9705,12 @@
       <c r="Y76" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z76" s="50" t="s">
-        <v>188</v>
+      <c r="Z76" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="AA76" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the traffic and paving segment</v>
+        <f t="shared" si="35"/>
+        <v>Lighting segment supplier: is a supplier</v>
       </c>
     </row>
     <row r="77" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9676,16 +9721,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="E77" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>224</v>
+        <v>447</v>
+      </c>
+      <c r="F77" s="57" t="s">
+        <v>437</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>9</v>
@@ -9703,48 +9748,48 @@
         <v>9</v>
       </c>
       <c r="L77" s="23" t="str">
+        <f t="shared" si="36"/>
+        <v>Fornecedores</v>
+      </c>
+      <c r="M77" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="N77" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="O77" s="23" t="str">
+        <f t="shared" si="39"/>
+        <v>U Projetista</v>
+      </c>
+      <c r="P77" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q77" s="26" t="str">
         <f t="shared" si="40"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="M77" s="23" t="str">
+        <v>Proveedor del segmento de iluminación: es una empresa de diseño o diseñador</v>
+      </c>
+      <c r="R77" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S77" s="43" t="str">
         <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="N77" s="23" t="str">
+        <v>Fornecedores</v>
+      </c>
+      <c r="T77" s="43" t="str">
         <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="O77" s="23" t="str">
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="U77" s="43" t="str">
         <f t="shared" si="43"/>
-        <v>Produto de Fundação</v>
-      </c>
-      <c r="P77" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q77" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de estructura de la cimentación</v>
-      </c>
-      <c r="R77" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S77" s="43" t="str">
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="V77" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W77" s="60" t="str">
         <f t="shared" si="44"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="T77" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="U77" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="V77" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="W77" s="60" t="str">
-        <f t="shared" si="39"/>
         <v>Key.Fab.77</v>
       </c>
       <c r="X77" s="41" t="s">
@@ -9753,12 +9798,12 @@
       <c r="Y77" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z77" s="50" t="s">
-        <v>189</v>
+      <c r="Z77" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="AA77" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the foundation structure segment</v>
+        <f t="shared" si="35"/>
+        <v>Lighting Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9769,16 +9814,16 @@
         <v>75</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="E78" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>225</v>
+        <v>447</v>
+      </c>
+      <c r="F78" s="57" t="s">
+        <v>438</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>9</v>
@@ -9796,48 +9841,48 @@
         <v>9</v>
       </c>
       <c r="L78" s="23" t="str">
+        <f t="shared" si="36"/>
+        <v>Fornecedores</v>
+      </c>
+      <c r="M78" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="N78" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="O78" s="23" t="str">
+        <f t="shared" si="39"/>
+        <v>U Serviço</v>
+      </c>
+      <c r="P78" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q78" s="26" t="str">
         <f t="shared" si="40"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="M78" s="23" t="str">
+        <v>Proveedor del segmento de iluminación: es un servicio</v>
+      </c>
+      <c r="R78" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S78" s="43" t="str">
         <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="N78" s="23" t="str">
+        <v>Fornecedores</v>
+      </c>
+      <c r="T78" s="43" t="str">
         <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="O78" s="23" t="str">
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="U78" s="43" t="str">
         <f t="shared" si="43"/>
-        <v>Produto de Estrutura</v>
-      </c>
-      <c r="P78" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q78" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de estructura</v>
-      </c>
-      <c r="R78" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S78" s="43" t="str">
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="V78" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W78" s="60" t="str">
         <f t="shared" si="44"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="T78" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="U78" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="V78" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="W78" s="60" t="str">
-        <f t="shared" si="39"/>
         <v>Key.Fab.78</v>
       </c>
       <c r="X78" s="41" t="s">
@@ -9846,12 +9891,12 @@
       <c r="Y78" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z78" s="50" t="s">
-        <v>190</v>
+      <c r="Z78" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="AA78" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the structure segment</v>
+        <f t="shared" si="35"/>
+        <v>Lighting Segment Supplier: It's a Service</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9862,16 +9907,16 @@
         <v>75</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="E79" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F79" s="52" t="s">
-        <v>226</v>
+        <v>447</v>
+      </c>
+      <c r="F79" s="57" t="s">
+        <v>439</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>9</v>
@@ -9889,48 +9934,48 @@
         <v>9</v>
       </c>
       <c r="L79" s="23" t="str">
+        <f t="shared" si="36"/>
+        <v>Fornecedores</v>
+      </c>
+      <c r="M79" s="23" t="str">
+        <f t="shared" si="37"/>
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="N79" s="23" t="str">
+        <f t="shared" si="38"/>
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="O79" s="23" t="str">
+        <f t="shared" si="39"/>
+        <v>U Vendedor</v>
+      </c>
+      <c r="P79" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q79" s="26" t="str">
         <f t="shared" si="40"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="M79" s="23" t="str">
+        <v>Proveedor del segmento de iluminación: es vendedor de productos</v>
+      </c>
+      <c r="R79" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S79" s="43" t="str">
         <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="N79" s="23" t="str">
+        <v>Fornecedores</v>
+      </c>
+      <c r="T79" s="43" t="str">
         <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="O79" s="23" t="str">
+        <v>Segmentos dos Profissionais</v>
+      </c>
+      <c r="U79" s="43" t="str">
         <f t="shared" si="43"/>
-        <v>Produto de Vedação</v>
-      </c>
-      <c r="P79" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q79" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de sellado, paredes y tejados</v>
-      </c>
-      <c r="R79" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S79" s="43" t="str">
+        <v>Segmento de Iluminação</v>
+      </c>
+      <c r="V79" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W79" s="60" t="str">
         <f t="shared" si="44"/>
-        <v>Fornecidos</v>
-      </c>
-      <c r="T79" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="U79" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="V79" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="W79" s="60" t="str">
-        <f t="shared" si="39"/>
         <v>Key.Fab.79</v>
       </c>
       <c r="X79" s="41" t="s">
@@ -9939,12 +9984,12 @@
       <c r="Y79" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Z79" s="50" t="s">
-        <v>191</v>
+      <c r="Z79" s="41" t="s">
+        <v>175</v>
       </c>
       <c r="AA79" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the sealing, walls and roofs segment</v>
+        <f t="shared" si="35"/>
+        <v>Lighting Segment Supplier: is a seller of products</v>
       </c>
     </row>
     <row r="80" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9958,13 +10003,13 @@
         <v>248</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E80" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F80" s="52" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>9</v>
@@ -9982,48 +10027,48 @@
         <v>9</v>
       </c>
       <c r="L80" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>Fornecidos</v>
       </c>
       <c r="M80" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D80,"."," "))</f>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N80" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" ref="N80" si="45">_xlfn.CONCAT(SUBSTITUTE(E80,"."," "))</f>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O80" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Acabado</v>
+        <f t="shared" ref="O80" si="46">_xlfn.CONCAT(SUBSTITUTE(F80,"."," "))</f>
+        <v>Produto de Geotécnica</v>
       </c>
       <c r="P80" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q80" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento terminado</v>
+        <f t="shared" ref="Q80:Q108" si="47">_xlfn.TRANSLATE(P80,"pt","es")</f>
+        <v>Es un producto o elemento del segmento geotécnico</v>
       </c>
       <c r="R80" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S80" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f>SUBSTITUTE(C80, ".", " ")</f>
         <v>Fornecidos</v>
       </c>
       <c r="T80" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f>SUBSTITUTE(D80, ".", " ")</f>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U80" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" ref="U80" si="48">SUBSTITUTE(E80, ".", " ")</f>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V80" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W80" s="60" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="W80:W88" si="49">CONCATENATE("Key.Fab.",A80)</f>
         <v>Key.Fab.80</v>
       </c>
       <c r="X80" s="41" t="s">
@@ -10033,11 +10078,11 @@
         <v>9</v>
       </c>
       <c r="Z80" s="50" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AA80" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the finished segment</v>
+        <f t="shared" si="25"/>
+        <v>It is a product or element of the geotechnical segment</v>
       </c>
     </row>
     <row r="81" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10051,13 +10096,13 @@
         <v>248</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E81" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F81" s="52" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>9</v>
@@ -10075,48 +10120,48 @@
         <v>9</v>
       </c>
       <c r="L81" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="L81:L108" si="50">_xlfn.CONCAT(SUBSTITUTE(C81,"1.",""))</f>
         <v>Fornecidos</v>
       </c>
       <c r="M81" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" ref="M81:M108" si="51">_xlfn.CONCAT(SUBSTITUTE(D81,"."," "))</f>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N81" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" ref="N81:N108" si="52">_xlfn.CONCAT(SUBSTITUTE(E81,"."," "))</f>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O81" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Abertura</v>
+        <f t="shared" ref="O81:O108" si="53">_xlfn.CONCAT(SUBSTITUTE(F81,"."," "))</f>
+        <v>Produto de Obra</v>
       </c>
       <c r="P81" s="23" t="s">
         <v>323</v>
       </c>
       <c r="Q81" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de aberturas y marcos</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de obra</v>
       </c>
       <c r="R81" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S81" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="S81:S108" si="54">SUBSTITUTE(C81, ".", " ")</f>
         <v>Fornecidos</v>
       </c>
       <c r="T81" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" ref="T81:T108" si="55">SUBSTITUTE(D81, ".", " ")</f>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U81" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" ref="U81:U108" si="56">SUBSTITUTE(E81, ".", " ")</f>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V81" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W81" s="60" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="49"/>
         <v>Key.Fab.81</v>
       </c>
       <c r="X81" s="41" t="s">
@@ -10126,11 +10171,11 @@
         <v>9</v>
       </c>
       <c r="Z81" s="50" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AA81" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the openings and frames segment</v>
+        <f t="shared" ref="AA81:AA108" si="57">_xlfn.TRANSLATE(P81,"pt","en")</f>
+        <v>It is a product or element of the construction site segment</v>
       </c>
     </row>
     <row r="82" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10144,13 +10189,13 @@
         <v>248</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E82" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F82" s="52" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>9</v>
@@ -10168,48 +10213,48 @@
         <v>9</v>
       </c>
       <c r="L82" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M82" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N82" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O82" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Acústica</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Drenagem</v>
       </c>
       <c r="P82" s="23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q82" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento acústico</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de drenaje</v>
       </c>
       <c r="R82" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S82" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T82" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U82" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V82" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W82" s="60" t="str">
-        <f t="shared" ref="W82:W101" si="48">CONCATENATE("Key.Fab.",A82)</f>
+        <f t="shared" si="49"/>
         <v>Key.Fab.82</v>
       </c>
       <c r="X82" s="41" t="s">
@@ -10219,11 +10264,11 @@
         <v>9</v>
       </c>
       <c r="Z82" s="50" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AA82" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the acoustics segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the drainage segment</v>
       </c>
     </row>
     <row r="83" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10237,13 +10282,13 @@
         <v>248</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E83" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>9</v>
@@ -10261,48 +10306,48 @@
         <v>9</v>
       </c>
       <c r="L83" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M83" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N83" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O83" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Elétrica</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Tráfego</v>
       </c>
       <c r="P83" s="23" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="Q83" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento eléctrico</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de tráfico y pavimentación</v>
       </c>
       <c r="R83" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S83" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T83" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U83" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V83" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W83" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Key.Fab.83</v>
       </c>
       <c r="X83" s="41" t="s">
@@ -10312,11 +10357,11 @@
         <v>9</v>
       </c>
       <c r="Z83" s="50" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AA83" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the electrical segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the traffic and paving segment</v>
       </c>
     </row>
     <row r="84" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10330,13 +10375,13 @@
         <v>248</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E84" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F84" s="52" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>9</v>
@@ -10354,48 +10399,48 @@
         <v>9</v>
       </c>
       <c r="L84" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M84" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N84" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O84" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Iluminação</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Fundação</v>
       </c>
       <c r="P84" s="23" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="Q84" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de Iluminación</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de estructura de la cimentación</v>
       </c>
       <c r="R84" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S84" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T84" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U84" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V84" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W84" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Key.Fab.84</v>
       </c>
       <c r="X84" s="41" t="s">
@@ -10405,11 +10450,11 @@
         <v>9</v>
       </c>
       <c r="Z84" s="50" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AA84" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the Lighting segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the foundation structure segment</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10423,13 +10468,13 @@
         <v>248</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E85" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>9</v>
@@ -10447,48 +10492,48 @@
         <v>9</v>
       </c>
       <c r="L85" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M85" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N85" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O85" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Exaustão Ventilação</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Estrutura</v>
       </c>
       <c r="P85" s="23" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Q85" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de extracción y ventilación</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de estructura</v>
       </c>
       <c r="R85" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S85" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T85" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U85" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V85" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W85" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Key.Fab.85</v>
       </c>
       <c r="X85" s="41" t="s">
@@ -10498,11 +10543,11 @@
         <v>9</v>
       </c>
       <c r="Z85" s="50" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AA85" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the exhaust and ventilation segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the structure segment</v>
       </c>
     </row>
     <row r="86" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10516,13 +10561,13 @@
         <v>248</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E86" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F86" s="52" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>9</v>
@@ -10540,48 +10585,48 @@
         <v>9</v>
       </c>
       <c r="L86" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M86" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N86" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O86" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Telecom Urbana</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Vedação</v>
       </c>
       <c r="P86" s="23" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q86" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de la red de telecomunicaciones urbana</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de sellado, paredes y tejados</v>
       </c>
       <c r="R86" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S86" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T86" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U86" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V86" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W86" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Key.Fab.86</v>
       </c>
       <c r="X86" s="41" t="s">
@@ -10591,11 +10636,11 @@
         <v>9</v>
       </c>
       <c r="Z86" s="50" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AA86" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the urban telecom network segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the sealing, walls and roofs segment</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10609,13 +10654,13 @@
         <v>248</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E87" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F87" s="52" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>9</v>
@@ -10633,48 +10678,48 @@
         <v>9</v>
       </c>
       <c r="L87" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M87" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N87" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O87" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Telecom Predial</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Acabado</v>
       </c>
       <c r="P87" s="23" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="Q87" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de redes de telecomunicaciones en construcción</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento terminado</v>
       </c>
       <c r="R87" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S87" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T87" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U87" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V87" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W87" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Key.Fab.87</v>
       </c>
       <c r="X87" s="41" t="s">
@@ -10684,11 +10729,11 @@
         <v>9</v>
       </c>
       <c r="Z87" s="50" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AA87" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the building telecom network segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the finished segment</v>
       </c>
     </row>
     <row r="88" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10702,13 +10747,13 @@
         <v>248</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E88" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F88" s="52" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G88" s="28" t="s">
         <v>9</v>
@@ -10726,48 +10771,48 @@
         <v>9</v>
       </c>
       <c r="L88" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M88" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N88" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O88" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Hidráulica Urbana</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Abertura</v>
       </c>
       <c r="P88" s="23" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q88" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de la red de hidráulica urbana</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de aberturas y marcos</v>
       </c>
       <c r="R88" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S88" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T88" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U88" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V88" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W88" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>Key.Fab.88</v>
       </c>
       <c r="X88" s="41" t="s">
@@ -10777,11 +10822,11 @@
         <v>9</v>
       </c>
       <c r="Z88" s="50" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AA88" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the urban hydraulics network segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the openings and frames segment</v>
       </c>
     </row>
     <row r="89" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10795,13 +10840,13 @@
         <v>248</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E89" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F89" s="52" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G89" s="28" t="s">
         <v>9</v>
@@ -10819,48 +10864,48 @@
         <v>9</v>
       </c>
       <c r="L89" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M89" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N89" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O89" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Hidráulica Predial</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Acústica</v>
       </c>
       <c r="P89" s="23" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q89" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de redes hidráulicas para edificios</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento acústico</v>
       </c>
       <c r="R89" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S89" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T89" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U89" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V89" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W89" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="W89:W108" si="58">CONCATENATE("Key.Fab.",A89)</f>
         <v>Key.Fab.89</v>
       </c>
       <c r="X89" s="41" t="s">
@@ -10870,11 +10915,11 @@
         <v>9</v>
       </c>
       <c r="Z89" s="50" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AA89" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the building hydraulic network segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the acoustics segment</v>
       </c>
     </row>
     <row r="90" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10888,13 +10933,13 @@
         <v>248</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E90" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F90" s="52" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G90" s="28" t="s">
         <v>9</v>
@@ -10912,48 +10957,48 @@
         <v>9</v>
       </c>
       <c r="L90" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M90" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N90" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O90" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Pluvial</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Elétrica</v>
       </c>
       <c r="P90" s="23" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="Q90" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de la red de aguas pluviales</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento eléctrico</v>
       </c>
       <c r="R90" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S90" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T90" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U90" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V90" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W90" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.90</v>
       </c>
       <c r="X90" s="41" t="s">
@@ -10963,11 +11008,11 @@
         <v>9</v>
       </c>
       <c r="Z90" s="50" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AA90" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the rainwater network segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the electrical segment</v>
       </c>
     </row>
     <row r="91" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10981,13 +11026,13 @@
         <v>248</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E91" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F91" s="52" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>9</v>
@@ -11005,48 +11050,48 @@
         <v>9</v>
       </c>
       <c r="L91" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M91" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N91" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O91" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Esgoto Predial</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Iluminação</v>
       </c>
       <c r="P91" s="23" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="Q91" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de la red de alcantarillado del edificio</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de Iluminación</v>
       </c>
       <c r="R91" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S91" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T91" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U91" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V91" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W91" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.91</v>
       </c>
       <c r="X91" s="41" t="s">
@@ -11056,11 +11101,11 @@
         <v>9</v>
       </c>
       <c r="Z91" s="50" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AA91" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the building sewer network segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the Lighting segment</v>
       </c>
     </row>
     <row r="92" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11074,13 +11119,13 @@
         <v>248</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E92" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F92" s="52" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G92" s="28" t="s">
         <v>9</v>
@@ -11098,48 +11143,48 @@
         <v>9</v>
       </c>
       <c r="L92" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M92" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N92" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O92" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Esgoto Urbano</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Exaustão Ventilação</v>
       </c>
       <c r="P92" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q92" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de la red de alcantarillado urbano</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de extracción y ventilación</v>
       </c>
       <c r="R92" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S92" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T92" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U92" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V92" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W92" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.92</v>
       </c>
       <c r="X92" s="41" t="s">
@@ -11149,11 +11194,11 @@
         <v>9</v>
       </c>
       <c r="Z92" s="50" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AA92" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the urban sewer network segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the exhaust and ventilation segment</v>
       </c>
     </row>
     <row r="93" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11167,13 +11212,13 @@
         <v>248</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E93" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F93" s="52" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>9</v>
@@ -11191,48 +11236,48 @@
         <v>9</v>
       </c>
       <c r="L93" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M93" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N93" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O93" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Resíduo</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Telecom Urbana</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q93" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de tratamiento de residuos</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de la red de telecomunicaciones urbana</v>
       </c>
       <c r="R93" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S93" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T93" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U93" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V93" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W93" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.93</v>
       </c>
       <c r="X93" s="41" t="s">
@@ -11242,11 +11287,11 @@
         <v>9</v>
       </c>
       <c r="Z93" s="50" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AA93" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the waste treatment segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the urban telecom network segment</v>
       </c>
     </row>
     <row r="94" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11260,13 +11305,13 @@
         <v>248</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E94" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F94" s="52" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G94" s="28" t="s">
         <v>9</v>
@@ -11284,48 +11329,48 @@
         <v>9</v>
       </c>
       <c r="L94" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M94" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N94" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O94" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Refrigeração</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Telecom Predial</v>
       </c>
       <c r="P94" s="23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q94" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de refrigeración</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de redes de telecomunicaciones en construcción</v>
       </c>
       <c r="R94" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S94" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T94" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U94" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V94" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W94" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.94</v>
       </c>
       <c r="X94" s="41" t="s">
@@ -11335,11 +11380,11 @@
         <v>9</v>
       </c>
       <c r="Z94" s="50" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AA94" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the refrigeration segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the building telecom network segment</v>
       </c>
     </row>
     <row r="95" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11353,13 +11398,13 @@
         <v>248</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G95" s="28" t="s">
         <v>9</v>
@@ -11377,48 +11422,48 @@
         <v>9</v>
       </c>
       <c r="L95" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M95" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N95" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O95" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Aquecimento</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Hidráulica Urbana</v>
       </c>
       <c r="P95" s="23" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="Q95" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de calentamiento</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de la red de hidráulica urbana</v>
       </c>
       <c r="R95" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S95" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T95" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U95" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V95" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W95" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.95</v>
       </c>
       <c r="X95" s="41" t="s">
@@ -11428,11 +11473,11 @@
         <v>9</v>
       </c>
       <c r="Z95" s="50" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AA95" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the heating segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the urban hydraulics network segment</v>
       </c>
     </row>
     <row r="96" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11446,13 +11491,13 @@
         <v>248</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F96" s="52" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>9</v>
@@ -11470,48 +11515,48 @@
         <v>9</v>
       </c>
       <c r="L96" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M96" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N96" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O96" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Gases</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Hidráulica Predial</v>
       </c>
       <c r="P96" s="23" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q96" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de gas</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de redes hidráulicas para edificios</v>
       </c>
       <c r="R96" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S96" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T96" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U96" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V96" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W96" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.96</v>
       </c>
       <c r="X96" s="41" t="s">
@@ -11521,11 +11566,11 @@
         <v>9</v>
       </c>
       <c r="Z96" s="50" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AA96" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the gas segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the building hydraulic network segment</v>
       </c>
     </row>
     <row r="97" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11539,13 +11584,13 @@
         <v>248</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G97" s="28" t="s">
         <v>9</v>
@@ -11563,48 +11608,48 @@
         <v>9</v>
       </c>
       <c r="L97" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M97" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N97" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O97" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Mobiliário</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Pluvial</v>
       </c>
       <c r="P97" s="23" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q97" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento del mobiliario</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de la red de aguas pluviales</v>
       </c>
       <c r="R97" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S97" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T97" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U97" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V97" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W97" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.97</v>
       </c>
       <c r="X97" s="41" t="s">
@@ -11614,11 +11659,11 @@
         <v>9</v>
       </c>
       <c r="Z97" s="50" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AA97" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the furniture segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the rainwater network segment</v>
       </c>
     </row>
     <row r="98" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11632,13 +11677,13 @@
         <v>248</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E98" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F98" s="52" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G98" s="28" t="s">
         <v>9</v>
@@ -11656,48 +11701,48 @@
         <v>9</v>
       </c>
       <c r="L98" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M98" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N98" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O98" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Automação</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Esgoto Predial</v>
       </c>
       <c r="P98" s="23" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="Q98" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de automatización</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de la red de alcantarillado del edificio</v>
       </c>
       <c r="R98" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S98" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T98" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U98" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V98" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W98" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.98</v>
       </c>
       <c r="X98" s="41" t="s">
@@ -11707,11 +11752,11 @@
         <v>9</v>
       </c>
       <c r="Z98" s="50" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AA98" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the automation segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the building sewer network segment</v>
       </c>
     </row>
     <row r="99" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11725,13 +11770,13 @@
         <v>248</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>9</v>
@@ -11749,48 +11794,48 @@
         <v>9</v>
       </c>
       <c r="L99" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M99" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N99" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O99" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Proteção de Descargas</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Esgoto Urbano</v>
       </c>
       <c r="P99" s="23" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="Q99" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de protección contra rayos</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de la red de alcantarillado urbano</v>
       </c>
       <c r="R99" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S99" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T99" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U99" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V99" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W99" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.99</v>
       </c>
       <c r="X99" s="41" t="s">
@@ -11800,11 +11845,11 @@
         <v>9</v>
       </c>
       <c r="Z99" s="50" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AA99" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the lightning protection segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the urban sewer network segment</v>
       </c>
     </row>
     <row r="100" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11818,13 +11863,13 @@
         <v>248</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E100" s="52" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="F100" s="52" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G100" s="28" t="s">
         <v>9</v>
@@ -11842,48 +11887,48 @@
         <v>9</v>
       </c>
       <c r="L100" s="23" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
       <c r="M100" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="N100" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="O100" s="23" t="str">
-        <f t="shared" si="43"/>
-        <v>Produto de Proteção de Incêndio</v>
+        <f t="shared" si="53"/>
+        <v>Produto de Resíduo</v>
       </c>
       <c r="P100" s="23" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="Q100" s="26" t="str">
-        <f t="shared" si="37"/>
-        <v>Es un producto o elemento del segmento de protección contra incendios</v>
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de tratamiento de residuos</v>
       </c>
       <c r="R100" s="42" t="s">
         <v>9</v>
       </c>
       <c r="S100" s="43" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
       <c r="T100" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
       </c>
       <c r="U100" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
       </c>
       <c r="V100" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="W100" s="60" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>Key.Fab.100</v>
       </c>
       <c r="X100" s="41" t="s">
@@ -11893,11 +11938,11 @@
         <v>9</v>
       </c>
       <c r="Z100" s="50" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AA100" s="45" t="str">
-        <f t="shared" si="47"/>
-        <v>It is a product or element of the fire protection segment</v>
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the waste treatment segment</v>
       </c>
     </row>
     <row r="101" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11911,98 +11956,749 @@
         <v>248</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="E101" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F101" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101" s="23" t="str">
+        <f t="shared" si="50"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="M101" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N101" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O101" s="23" t="str">
+        <f t="shared" si="53"/>
+        <v>Produto de Refrigeração</v>
+      </c>
+      <c r="P101" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q101" s="26" t="str">
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de refrigeración</v>
+      </c>
+      <c r="R101" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S101" s="43" t="str">
+        <f t="shared" si="54"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="T101" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U101" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V101" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W101" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.101</v>
+      </c>
+      <c r="X101" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y101" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z101" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA101" s="45" t="str">
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the refrigeration segment</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="51">
+        <v>102</v>
+      </c>
+      <c r="B102" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D102" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E102" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F102" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J102" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" s="23" t="str">
+        <f t="shared" si="50"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="M102" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N102" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O102" s="23" t="str">
+        <f t="shared" si="53"/>
+        <v>Produto de Aquecimento</v>
+      </c>
+      <c r="P102" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q102" s="26" t="str">
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de calentamiento</v>
+      </c>
+      <c r="R102" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S102" s="43" t="str">
+        <f t="shared" si="54"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="T102" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U102" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V102" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W102" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.102</v>
+      </c>
+      <c r="X102" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y102" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z102" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA102" s="45" t="str">
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the heating segment</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="51">
+        <v>103</v>
+      </c>
+      <c r="B103" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D103" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E103" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F103" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J103" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L103" s="23" t="str">
+        <f t="shared" si="50"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="M103" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N103" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O103" s="23" t="str">
+        <f t="shared" si="53"/>
+        <v>Produto de Gases</v>
+      </c>
+      <c r="P103" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q103" s="26" t="str">
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de gas</v>
+      </c>
+      <c r="R103" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S103" s="43" t="str">
+        <f t="shared" si="54"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="T103" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U103" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V103" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W103" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.103</v>
+      </c>
+      <c r="X103" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y103" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z103" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA103" s="45" t="str">
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the gas segment</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="51">
+        <v>104</v>
+      </c>
+      <c r="B104" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E104" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F104" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J104" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K104" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L104" s="23" t="str">
+        <f t="shared" si="50"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="M104" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N104" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O104" s="23" t="str">
+        <f t="shared" si="53"/>
+        <v>Produto de Mobiliário</v>
+      </c>
+      <c r="P104" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q104" s="26" t="str">
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento del mobiliario</v>
+      </c>
+      <c r="R104" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S104" s="43" t="str">
+        <f t="shared" si="54"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="T104" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U104" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V104" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W104" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.104</v>
+      </c>
+      <c r="X104" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y104" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z104" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA104" s="45" t="str">
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the furniture segment</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="51">
+        <v>105</v>
+      </c>
+      <c r="B105" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E105" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F105" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J105" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" s="23" t="str">
+        <f t="shared" si="50"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="M105" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N105" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O105" s="23" t="str">
+        <f t="shared" si="53"/>
+        <v>Produto de Automação</v>
+      </c>
+      <c r="P105" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q105" s="26" t="str">
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de automatización</v>
+      </c>
+      <c r="R105" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S105" s="43" t="str">
+        <f t="shared" si="54"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="T105" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U105" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V105" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W105" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.105</v>
+      </c>
+      <c r="X105" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y105" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z105" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA105" s="45" t="str">
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the automation segment</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="51">
+        <v>106</v>
+      </c>
+      <c r="B106" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E106" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F106" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="F101" s="52" t="s">
+      <c r="G106" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J106" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106" s="23" t="str">
+        <f t="shared" si="50"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="M106" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N106" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O106" s="23" t="str">
+        <f t="shared" si="53"/>
+        <v>Produto de Proteção de Descargas</v>
+      </c>
+      <c r="P106" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q106" s="26" t="str">
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de protección contra rayos</v>
+      </c>
+      <c r="R106" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S106" s="43" t="str">
+        <f t="shared" si="54"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="T106" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U106" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V106" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W106" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.106</v>
+      </c>
+      <c r="X106" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y106" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z106" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA106" s="45" t="str">
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the lightning protection segment</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="51">
+        <v>107</v>
+      </c>
+      <c r="B107" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D107" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E107" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F107" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J107" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107" s="23" t="str">
+        <f t="shared" si="50"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="M107" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N107" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O107" s="23" t="str">
+        <f t="shared" si="53"/>
+        <v>Produto de Proteção de Incêndio</v>
+      </c>
+      <c r="P107" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q107" s="26" t="str">
+        <f t="shared" si="47"/>
+        <v>Es un producto o elemento del segmento de protección contra incendios</v>
+      </c>
+      <c r="R107" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S107" s="43" t="str">
+        <f t="shared" si="54"/>
+        <v>Fornecidos</v>
+      </c>
+      <c r="T107" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U107" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V107" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W107" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.107</v>
+      </c>
+      <c r="X107" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y107" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z107" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA107" s="45" t="str">
+        <f t="shared" si="57"/>
+        <v>It is a product or element of the fire protection segment</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="51">
+        <v>108</v>
+      </c>
+      <c r="B108" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E108" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F108" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="G101" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J101" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K101" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L101" s="23" t="str">
-        <f t="shared" si="40"/>
+      <c r="G108" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J108" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L108" s="23" t="str">
+        <f t="shared" si="50"/>
         <v>Fornecidos</v>
       </c>
-      <c r="M101" s="23" t="str">
-        <f t="shared" si="41"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="N101" s="23" t="str">
-        <f t="shared" si="42"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="O101" s="23" t="str">
-        <f t="shared" si="43"/>
+      <c r="M108" s="23" t="str">
+        <f t="shared" si="51"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="N108" s="23" t="str">
+        <f t="shared" si="52"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="O108" s="23" t="str">
+        <f t="shared" si="53"/>
         <v>Produto de Segurança Patrimonial</v>
       </c>
-      <c r="P101" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q101" s="26" t="str">
-        <f t="shared" si="37"/>
+      <c r="P108" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q108" s="26" t="str">
+        <f t="shared" si="47"/>
         <v>Es un producto o elemento del segmento de seguridad de propiedades</v>
       </c>
-      <c r="R101" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="S101" s="43" t="str">
-        <f t="shared" si="44"/>
+      <c r="R108" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S108" s="43" t="str">
+        <f t="shared" si="54"/>
         <v>Fornecidos</v>
       </c>
-      <c r="T101" s="43" t="str">
-        <f t="shared" si="45"/>
-        <v>Segmentos de Produto</v>
-      </c>
-      <c r="U101" s="43" t="str">
-        <f t="shared" si="46"/>
-        <v>Segmento de Produto</v>
-      </c>
-      <c r="V101" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="W101" s="60" t="str">
-        <f t="shared" si="48"/>
-        <v>Key.Fab.101</v>
-      </c>
-      <c r="X101" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y101" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z101" s="50" t="s">
+      <c r="T108" s="43" t="str">
+        <f t="shared" si="55"/>
+        <v>Segmentos dos Produto</v>
+      </c>
+      <c r="U108" s="43" t="str">
+        <f t="shared" si="56"/>
+        <v>Segmento do Produto</v>
+      </c>
+      <c r="V108" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="W108" s="60" t="str">
+        <f t="shared" si="58"/>
+        <v>Key.Fab.108</v>
+      </c>
+      <c r="X108" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y108" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z108" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="AA101" s="45" t="str">
-        <f t="shared" si="47"/>
+      <c r="AA108" s="45" t="str">
+        <f t="shared" si="57"/>
         <v>It is a product or element of the property security segment</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F73:F1048576">
+  <conditionalFormatting sqref="F80:F1048576 F1">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
     <cfRule type="duplicateValues" dxfId="8" priority="3"/>
     <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F72">
+  <conditionalFormatting sqref="F3:F79">
     <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
@@ -12015,7 +12711,7 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA101">
+  <conditionalFormatting sqref="AA3:AA108">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -12246,7 +12942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A26"/>
     </sheetView>
@@ -12387,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>94</v>
@@ -12414,7 +13110,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>9</v>
@@ -12482,7 +13178,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>94</v>
@@ -12491,7 +13187,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>9</v>
@@ -12509,7 +13205,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>9</v>
@@ -12577,7 +13273,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>97</v>
@@ -12586,7 +13282,7 @@
         <v>79</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>9</v>
@@ -12604,19 +13300,19 @@
         <v>16</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>9</v>
@@ -12672,7 +13368,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>97</v>
@@ -12681,7 +13377,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>9</v>
@@ -12699,19 +13395,19 @@
         <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>9</v>
@@ -12767,7 +13463,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>112</v>
@@ -12776,7 +13472,7 @@
         <v>79</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>9</v>
@@ -12794,19 +13490,19 @@
         <v>16</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>9</v>
@@ -12862,7 +13558,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>112</v>
@@ -12871,7 +13567,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>9</v>
@@ -12889,19 +13585,19 @@
         <v>16</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>9</v>
@@ -12957,7 +13653,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>112</v>
@@ -12966,7 +13662,7 @@
         <v>79</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>9</v>
@@ -12984,19 +13680,19 @@
         <v>16</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L8" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P8" s="33" t="s">
         <v>9</v>
@@ -13052,7 +13748,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>116</v>
@@ -13061,7 +13757,7 @@
         <v>79</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>9</v>
@@ -13079,19 +13775,19 @@
         <v>16</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>9</v>
@@ -13147,16 +13843,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>9</v>
@@ -13174,19 +13870,19 @@
         <v>16</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M10" s="61" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P10" s="33" t="s">
         <v>9</v>
@@ -13242,7 +13938,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>107</v>
@@ -13251,7 +13947,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>9</v>
@@ -13269,19 +13965,19 @@
         <v>16</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>9</v>
@@ -13337,7 +14033,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>107</v>
@@ -13346,7 +14042,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>9</v>
@@ -13364,19 +14060,19 @@
         <v>16</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>9</v>
@@ -13432,7 +14128,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>107</v>
@@ -13441,7 +14137,7 @@
         <v>79</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>9</v>
@@ -13459,19 +14155,19 @@
         <v>16</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M13" s="62" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P13" s="33" t="s">
         <v>9</v>
@@ -13527,7 +14223,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>107</v>
@@ -13536,7 +14232,7 @@
         <v>79</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>9</v>
@@ -13554,19 +14250,19 @@
         <v>16</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M14" s="62" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P14" s="33" t="s">
         <v>9</v>
@@ -13622,7 +14318,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>107</v>
@@ -13631,7 +14327,7 @@
         <v>79</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>9</v>
@@ -13649,19 +14345,19 @@
         <v>16</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P15" s="33" t="s">
         <v>9</v>
@@ -13717,7 +14413,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>107</v>
@@ -13726,7 +14422,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>9</v>
@@ -13744,19 +14440,19 @@
         <v>16</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P16" s="33" t="s">
         <v>9</v>
@@ -13812,7 +14508,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>107</v>
@@ -13821,7 +14517,7 @@
         <v>79</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F17" s="67" t="s">
         <v>9</v>
@@ -13839,19 +14535,19 @@
         <v>16</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>9</v>
@@ -13907,16 +14603,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>9</v>
@@ -13934,19 +14630,19 @@
         <v>16</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M18" s="62" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>9</v>
@@ -14002,7 +14698,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>103</v>
@@ -14011,7 +14707,7 @@
         <v>79</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F19" s="67" t="s">
         <v>9</v>
@@ -14029,19 +14725,19 @@
         <v>16</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P19" s="33" t="s">
         <v>9</v>
@@ -14097,7 +14793,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>103</v>
@@ -14106,7 +14802,7 @@
         <v>79</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F20" s="67" t="s">
         <v>9</v>
@@ -14124,19 +14820,19 @@
         <v>16</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P20" s="33" t="s">
         <v>9</v>
@@ -14192,16 +14888,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F21" s="67" t="s">
         <v>9</v>
@@ -14219,19 +14915,19 @@
         <v>16</v>
       </c>
       <c r="K21" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="N21" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="L21" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="M21" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>371</v>
-      </c>
       <c r="O21" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P21" s="33" t="s">
         <v>9</v>
@@ -14287,7 +14983,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>94</v>
@@ -14296,7 +14992,7 @@
         <v>79</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>9</v>
@@ -14314,7 +15010,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L22" s="33" t="s">
         <v>9</v>
@@ -14382,7 +15078,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>94</v>
@@ -14391,7 +15087,7 @@
         <v>79</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F23" s="67" t="s">
         <v>9</v>
@@ -14409,7 +15105,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L23" s="33" t="s">
         <v>9</v>
@@ -14477,7 +15173,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>94</v>
@@ -14486,7 +15182,7 @@
         <v>79</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>9</v>
@@ -14504,7 +15200,7 @@
         <v>16</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>9</v>
@@ -14572,7 +15268,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>94</v>
@@ -14581,7 +15277,7 @@
         <v>79</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F25" s="67" t="s">
         <v>9</v>
@@ -14599,7 +15295,7 @@
         <v>16</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L25" s="33" t="s">
         <v>9</v>
@@ -14667,7 +15363,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>94</v>
@@ -14676,7 +15372,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F26" s="67" t="s">
         <v>9</v>
@@ -14694,7 +15390,7 @@
         <v>16</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L26" s="33" t="s">
         <v>9</v>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1237B-6DCD-457F-BAC4-39799D378290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE4FCB-4D05-48A7-870C-6DC6B3600D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="622">
   <si>
     <t>Edição</t>
   </si>
@@ -829,12 +829,6 @@
     <t>"Loja de materiais de construção."</t>
   </si>
   <si>
-    <t>Catálogo.Projeto.01</t>
-  </si>
-  <si>
-    <t>Projeto.01</t>
-  </si>
-  <si>
     <t>fornecedor.de</t>
   </si>
   <si>
@@ -877,9 +871,6 @@
     <t>"Sistemas de mobiliário corporativo: mesas, mesas elevatórias, cadeiras, sofás modulares, paineis privativos, cabines acústicas, divisórias, nichos, sistemas de arquivos, armários, divisores."</t>
   </si>
   <si>
-    <t>"Soluções de construção a seco: Drywall, tetos, forros e fachadas."</t>
-  </si>
-  <si>
     <t>"Tubulações predias em PVC: tubos de alimentação e esgoto, conexões, ralos e acessórios para hidráulica predial."</t>
   </si>
   <si>
@@ -931,9 +922,6 @@
     <t>"Peças de aço para tubulações sanitárias e industriais: tubos, conexões, válvulas e acessórios."</t>
   </si>
   <si>
-    <t>"Peças para saneamento básico em Ferro Fundido Dúctil: tubos, conexões, válvulas e acessórios."</t>
-  </si>
-  <si>
     <t>Sanitrit</t>
   </si>
   <si>
@@ -1000,12 +988,6 @@
     <t>"Fabricante de mobiliário para escritórios."</t>
   </si>
   <si>
-    <t>"Contêiner com toda a informação do projeto."</t>
-  </si>
-  <si>
-    <t>"Contêiner do catálogo de Fabricante de ntes usados no projeto."</t>
-  </si>
-  <si>
     <t>"Contêiner do catálogo de peças sanitárias usadas no projeto."</t>
   </si>
   <si>
@@ -1907,6 +1889,57 @@
   </si>
   <si>
     <t>Fornecedor do segmento de arquitetura: é uma venda de produtos</t>
+  </si>
+  <si>
+    <t>Lumini</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>"página : https://www.lumini.com.br"</t>
+  </si>
+  <si>
+    <t>"Fabricante de sistemas de iluminação."</t>
+  </si>
+  <si>
+    <t>"Fabricante de sistemas de iluminação com design."</t>
+  </si>
+  <si>
+    <t>SXL</t>
+  </si>
+  <si>
+    <t>"página : https://sxlighting.com"</t>
+  </si>
+  <si>
+    <t>"página : https://www.lighting.philips.com.br"</t>
+  </si>
+  <si>
+    <t>Prj.Nome.01</t>
+  </si>
+  <si>
+    <t>Prj.Nome.01.Catálogo</t>
+  </si>
+  <si>
+    <t>"Contêiner com toda a informação do projeto Prj.Nome.01."</t>
+  </si>
+  <si>
+    <t>"Contêiner do catálogo de Fabricante de usados no projeto Prj.Nome.01."</t>
+  </si>
+  <si>
+    <t>"Sistemas de iluminação: lâmpadas e fitas de leds, luminárias exteriores e interiores, luminárias pendentes e embutidas, arandelas, balizadores, postes, projetores, drivers."</t>
+  </si>
+  <si>
+    <t>"Sistemas de iluminação: lâmpadas de leds, luminárias exteriores e interiores, luminárias pendentes e embutidas, arandelas, balizadores, postes, projetores."</t>
+  </si>
+  <si>
+    <t>"Peças para saneamento básico em ferro fundido dúctil: tubos, conexões, válvulas e acessórios."</t>
+  </si>
+  <si>
+    <t>"Soluções de construção a seco: drywall, tetos, forros e fachadas."</t>
+  </si>
+  <si>
+    <t>"Fabricante de sistemas de iluminação convencional, industrial e varejo."</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2440,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2566,8 +2689,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3088,7 +3211,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46014.568726620368</v>
+        <v>46015.392798726854</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -3171,19 +3294,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
+    <sheetView topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3046875" customWidth="1"/>
     <col min="2" max="2" width="4.61328125" customWidth="1"/>
-    <col min="3" max="3" width="6.3046875" customWidth="1"/>
-    <col min="4" max="4" width="12.3828125" customWidth="1"/>
-    <col min="5" max="5" width="10.84375" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="3" max="3" width="5.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.4609375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.53515625" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
@@ -3391,13 +3514,13 @@
         <v>95</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>9</v>
@@ -3431,7 +3554,7 @@
         <v>Acu Compra</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q3" s="26" t="str">
         <f>_xlfn.TRANSLATE(P3,"pt","es")</f>
@@ -3466,7 +3589,7 @@
         <v>9</v>
       </c>
       <c r="Z3" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA3" s="45" t="str">
         <f>_xlfn.TRANSLATE(P3,"pt","en")</f>
@@ -3484,13 +3607,13 @@
         <v>95</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>9</v>
@@ -3559,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="Z4" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA4" s="45" t="str">
         <f>_xlfn.TRANSLATE(P4,"pt","en")</f>
@@ -3577,13 +3700,13 @@
         <v>95</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E5" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>9</v>
@@ -3604,19 +3727,19 @@
         <v>95</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="Q5" s="26" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="R5" s="42" t="s">
         <v>9</v>
@@ -3625,16 +3748,16 @@
         <v>95</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U5" s="43" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="V5" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W5" s="60" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>9</v>
@@ -3643,10 +3766,10 @@
         <v>9</v>
       </c>
       <c r="Z5" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA5" s="45" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -3660,13 +3783,13 @@
         <v>95</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>9</v>
@@ -3735,7 +3858,7 @@
         <v>9</v>
       </c>
       <c r="Z6" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA6" s="45" t="str">
         <f t="shared" ref="AA6:AA13" si="7">_xlfn.TRANSLATE(P6,"pt","en")</f>
@@ -3753,13 +3876,13 @@
         <v>95</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E7" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>9</v>
@@ -3828,7 +3951,7 @@
         <v>9</v>
       </c>
       <c r="Z7" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA7" s="45" t="str">
         <f t="shared" si="7"/>
@@ -3846,13 +3969,13 @@
         <v>95</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>9</v>
@@ -3921,7 +4044,7 @@
         <v>9</v>
       </c>
       <c r="Z8" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA8" s="45" t="str">
         <f t="shared" si="7"/>
@@ -3939,13 +4062,13 @@
         <v>95</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>9</v>
@@ -4014,7 +4137,7 @@
         <v>9</v>
       </c>
       <c r="Z9" s="41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AA9" s="45" t="str">
         <f t="shared" si="7"/>
@@ -4032,13 +4155,13 @@
         <v>95</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>9</v>
@@ -4107,7 +4230,7 @@
         <v>9</v>
       </c>
       <c r="Z10" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA10" s="45" t="str">
         <f t="shared" si="7"/>
@@ -4125,13 +4248,13 @@
         <v>95</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>165</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>9</v>
@@ -4165,7 +4288,7 @@
         <v>Acu Venda</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q11" s="26" t="str">
         <f t="shared" si="4"/>
@@ -4200,7 +4323,7 @@
         <v>9</v>
       </c>
       <c r="Z11" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA11" s="45" t="str">
         <f t="shared" si="7"/>
@@ -4218,13 +4341,13 @@
         <v>95</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>9</v>
@@ -4258,7 +4381,7 @@
         <v>Arq Compra</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="26" t="str">
         <f t="shared" si="4"/>
@@ -4293,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="Z12" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA12" s="45" t="str">
         <f t="shared" si="7"/>
@@ -4311,13 +4434,13 @@
         <v>95</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>9</v>
@@ -4386,7 +4509,7 @@
         <v>9</v>
       </c>
       <c r="Z13" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA13" s="45" t="str">
         <f t="shared" si="7"/>
@@ -4404,13 +4527,13 @@
         <v>95</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>9</v>
@@ -4431,19 +4554,19 @@
         <v>95</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Q14" s="26" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="R14" s="42" t="s">
         <v>9</v>
@@ -4452,16 +4575,16 @@
         <v>95</v>
       </c>
       <c r="T14" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U14" s="43" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="V14" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W14" s="60" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="X14" s="41" t="s">
         <v>9</v>
@@ -4470,10 +4593,10 @@
         <v>9</v>
       </c>
       <c r="Z14" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA14" s="45" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -4487,13 +4610,13 @@
         <v>95</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>9</v>
@@ -4562,7 +4685,7 @@
         <v>9</v>
       </c>
       <c r="Z15" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA15" s="45" t="str">
         <f t="shared" ref="AA15:AA22" si="13">_xlfn.TRANSLATE(P15,"pt","en")</f>
@@ -4580,13 +4703,13 @@
         <v>95</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>9</v>
@@ -4655,7 +4778,7 @@
         <v>9</v>
       </c>
       <c r="Z16" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA16" s="45" t="str">
         <f t="shared" si="13"/>
@@ -4673,13 +4796,13 @@
         <v>95</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>9</v>
@@ -4748,7 +4871,7 @@
         <v>9</v>
       </c>
       <c r="Z17" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA17" s="45" t="str">
         <f t="shared" si="13"/>
@@ -4766,13 +4889,13 @@
         <v>95</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>9</v>
@@ -4841,7 +4964,7 @@
         <v>9</v>
       </c>
       <c r="Z18" s="41" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AA18" s="45" t="str">
         <f t="shared" si="13"/>
@@ -4859,13 +4982,13 @@
         <v>95</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>9</v>
@@ -4934,7 +5057,7 @@
         <v>9</v>
       </c>
       <c r="Z19" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA19" s="45" t="str">
         <f t="shared" si="13"/>
@@ -4952,13 +5075,13 @@
         <v>95</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>9</v>
@@ -4992,7 +5115,7 @@
         <v>Arq Venda</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Q20" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5027,7 +5150,7 @@
         <v>9</v>
       </c>
       <c r="Z20" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA20" s="45" t="str">
         <f t="shared" si="13"/>
@@ -5045,13 +5168,13 @@
         <v>95</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>9</v>
@@ -5085,7 +5208,7 @@
         <v>Est Compra</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Q21" s="26" t="str">
         <f t="shared" si="10"/>
@@ -5120,7 +5243,7 @@
         <v>9</v>
       </c>
       <c r="Z21" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA21" s="45" t="str">
         <f t="shared" si="13"/>
@@ -5138,13 +5261,13 @@
         <v>95</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>9</v>
@@ -5213,7 +5336,7 @@
         <v>9</v>
       </c>
       <c r="Z22" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA22" s="45" t="str">
         <f t="shared" si="13"/>
@@ -5231,13 +5354,13 @@
         <v>95</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>9</v>
@@ -5258,19 +5381,19 @@
         <v>95</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="Q23" s="26" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="R23" s="42" t="s">
         <v>9</v>
@@ -5279,16 +5402,16 @@
         <v>95</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U23" s="43" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="V23" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W23" s="60" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="X23" s="41" t="s">
         <v>9</v>
@@ -5297,10 +5420,10 @@
         <v>9</v>
       </c>
       <c r="Z23" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA23" s="45" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -5314,13 +5437,13 @@
         <v>95</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>9</v>
@@ -5389,7 +5512,7 @@
         <v>9</v>
       </c>
       <c r="Z24" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA24" s="45" t="str">
         <f t="shared" ref="AA24:AA31" si="19">_xlfn.TRANSLATE(P24,"pt","en")</f>
@@ -5407,13 +5530,13 @@
         <v>95</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>9</v>
@@ -5482,7 +5605,7 @@
         <v>9</v>
       </c>
       <c r="Z25" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA25" s="45" t="str">
         <f t="shared" si="19"/>
@@ -5500,13 +5623,13 @@
         <v>95</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>9</v>
@@ -5575,7 +5698,7 @@
         <v>9</v>
       </c>
       <c r="Z26" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA26" s="45" t="str">
         <f t="shared" si="19"/>
@@ -5593,13 +5716,13 @@
         <v>95</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>9</v>
@@ -5668,7 +5791,7 @@
         <v>9</v>
       </c>
       <c r="Z27" s="41" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AA27" s="45" t="str">
         <f t="shared" si="19"/>
@@ -5686,13 +5809,13 @@
         <v>95</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>9</v>
@@ -5761,7 +5884,7 @@
         <v>9</v>
       </c>
       <c r="Z28" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA28" s="45" t="str">
         <f t="shared" si="19"/>
@@ -5779,13 +5902,13 @@
         <v>95</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>9</v>
@@ -5819,7 +5942,7 @@
         <v>Est Venda</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q29" s="26" t="str">
         <f t="shared" si="16"/>
@@ -5854,7 +5977,7 @@
         <v>9</v>
       </c>
       <c r="Z29" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA29" s="45" t="str">
         <f t="shared" si="19"/>
@@ -5872,13 +5995,13 @@
         <v>95</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>9</v>
@@ -5912,7 +6035,7 @@
         <v>Geo Compra</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q30" s="26" t="str">
         <f t="shared" si="16"/>
@@ -5947,7 +6070,7 @@
         <v>9</v>
       </c>
       <c r="Z30" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA30" s="45" t="str">
         <f t="shared" si="19"/>
@@ -5965,13 +6088,13 @@
         <v>95</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>9</v>
@@ -6040,7 +6163,7 @@
         <v>9</v>
       </c>
       <c r="Z31" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA31" s="45" t="str">
         <f t="shared" si="19"/>
@@ -6058,13 +6181,13 @@
         <v>95</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>9</v>
@@ -6085,19 +6208,19 @@
         <v>95</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q32" s="26" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="R32" s="42" t="s">
         <v>9</v>
@@ -6106,16 +6229,16 @@
         <v>95</v>
       </c>
       <c r="T32" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U32" s="43" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="V32" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W32" s="60" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="X32" s="41" t="s">
         <v>9</v>
@@ -6124,10 +6247,10 @@
         <v>9</v>
       </c>
       <c r="Z32" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA32" s="45" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6141,13 +6264,13 @@
         <v>95</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>9</v>
@@ -6216,7 +6339,7 @@
         <v>9</v>
       </c>
       <c r="Z33" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA33" s="45" t="str">
         <f t="shared" ref="AA33:AA40" si="25">_xlfn.TRANSLATE(P33,"pt","en")</f>
@@ -6234,13 +6357,13 @@
         <v>95</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>9</v>
@@ -6309,7 +6432,7 @@
         <v>9</v>
       </c>
       <c r="Z34" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA34" s="45" t="str">
         <f t="shared" si="25"/>
@@ -6327,13 +6450,13 @@
         <v>95</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E35" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F35" s="57" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>9</v>
@@ -6402,7 +6525,7 @@
         <v>9</v>
       </c>
       <c r="Z35" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA35" s="45" t="str">
         <f t="shared" si="25"/>
@@ -6420,13 +6543,13 @@
         <v>95</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F36" s="57" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>9</v>
@@ -6495,7 +6618,7 @@
         <v>9</v>
       </c>
       <c r="Z36" s="41" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AA36" s="45" t="str">
         <f t="shared" si="25"/>
@@ -6513,13 +6636,13 @@
         <v>95</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>9</v>
@@ -6588,7 +6711,7 @@
         <v>9</v>
       </c>
       <c r="Z37" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA37" s="45" t="str">
         <f t="shared" si="25"/>
@@ -6606,13 +6729,13 @@
         <v>95</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>185</v>
       </c>
       <c r="F38" s="57" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>9</v>
@@ -6646,7 +6769,7 @@
         <v>Geo Venda</v>
       </c>
       <c r="P38" s="23" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Q38" s="26" t="str">
         <f t="shared" si="22"/>
@@ -6681,7 +6804,7 @@
         <v>9</v>
       </c>
       <c r="Z38" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA38" s="45" t="str">
         <f t="shared" si="25"/>
@@ -6699,13 +6822,13 @@
         <v>95</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F39" s="57" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>9</v>
@@ -6739,7 +6862,7 @@
         <v>Ger Compra</v>
       </c>
       <c r="P39" s="23" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="Q39" s="26" t="str">
         <f t="shared" si="22"/>
@@ -6774,7 +6897,7 @@
         <v>9</v>
       </c>
       <c r="Z39" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA39" s="45" t="str">
         <f t="shared" si="25"/>
@@ -6792,13 +6915,13 @@
         <v>95</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F40" s="57" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>9</v>
@@ -6867,7 +6990,7 @@
         <v>9</v>
       </c>
       <c r="Z40" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA40" s="45" t="str">
         <f t="shared" si="25"/>
@@ -6885,13 +7008,13 @@
         <v>95</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>9</v>
@@ -6912,19 +7035,19 @@
         <v>95</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N41" s="23" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="Q41" s="26" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="R41" s="42" t="s">
         <v>9</v>
@@ -6933,16 +7056,16 @@
         <v>95</v>
       </c>
       <c r="T41" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U41" s="43" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="V41" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W41" s="60" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="X41" s="41" t="s">
         <v>9</v>
@@ -6951,10 +7074,10 @@
         <v>9</v>
       </c>
       <c r="Z41" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA41" s="45" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -6968,13 +7091,13 @@
         <v>95</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E42" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F42" s="57" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>9</v>
@@ -7043,7 +7166,7 @@
         <v>9</v>
       </c>
       <c r="Z42" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA42" s="45" t="str">
         <f t="shared" ref="AA42:AA49" si="31">_xlfn.TRANSLATE(P42,"pt","en")</f>
@@ -7061,13 +7184,13 @@
         <v>95</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E43" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F43" s="57" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>9</v>
@@ -7136,7 +7259,7 @@
         <v>9</v>
       </c>
       <c r="Z43" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA43" s="45" t="str">
         <f t="shared" si="31"/>
@@ -7154,13 +7277,13 @@
         <v>95</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>9</v>
@@ -7229,7 +7352,7 @@
         <v>9</v>
       </c>
       <c r="Z44" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA44" s="45" t="str">
         <f t="shared" si="31"/>
@@ -7247,13 +7370,13 @@
         <v>95</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E45" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G45" s="28" t="s">
         <v>9</v>
@@ -7322,7 +7445,7 @@
         <v>9</v>
       </c>
       <c r="Z45" s="41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AA45" s="45" t="str">
         <f t="shared" si="31"/>
@@ -7340,13 +7463,13 @@
         <v>95</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E46" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F46" s="57" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G46" s="28" t="s">
         <v>9</v>
@@ -7415,7 +7538,7 @@
         <v>9</v>
       </c>
       <c r="Z46" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA46" s="45" t="str">
         <f t="shared" si="31"/>
@@ -7433,13 +7556,13 @@
         <v>95</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E47" s="52" t="s">
         <v>221</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G47" s="28" t="s">
         <v>9</v>
@@ -7473,7 +7596,7 @@
         <v>Ger Venda</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q47" s="26" t="str">
         <f t="shared" si="28"/>
@@ -7508,7 +7631,7 @@
         <v>9</v>
       </c>
       <c r="Z47" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA47" s="45" t="str">
         <f t="shared" si="31"/>
@@ -7526,13 +7649,13 @@
         <v>95</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E48" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>9</v>
@@ -7566,7 +7689,7 @@
         <v>Hos Compra</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q48" s="26" t="str">
         <f t="shared" si="28"/>
@@ -7601,7 +7724,7 @@
         <v>9</v>
       </c>
       <c r="Z48" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA48" s="45" t="str">
         <f t="shared" si="31"/>
@@ -7619,13 +7742,13 @@
         <v>95</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E49" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>9</v>
@@ -7694,7 +7817,7 @@
         <v>9</v>
       </c>
       <c r="Z49" s="41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AA49" s="45" t="str">
         <f t="shared" si="31"/>
@@ -7712,13 +7835,13 @@
         <v>95</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E50" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F50" s="57" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>9</v>
@@ -7739,19 +7862,19 @@
         <v>95</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="Q50" s="26" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="R50" s="42" t="s">
         <v>9</v>
@@ -7760,16 +7883,16 @@
         <v>95</v>
       </c>
       <c r="T50" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U50" s="43" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V50" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W50" s="60" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="X50" s="41" t="s">
         <v>9</v>
@@ -7778,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="Z50" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA50" s="45" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -7795,13 +7918,13 @@
         <v>95</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E51" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>9</v>
@@ -7870,7 +7993,7 @@
         <v>9</v>
       </c>
       <c r="Z51" s="41" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AA51" s="45" t="str">
         <f t="shared" ref="AA51:AA58" si="37">_xlfn.TRANSLATE(P51,"pt","en")</f>
@@ -7888,13 +8011,13 @@
         <v>95</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E52" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>9</v>
@@ -7963,7 +8086,7 @@
         <v>9</v>
       </c>
       <c r="Z52" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA52" s="45" t="str">
         <f t="shared" si="37"/>
@@ -7981,13 +8104,13 @@
         <v>95</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E53" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F53" s="57" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G53" s="28" t="s">
         <v>9</v>
@@ -8056,7 +8179,7 @@
         <v>9</v>
       </c>
       <c r="Z53" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA53" s="45" t="str">
         <f t="shared" si="37"/>
@@ -8074,13 +8197,13 @@
         <v>95</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E54" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G54" s="28" t="s">
         <v>9</v>
@@ -8149,7 +8272,7 @@
         <v>9</v>
       </c>
       <c r="Z54" s="41" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AA54" s="45" t="str">
         <f t="shared" si="37"/>
@@ -8167,13 +8290,13 @@
         <v>95</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G55" s="28" t="s">
         <v>9</v>
@@ -8242,7 +8365,7 @@
         <v>9</v>
       </c>
       <c r="Z55" s="41" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AA55" s="45" t="str">
         <f t="shared" si="37"/>
@@ -8260,13 +8383,13 @@
         <v>95</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G56" s="28" t="s">
         <v>9</v>
@@ -8300,7 +8423,7 @@
         <v>Hos Venda</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Q56" s="26" t="str">
         <f t="shared" si="34"/>
@@ -8335,7 +8458,7 @@
         <v>9</v>
       </c>
       <c r="Z56" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA56" s="45" t="str">
         <f t="shared" si="37"/>
@@ -8353,13 +8476,13 @@
         <v>95</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>9</v>
@@ -8393,7 +8516,7 @@
         <v>Ilu Compra</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="Q57" s="26" t="str">
         <f t="shared" si="34"/>
@@ -8428,7 +8551,7 @@
         <v>9</v>
       </c>
       <c r="Z57" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA57" s="45" t="str">
         <f t="shared" si="37"/>
@@ -8446,13 +8569,13 @@
         <v>95</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G58" s="28" t="s">
         <v>9</v>
@@ -8486,7 +8609,7 @@
         <v>Ilu Consultor</v>
       </c>
       <c r="P58" s="23" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q58" s="26" t="str">
         <f t="shared" si="34"/>
@@ -8521,7 +8644,7 @@
         <v>9</v>
       </c>
       <c r="Z58" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA58" s="45" t="str">
         <f t="shared" si="37"/>
@@ -8539,13 +8662,13 @@
         <v>95</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G59" s="28" t="s">
         <v>9</v>
@@ -8566,19 +8689,19 @@
         <v>95</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="O59" s="23" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P59" s="23" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="Q59" s="26" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="R59" s="42" t="s">
         <v>9</v>
@@ -8587,16 +8710,16 @@
         <v>95</v>
       </c>
       <c r="T59" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U59" s="43" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="V59" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W59" s="60" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="X59" s="41" t="s">
         <v>9</v>
@@ -8605,10 +8728,10 @@
         <v>9</v>
       </c>
       <c r="Z59" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA59" s="45" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -8622,13 +8745,13 @@
         <v>95</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F60" s="57" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G60" s="28" t="s">
         <v>9</v>
@@ -8662,7 +8785,7 @@
         <v>Ilu Empresa Consultora</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q60" s="26" t="str">
         <f t="shared" ref="Q60:Q67" si="40">_xlfn.TRANSLATE(P60,"pt","es")</f>
@@ -8697,7 +8820,7 @@
         <v>9</v>
       </c>
       <c r="Z60" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA60" s="45" t="str">
         <f t="shared" ref="AA60:AA67" si="43">_xlfn.TRANSLATE(P60,"pt","en")</f>
@@ -8715,13 +8838,13 @@
         <v>95</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E61" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>9</v>
@@ -8755,7 +8878,7 @@
         <v>Ilu Fabricante</v>
       </c>
       <c r="P61" s="23" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q61" s="26" t="str">
         <f t="shared" si="40"/>
@@ -8790,7 +8913,7 @@
         <v>9</v>
       </c>
       <c r="Z61" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA61" s="45" t="str">
         <f t="shared" si="43"/>
@@ -8808,13 +8931,13 @@
         <v>95</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F62" s="57" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G62" s="28" t="s">
         <v>9</v>
@@ -8848,7 +8971,7 @@
         <v>Ilu Fornecimento</v>
       </c>
       <c r="P62" s="23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q62" s="26" t="str">
         <f t="shared" si="40"/>
@@ -8883,7 +9006,7 @@
         <v>9</v>
       </c>
       <c r="Z62" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA62" s="45" t="str">
         <f t="shared" si="43"/>
@@ -8901,13 +9024,13 @@
         <v>95</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F63" s="57" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>9</v>
@@ -8941,7 +9064,7 @@
         <v>Ilu Projetista</v>
       </c>
       <c r="P63" s="23" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q63" s="26" t="str">
         <f t="shared" si="40"/>
@@ -8976,7 +9099,7 @@
         <v>9</v>
       </c>
       <c r="Z63" s="41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AA63" s="45" t="str">
         <f t="shared" si="43"/>
@@ -8994,13 +9117,13 @@
         <v>95</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>9</v>
@@ -9034,7 +9157,7 @@
         <v>Ilu Serviço</v>
       </c>
       <c r="P64" s="23" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q64" s="26" t="str">
         <f t="shared" si="40"/>
@@ -9069,7 +9192,7 @@
         <v>9</v>
       </c>
       <c r="Z64" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA64" s="45" t="str">
         <f t="shared" si="43"/>
@@ -9087,13 +9210,13 @@
         <v>95</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G65" s="28" t="s">
         <v>9</v>
@@ -9127,7 +9250,7 @@
         <v>Ilu Venda</v>
       </c>
       <c r="P65" s="23" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Q65" s="26" t="str">
         <f t="shared" si="40"/>
@@ -9162,7 +9285,7 @@
         <v>9</v>
       </c>
       <c r="Z65" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA65" s="45" t="str">
         <f t="shared" si="43"/>
@@ -9180,13 +9303,13 @@
         <v>95</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E66" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="57" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G66" s="28" t="s">
         <v>9</v>
@@ -9220,7 +9343,7 @@
         <v>Ino Compra</v>
       </c>
       <c r="P66" s="23" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q66" s="26" t="str">
         <f t="shared" si="40"/>
@@ -9255,7 +9378,7 @@
         <v>9</v>
       </c>
       <c r="Z66" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA66" s="45" t="str">
         <f t="shared" si="43"/>
@@ -9273,13 +9396,13 @@
         <v>95</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F67" s="57" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G67" s="28" t="s">
         <v>9</v>
@@ -9348,7 +9471,7 @@
         <v>9</v>
       </c>
       <c r="Z67" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA67" s="45" t="str">
         <f t="shared" si="43"/>
@@ -9366,13 +9489,13 @@
         <v>95</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E68" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F68" s="57" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G68" s="28" t="s">
         <v>9</v>
@@ -9393,19 +9516,19 @@
         <v>95</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O68" s="23" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P68" s="23" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="Q68" s="26" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="R68" s="42" t="s">
         <v>9</v>
@@ -9414,16 +9537,16 @@
         <v>95</v>
       </c>
       <c r="T68" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U68" s="43" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="V68" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W68" s="60" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="X68" s="41" t="s">
         <v>9</v>
@@ -9432,10 +9555,10 @@
         <v>9</v>
       </c>
       <c r="Z68" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA68" s="45" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -9449,13 +9572,13 @@
         <v>95</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E69" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="57" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G69" s="28" t="s">
         <v>9</v>
@@ -9524,7 +9647,7 @@
         <v>9</v>
       </c>
       <c r="Z69" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA69" s="45" t="str">
         <f t="shared" ref="AA69:AA76" si="49">_xlfn.TRANSLATE(P69,"pt","en")</f>
@@ -9542,13 +9665,13 @@
         <v>95</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E70" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G70" s="28" t="s">
         <v>9</v>
@@ -9617,7 +9740,7 @@
         <v>9</v>
       </c>
       <c r="Z70" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA70" s="45" t="str">
         <f t="shared" si="49"/>
@@ -9635,13 +9758,13 @@
         <v>95</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G71" s="28" t="s">
         <v>9</v>
@@ -9710,7 +9833,7 @@
         <v>9</v>
       </c>
       <c r="Z71" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA71" s="45" t="str">
         <f t="shared" si="49"/>
@@ -9728,13 +9851,13 @@
         <v>95</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F72" s="57" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>9</v>
@@ -9803,7 +9926,7 @@
         <v>9</v>
       </c>
       <c r="Z72" s="41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AA72" s="45" t="str">
         <f t="shared" si="49"/>
@@ -9821,13 +9944,13 @@
         <v>95</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E73" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F73" s="57" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G73" s="28" t="s">
         <v>9</v>
@@ -9896,7 +10019,7 @@
         <v>9</v>
       </c>
       <c r="Z73" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA73" s="45" t="str">
         <f t="shared" si="49"/>
@@ -9914,13 +10037,13 @@
         <v>95</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E74" s="52" t="s">
         <v>99</v>
       </c>
       <c r="F74" s="57" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="G74" s="28" t="s">
         <v>9</v>
@@ -9954,7 +10077,7 @@
         <v>Ino Venda</v>
       </c>
       <c r="P74" s="23" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Q74" s="26" t="str">
         <f t="shared" si="46"/>
@@ -9989,7 +10112,7 @@
         <v>9</v>
       </c>
       <c r="Z74" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA74" s="45" t="str">
         <f t="shared" si="49"/>
@@ -10007,13 +10130,13 @@
         <v>95</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E75" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F75" s="57" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>9</v>
@@ -10047,7 +10170,7 @@
         <v>Ins Compra</v>
       </c>
       <c r="P75" s="23" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="Q75" s="26" t="str">
         <f t="shared" si="46"/>
@@ -10082,7 +10205,7 @@
         <v>9</v>
       </c>
       <c r="Z75" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA75" s="45" t="str">
         <f t="shared" si="49"/>
@@ -10100,13 +10223,13 @@
         <v>95</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E76" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F76" s="57" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G76" s="28" t="s">
         <v>9</v>
@@ -10175,7 +10298,7 @@
         <v>9</v>
       </c>
       <c r="Z76" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA76" s="45" t="str">
         <f t="shared" si="49"/>
@@ -10193,13 +10316,13 @@
         <v>95</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E77" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F77" s="57" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>9</v>
@@ -10220,19 +10343,19 @@
         <v>95</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="O77" s="23" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P77" s="23" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="Q77" s="26" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="R77" s="42" t="s">
         <v>9</v>
@@ -10241,16 +10364,16 @@
         <v>95</v>
       </c>
       <c r="T77" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U77" s="43" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="V77" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W77" s="60" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="X77" s="41" t="s">
         <v>9</v>
@@ -10259,10 +10382,10 @@
         <v>9</v>
       </c>
       <c r="Z77" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA77" s="45" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -10276,13 +10399,13 @@
         <v>95</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E78" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F78" s="57" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>9</v>
@@ -10351,7 +10474,7 @@
         <v>9</v>
       </c>
       <c r="Z78" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA78" s="45" t="str">
         <f t="shared" ref="AA78:AA85" si="55">_xlfn.TRANSLATE(P78,"pt","en")</f>
@@ -10369,13 +10492,13 @@
         <v>95</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E79" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F79" s="57" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>9</v>
@@ -10444,7 +10567,7 @@
         <v>9</v>
       </c>
       <c r="Z79" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA79" s="45" t="str">
         <f t="shared" si="55"/>
@@ -10462,13 +10585,13 @@
         <v>95</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E80" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G80" s="28" t="s">
         <v>9</v>
@@ -10537,7 +10660,7 @@
         <v>9</v>
       </c>
       <c r="Z80" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA80" s="45" t="str">
         <f t="shared" si="55"/>
@@ -10555,13 +10678,13 @@
         <v>95</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E81" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F81" s="57" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>9</v>
@@ -10630,7 +10753,7 @@
         <v>9</v>
       </c>
       <c r="Z81" s="41" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AA81" s="45" t="str">
         <f t="shared" si="55"/>
@@ -10648,13 +10771,13 @@
         <v>95</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E82" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F82" s="57" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G82" s="28" t="s">
         <v>9</v>
@@ -10723,7 +10846,7 @@
         <v>9</v>
       </c>
       <c r="Z82" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA82" s="45" t="str">
         <f t="shared" si="55"/>
@@ -10741,13 +10864,13 @@
         <v>95</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E83" s="52" t="s">
         <v>98</v>
       </c>
       <c r="F83" s="57" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>9</v>
@@ -10781,7 +10904,7 @@
         <v>Ins Venda</v>
       </c>
       <c r="P83" s="23" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="Q83" s="26" t="str">
         <f t="shared" si="52"/>
@@ -10816,7 +10939,7 @@
         <v>9</v>
       </c>
       <c r="Z83" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA83" s="45" t="str">
         <f t="shared" si="55"/>
@@ -10834,13 +10957,13 @@
         <v>95</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E84" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F84" s="57" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G84" s="28" t="s">
         <v>9</v>
@@ -10874,7 +10997,7 @@
         <v>Lab Compra</v>
       </c>
       <c r="P84" s="23" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="Q84" s="26" t="str">
         <f t="shared" si="52"/>
@@ -10909,7 +11032,7 @@
         <v>9</v>
       </c>
       <c r="Z84" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA84" s="45" t="str">
         <f t="shared" si="55"/>
@@ -10927,13 +11050,13 @@
         <v>95</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E85" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F85" s="57" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>9</v>
@@ -11002,7 +11125,7 @@
         <v>9</v>
       </c>
       <c r="Z85" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA85" s="45" t="str">
         <f t="shared" si="55"/>
@@ -11020,13 +11143,13 @@
         <v>95</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E86" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F86" s="57" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G86" s="28" t="s">
         <v>9</v>
@@ -11047,19 +11170,19 @@
         <v>95</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N86" s="23" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="O86" s="23" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P86" s="23" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q86" s="26" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="R86" s="42" t="s">
         <v>9</v>
@@ -11068,16 +11191,16 @@
         <v>95</v>
       </c>
       <c r="T86" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U86" s="43" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="V86" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W86" s="60" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="X86" s="41" t="s">
         <v>9</v>
@@ -11086,10 +11209,10 @@
         <v>9</v>
       </c>
       <c r="Z86" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA86" s="45" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11103,13 +11226,13 @@
         <v>95</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E87" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F87" s="57" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>9</v>
@@ -11178,7 +11301,7 @@
         <v>9</v>
       </c>
       <c r="Z87" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA87" s="45" t="str">
         <f t="shared" ref="AA87:AA94" si="61">_xlfn.TRANSLATE(P87,"pt","en")</f>
@@ -11196,13 +11319,13 @@
         <v>95</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E88" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F88" s="57" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G88" s="28" t="s">
         <v>9</v>
@@ -11271,7 +11394,7 @@
         <v>9</v>
       </c>
       <c r="Z88" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA88" s="45" t="str">
         <f t="shared" si="61"/>
@@ -11289,13 +11412,13 @@
         <v>95</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E89" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F89" s="57" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G89" s="28" t="s">
         <v>9</v>
@@ -11364,7 +11487,7 @@
         <v>9</v>
       </c>
       <c r="Z89" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA89" s="45" t="str">
         <f t="shared" si="61"/>
@@ -11382,13 +11505,13 @@
         <v>95</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E90" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F90" s="57" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G90" s="28" t="s">
         <v>9</v>
@@ -11457,7 +11580,7 @@
         <v>9</v>
       </c>
       <c r="Z90" s="41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AA90" s="45" t="str">
         <f t="shared" si="61"/>
@@ -11475,13 +11598,13 @@
         <v>95</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E91" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F91" s="57" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>9</v>
@@ -11550,7 +11673,7 @@
         <v>9</v>
       </c>
       <c r="Z91" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA91" s="45" t="str">
         <f t="shared" si="61"/>
@@ -11568,13 +11691,13 @@
         <v>95</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E92" s="52" t="s">
         <v>102</v>
       </c>
       <c r="F92" s="57" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G92" s="28" t="s">
         <v>9</v>
@@ -11608,7 +11731,7 @@
         <v>Lab Venda</v>
       </c>
       <c r="P92" s="23" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="Q92" s="26" t="str">
         <f t="shared" si="58"/>
@@ -11643,7 +11766,7 @@
         <v>9</v>
       </c>
       <c r="Z92" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA92" s="45" t="str">
         <f t="shared" si="61"/>
@@ -11661,13 +11784,13 @@
         <v>95</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E93" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F93" s="57" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>9</v>
@@ -11701,7 +11824,7 @@
         <v>Mec Compra</v>
       </c>
       <c r="P93" s="23" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q93" s="26" t="str">
         <f t="shared" si="58"/>
@@ -11736,7 +11859,7 @@
         <v>9</v>
       </c>
       <c r="Z93" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA93" s="45" t="str">
         <f t="shared" si="61"/>
@@ -11754,13 +11877,13 @@
         <v>95</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E94" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F94" s="57" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G94" s="28" t="s">
         <v>9</v>
@@ -11794,7 +11917,7 @@
         <v>Mec Consultor</v>
       </c>
       <c r="P94" s="23" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q94" s="26" t="str">
         <f t="shared" si="58"/>
@@ -11829,7 +11952,7 @@
         <v>9</v>
       </c>
       <c r="Z94" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA94" s="45" t="str">
         <f t="shared" si="61"/>
@@ -11847,13 +11970,13 @@
         <v>95</v>
       </c>
       <c r="D95" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F95" s="57" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="G95" s="28" t="s">
         <v>9</v>
@@ -11874,19 +11997,19 @@
         <v>95</v>
       </c>
       <c r="M95" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="O95" s="23" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="P95" s="23" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="Q95" s="26" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="R95" s="42" t="s">
         <v>9</v>
@@ -11895,16 +12018,16 @@
         <v>95</v>
       </c>
       <c r="T95" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U95" s="43" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="V95" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W95" s="60" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="X95" s="41" t="s">
         <v>9</v>
@@ -11913,10 +12036,10 @@
         <v>9</v>
       </c>
       <c r="Z95" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA95" s="45" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -11930,13 +12053,13 @@
         <v>95</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E96" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F96" s="57" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>9</v>
@@ -11970,7 +12093,7 @@
         <v>Mec Empresa Consultora</v>
       </c>
       <c r="P96" s="23" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q96" s="26" t="str">
         <f t="shared" ref="Q96:Q103" si="64">_xlfn.TRANSLATE(P96,"pt","es")</f>
@@ -12005,7 +12128,7 @@
         <v>9</v>
       </c>
       <c r="Z96" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA96" s="45" t="str">
         <f t="shared" ref="AA96:AA103" si="67">_xlfn.TRANSLATE(P96,"pt","en")</f>
@@ -12023,13 +12146,13 @@
         <v>95</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E97" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F97" s="57" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G97" s="28" t="s">
         <v>9</v>
@@ -12063,7 +12186,7 @@
         <v>Mec Fabricante</v>
       </c>
       <c r="P97" s="23" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q97" s="26" t="str">
         <f t="shared" si="64"/>
@@ -12098,7 +12221,7 @@
         <v>9</v>
       </c>
       <c r="Z97" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA97" s="45" t="str">
         <f t="shared" si="67"/>
@@ -12116,13 +12239,13 @@
         <v>95</v>
       </c>
       <c r="D98" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E98" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F98" s="57" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G98" s="28" t="s">
         <v>9</v>
@@ -12156,7 +12279,7 @@
         <v>Mec Fornecimento</v>
       </c>
       <c r="P98" s="23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q98" s="26" t="str">
         <f t="shared" si="64"/>
@@ -12191,7 +12314,7 @@
         <v>9</v>
       </c>
       <c r="Z98" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA98" s="45" t="str">
         <f t="shared" si="67"/>
@@ -12209,13 +12332,13 @@
         <v>95</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E99" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F99" s="57" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>9</v>
@@ -12249,7 +12372,7 @@
         <v>Mec Projetista</v>
       </c>
       <c r="P99" s="23" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q99" s="26" t="str">
         <f t="shared" si="64"/>
@@ -12284,7 +12407,7 @@
         <v>9</v>
       </c>
       <c r="Z99" s="41" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AA99" s="45" t="str">
         <f t="shared" si="67"/>
@@ -12302,13 +12425,13 @@
         <v>95</v>
       </c>
       <c r="D100" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E100" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G100" s="28" t="s">
         <v>9</v>
@@ -12342,7 +12465,7 @@
         <v>Mec Serviço</v>
       </c>
       <c r="P100" s="23" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q100" s="26" t="str">
         <f t="shared" si="64"/>
@@ -12377,7 +12500,7 @@
         <v>9</v>
       </c>
       <c r="Z100" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA100" s="45" t="str">
         <f t="shared" si="67"/>
@@ -12395,13 +12518,13 @@
         <v>95</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E101" s="52" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F101" s="57" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>9</v>
@@ -12435,7 +12558,7 @@
         <v>Mec Venda</v>
       </c>
       <c r="P101" s="23" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Q101" s="26" t="str">
         <f t="shared" si="64"/>
@@ -12470,7 +12593,7 @@
         <v>9</v>
       </c>
       <c r="Z101" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA101" s="45" t="str">
         <f t="shared" si="67"/>
@@ -12488,13 +12611,13 @@
         <v>95</v>
       </c>
       <c r="D102" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E102" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F102" s="57" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G102" s="28" t="s">
         <v>9</v>
@@ -12528,7 +12651,7 @@
         <v>Mob Compra</v>
       </c>
       <c r="P102" s="23" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Q102" s="26" t="str">
         <f t="shared" si="64"/>
@@ -12563,7 +12686,7 @@
         <v>9</v>
       </c>
       <c r="Z102" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA102" s="45" t="str">
         <f t="shared" si="67"/>
@@ -12581,13 +12704,13 @@
         <v>95</v>
       </c>
       <c r="D103" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E103" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F103" s="57" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G103" s="28" t="s">
         <v>9</v>
@@ -12656,7 +12779,7 @@
         <v>9</v>
       </c>
       <c r="Z103" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA103" s="45" t="str">
         <f t="shared" si="67"/>
@@ -12674,13 +12797,13 @@
         <v>95</v>
       </c>
       <c r="D104" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E104" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F104" s="57" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G104" s="28" t="s">
         <v>9</v>
@@ -12701,19 +12824,19 @@
         <v>95</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N104" s="23" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O104" s="23" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P104" s="23" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="Q104" s="26" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="R104" s="42" t="s">
         <v>9</v>
@@ -12722,16 +12845,16 @@
         <v>95</v>
       </c>
       <c r="T104" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U104" s="43" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="V104" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W104" s="60" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="X104" s="41" t="s">
         <v>9</v>
@@ -12740,10 +12863,10 @@
         <v>9</v>
       </c>
       <c r="Z104" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA104" s="45" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -12757,13 +12880,13 @@
         <v>95</v>
       </c>
       <c r="D105" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E105" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="57" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G105" s="28" t="s">
         <v>9</v>
@@ -12832,7 +12955,7 @@
         <v>9</v>
       </c>
       <c r="Z105" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA105" s="45" t="str">
         <f t="shared" ref="AA105:AA112" si="73">_xlfn.TRANSLATE(P105,"pt","en")</f>
@@ -12850,13 +12973,13 @@
         <v>95</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E106" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F106" s="57" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G106" s="28" t="s">
         <v>9</v>
@@ -12925,7 +13048,7 @@
         <v>9</v>
       </c>
       <c r="Z106" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA106" s="45" t="str">
         <f t="shared" si="73"/>
@@ -12943,13 +13066,13 @@
         <v>95</v>
       </c>
       <c r="D107" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E107" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F107" s="57" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G107" s="28" t="s">
         <v>9</v>
@@ -13018,7 +13141,7 @@
         <v>9</v>
       </c>
       <c r="Z107" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA107" s="45" t="str">
         <f t="shared" si="73"/>
@@ -13036,13 +13159,13 @@
         <v>95</v>
       </c>
       <c r="D108" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E108" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F108" s="57" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G108" s="28" t="s">
         <v>9</v>
@@ -13111,7 +13234,7 @@
         <v>9</v>
       </c>
       <c r="Z108" s="41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AA108" s="45" t="str">
         <f t="shared" si="73"/>
@@ -13129,13 +13252,13 @@
         <v>95</v>
       </c>
       <c r="D109" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E109" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F109" s="57" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G109" s="28" t="s">
         <v>9</v>
@@ -13204,7 +13327,7 @@
         <v>9</v>
       </c>
       <c r="Z109" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA109" s="45" t="str">
         <f t="shared" si="73"/>
@@ -13222,13 +13345,13 @@
         <v>95</v>
       </c>
       <c r="D110" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E110" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F110" s="57" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G110" s="28" t="s">
         <v>9</v>
@@ -13262,7 +13385,7 @@
         <v>Mob Venda</v>
       </c>
       <c r="P110" s="23" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q110" s="26" t="str">
         <f t="shared" si="70"/>
@@ -13297,7 +13420,7 @@
         <v>9</v>
       </c>
       <c r="Z110" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA110" s="45" t="str">
         <f t="shared" si="73"/>
@@ -13315,13 +13438,13 @@
         <v>95</v>
       </c>
       <c r="D111" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E111" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F111" s="57" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G111" s="28" t="s">
         <v>9</v>
@@ -13355,7 +13478,7 @@
         <v>Tel Compra</v>
       </c>
       <c r="P111" s="23" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q111" s="26" t="str">
         <f t="shared" si="70"/>
@@ -13390,7 +13513,7 @@
         <v>9</v>
       </c>
       <c r="Z111" s="41" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AA111" s="45" t="str">
         <f t="shared" si="73"/>
@@ -13408,13 +13531,13 @@
         <v>95</v>
       </c>
       <c r="D112" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E112" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F112" s="57" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G112" s="28" t="s">
         <v>9</v>
@@ -13448,7 +13571,7 @@
         <v>Tel Consultor</v>
       </c>
       <c r="P112" s="23" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q112" s="26" t="str">
         <f t="shared" si="70"/>
@@ -13483,7 +13606,7 @@
         <v>9</v>
       </c>
       <c r="Z112" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA112" s="45" t="str">
         <f t="shared" si="73"/>
@@ -13501,13 +13624,13 @@
         <v>95</v>
       </c>
       <c r="D113" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E113" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F113" s="57" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G113" s="28" t="s">
         <v>9</v>
@@ -13528,19 +13651,19 @@
         <v>95</v>
       </c>
       <c r="M113" s="23" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N113" s="23" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="O113" s="23" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="P113" s="23" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="Q113" s="26" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="R113" s="42" t="s">
         <v>9</v>
@@ -13549,16 +13672,16 @@
         <v>95</v>
       </c>
       <c r="T113" s="43" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U113" s="43" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="V113" s="41" t="s">
         <v>184</v>
       </c>
       <c r="W113" s="60" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="X113" s="41" t="s">
         <v>9</v>
@@ -13567,10 +13690,10 @@
         <v>9</v>
       </c>
       <c r="Z113" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AA113" s="45" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
@@ -13584,13 +13707,13 @@
         <v>95</v>
       </c>
       <c r="D114" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E114" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F114" s="57" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G114" s="28" t="s">
         <v>9</v>
@@ -13624,7 +13747,7 @@
         <v>Tel Empresa Consultora</v>
       </c>
       <c r="P114" s="23" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q114" s="26" t="str">
         <f t="shared" ref="Q114:Q148" si="78">_xlfn.TRANSLATE(P114,"pt","es")</f>
@@ -13659,7 +13782,7 @@
         <v>9</v>
       </c>
       <c r="Z114" s="41" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AA114" s="45" t="str">
         <f t="shared" ref="AA114:AA148" si="83">_xlfn.TRANSLATE(P114,"pt","en")</f>
@@ -13677,13 +13800,13 @@
         <v>95</v>
       </c>
       <c r="D115" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E115" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F115" s="57" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G115" s="28" t="s">
         <v>9</v>
@@ -13717,7 +13840,7 @@
         <v>Tel Fabricante</v>
       </c>
       <c r="P115" s="23" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q115" s="26" t="str">
         <f t="shared" si="78"/>
@@ -13752,7 +13875,7 @@
         <v>9</v>
       </c>
       <c r="Z115" s="41" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AA115" s="45" t="str">
         <f t="shared" si="83"/>
@@ -13770,13 +13893,13 @@
         <v>95</v>
       </c>
       <c r="D116" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E116" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F116" s="57" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G116" s="28" t="s">
         <v>9</v>
@@ -13810,7 +13933,7 @@
         <v>Tel Fornecimento</v>
       </c>
       <c r="P116" s="23" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q116" s="26" t="str">
         <f t="shared" si="78"/>
@@ -13845,7 +13968,7 @@
         <v>9</v>
       </c>
       <c r="Z116" s="41" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AA116" s="45" t="str">
         <f t="shared" si="83"/>
@@ -13863,13 +13986,13 @@
         <v>95</v>
       </c>
       <c r="D117" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E117" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F117" s="57" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G117" s="28" t="s">
         <v>9</v>
@@ -13903,7 +14026,7 @@
         <v>Tel Projetista</v>
       </c>
       <c r="P117" s="23" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q117" s="26" t="str">
         <f t="shared" si="78"/>
@@ -13938,7 +14061,7 @@
         <v>9</v>
       </c>
       <c r="Z117" s="41" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AA117" s="45" t="str">
         <f t="shared" si="83"/>
@@ -13956,13 +14079,13 @@
         <v>95</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E118" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="F118" s="57" t="s">
         <v>411</v>
-      </c>
-      <c r="F118" s="57" t="s">
-        <v>417</v>
       </c>
       <c r="G118" s="28" t="s">
         <v>9</v>
@@ -13996,7 +14119,7 @@
         <v>Tel Serviço</v>
       </c>
       <c r="P118" s="23" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q118" s="26" t="str">
         <f t="shared" si="78"/>
@@ -14031,7 +14154,7 @@
         <v>9</v>
       </c>
       <c r="Z118" s="41" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AA118" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14049,13 +14172,13 @@
         <v>95</v>
       </c>
       <c r="D119" s="52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E119" s="52" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F119" s="57" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G119" s="28" t="s">
         <v>9</v>
@@ -14089,7 +14212,7 @@
         <v>Tel Venda</v>
       </c>
       <c r="P119" s="23" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Q119" s="26" t="str">
         <f t="shared" si="78"/>
@@ -14124,7 +14247,7 @@
         <v>9</v>
       </c>
       <c r="Z119" s="41" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AA119" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14142,10 +14265,10 @@
         <v>158</v>
       </c>
       <c r="D120" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E120" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F120" s="52" t="s">
         <v>159</v>
@@ -14217,7 +14340,7 @@
         <v>9</v>
       </c>
       <c r="Z120" s="50" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AA120" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14235,10 +14358,10 @@
         <v>158</v>
       </c>
       <c r="D121" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E121" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F121" s="52" t="s">
         <v>131</v>
@@ -14310,7 +14433,7 @@
         <v>9</v>
       </c>
       <c r="Z121" s="50" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="AA121" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14328,10 +14451,10 @@
         <v>158</v>
       </c>
       <c r="D122" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E122" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F122" s="52" t="s">
         <v>132</v>
@@ -14403,7 +14526,7 @@
         <v>9</v>
       </c>
       <c r="Z122" s="50" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="AA122" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14421,10 +14544,10 @@
         <v>158</v>
       </c>
       <c r="D123" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E123" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F123" s="52" t="s">
         <v>133</v>
@@ -14496,7 +14619,7 @@
         <v>9</v>
       </c>
       <c r="Z123" s="50" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AA123" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14514,10 +14637,10 @@
         <v>158</v>
       </c>
       <c r="D124" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E124" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F124" s="52" t="s">
         <v>134</v>
@@ -14589,7 +14712,7 @@
         <v>9</v>
       </c>
       <c r="Z124" s="50" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AA124" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14607,10 +14730,10 @@
         <v>158</v>
       </c>
       <c r="D125" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E125" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F125" s="52" t="s">
         <v>135</v>
@@ -14682,7 +14805,7 @@
         <v>9</v>
       </c>
       <c r="Z125" s="50" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AA125" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14700,10 +14823,10 @@
         <v>158</v>
       </c>
       <c r="D126" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E126" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F126" s="52" t="s">
         <v>136</v>
@@ -14775,7 +14898,7 @@
         <v>9</v>
       </c>
       <c r="Z126" s="50" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AA126" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14793,10 +14916,10 @@
         <v>158</v>
       </c>
       <c r="D127" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E127" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F127" s="52" t="s">
         <v>137</v>
@@ -14868,7 +14991,7 @@
         <v>9</v>
       </c>
       <c r="Z127" s="50" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AA127" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14886,10 +15009,10 @@
         <v>158</v>
       </c>
       <c r="D128" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E128" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F128" s="52" t="s">
         <v>138</v>
@@ -14961,7 +15084,7 @@
         <v>9</v>
       </c>
       <c r="Z128" s="50" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AA128" s="45" t="str">
         <f t="shared" si="83"/>
@@ -14979,10 +15102,10 @@
         <v>158</v>
       </c>
       <c r="D129" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E129" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F129" s="52" t="s">
         <v>139</v>
@@ -15054,7 +15177,7 @@
         <v>9</v>
       </c>
       <c r="Z129" s="50" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="AA129" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15072,10 +15195,10 @@
         <v>158</v>
       </c>
       <c r="D130" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E130" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F130" s="52" t="s">
         <v>140</v>
@@ -15147,7 +15270,7 @@
         <v>9</v>
       </c>
       <c r="Z130" s="50" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AA130" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15165,10 +15288,10 @@
         <v>158</v>
       </c>
       <c r="D131" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E131" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F131" s="52" t="s">
         <v>141</v>
@@ -15240,7 +15363,7 @@
         <v>9</v>
       </c>
       <c r="Z131" s="50" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AA131" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15258,10 +15381,10 @@
         <v>158</v>
       </c>
       <c r="D132" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E132" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F132" s="52" t="s">
         <v>142</v>
@@ -15333,7 +15456,7 @@
         <v>9</v>
       </c>
       <c r="Z132" s="50" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AA132" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15351,10 +15474,10 @@
         <v>158</v>
       </c>
       <c r="D133" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E133" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F133" s="52" t="s">
         <v>143</v>
@@ -15426,7 +15549,7 @@
         <v>9</v>
       </c>
       <c r="Z133" s="50" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AA133" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15444,10 +15567,10 @@
         <v>158</v>
       </c>
       <c r="D134" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E134" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F134" s="52" t="s">
         <v>144</v>
@@ -15519,7 +15642,7 @@
         <v>9</v>
       </c>
       <c r="Z134" s="50" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AA134" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15537,10 +15660,10 @@
         <v>158</v>
       </c>
       <c r="D135" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E135" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F135" s="52" t="s">
         <v>145</v>
@@ -15612,7 +15735,7 @@
         <v>9</v>
       </c>
       <c r="Z135" s="50" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AA135" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15630,10 +15753,10 @@
         <v>158</v>
       </c>
       <c r="D136" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E136" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F136" s="52" t="s">
         <v>146</v>
@@ -15705,7 +15828,7 @@
         <v>9</v>
       </c>
       <c r="Z136" s="50" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AA136" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15723,10 +15846,10 @@
         <v>158</v>
       </c>
       <c r="D137" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E137" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F137" s="52" t="s">
         <v>147</v>
@@ -15798,7 +15921,7 @@
         <v>9</v>
       </c>
       <c r="Z137" s="50" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AA137" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15816,10 +15939,10 @@
         <v>158</v>
       </c>
       <c r="D138" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E138" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F138" s="52" t="s">
         <v>148</v>
@@ -15891,7 +16014,7 @@
         <v>9</v>
       </c>
       <c r="Z138" s="50" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AA138" s="45" t="str">
         <f t="shared" si="83"/>
@@ -15909,10 +16032,10 @@
         <v>158</v>
       </c>
       <c r="D139" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E139" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F139" s="52" t="s">
         <v>149</v>
@@ -15984,7 +16107,7 @@
         <v>9</v>
       </c>
       <c r="Z139" s="50" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AA139" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16002,10 +16125,10 @@
         <v>158</v>
       </c>
       <c r="D140" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E140" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F140" s="52" t="s">
         <v>150</v>
@@ -16077,7 +16200,7 @@
         <v>9</v>
       </c>
       <c r="Z140" s="50" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AA140" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16095,10 +16218,10 @@
         <v>158</v>
       </c>
       <c r="D141" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E141" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F141" s="52" t="s">
         <v>151</v>
@@ -16170,7 +16293,7 @@
         <v>9</v>
       </c>
       <c r="Z141" s="50" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AA141" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16188,10 +16311,10 @@
         <v>158</v>
       </c>
       <c r="D142" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E142" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F142" s="52" t="s">
         <v>152</v>
@@ -16263,7 +16386,7 @@
         <v>9</v>
       </c>
       <c r="Z142" s="50" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AA142" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16281,10 +16404,10 @@
         <v>158</v>
       </c>
       <c r="D143" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E143" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F143" s="52" t="s">
         <v>153</v>
@@ -16356,7 +16479,7 @@
         <v>9</v>
       </c>
       <c r="Z143" s="50" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AA143" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16374,10 +16497,10 @@
         <v>158</v>
       </c>
       <c r="D144" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E144" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F144" s="52" t="s">
         <v>154</v>
@@ -16449,7 +16572,7 @@
         <v>9</v>
       </c>
       <c r="Z144" s="50" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AA144" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16467,10 +16590,10 @@
         <v>158</v>
       </c>
       <c r="D145" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E145" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F145" s="52" t="s">
         <v>155</v>
@@ -16542,7 +16665,7 @@
         <v>9</v>
       </c>
       <c r="Z145" s="50" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AA145" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16560,10 +16683,10 @@
         <v>158</v>
       </c>
       <c r="D146" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E146" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F146" s="52" t="s">
         <v>164</v>
@@ -16635,7 +16758,7 @@
         <v>9</v>
       </c>
       <c r="Z146" s="50" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AA146" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16653,10 +16776,10 @@
         <v>158</v>
       </c>
       <c r="D147" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E147" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F147" s="52" t="s">
         <v>156</v>
@@ -16728,7 +16851,7 @@
         <v>9</v>
       </c>
       <c r="Z147" s="50" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AA147" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16746,10 +16869,10 @@
         <v>158</v>
       </c>
       <c r="D148" s="52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E148" s="52" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F148" s="52" t="s">
         <v>157</v>
@@ -16821,7 +16944,7 @@
         <v>9</v>
       </c>
       <c r="Z148" s="50" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AA148" s="45" t="str">
         <f t="shared" si="83"/>
@@ -16834,45 +16957,45 @@
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F1:F119 F149:F1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F106">
-    <cfRule type="duplicateValues" dxfId="11" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="524"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F119">
-    <cfRule type="duplicateValues" dxfId="10" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F144">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F148">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145:F148">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149:F1048576 F107:F110 F1">
-    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="5" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA2">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA148">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17101,20 +17224,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.53515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="9" style="55" customWidth="1"/>
-    <col min="3" max="3" width="6.61328125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="7.23046875" style="55" customWidth="1"/>
-    <col min="5" max="5" width="8.07421875" style="55" customWidth="1"/>
+    <col min="2" max="2" width="10.53515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.15234375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="7.07421875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" style="55" customWidth="1"/>
     <col min="6" max="6" width="2.3828125" style="65" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.84375" style="65" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.15234375" style="65" customWidth="1"/>
@@ -17244,7 +17367,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>252</v>
+        <v>613</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>94</v>
@@ -17271,7 +17394,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>308</v>
+        <v>615</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>9</v>
@@ -17339,7 +17462,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>94</v>
@@ -17348,7 +17471,7 @@
         <v>79</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>252</v>
+        <v>613</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>9</v>
@@ -17366,7 +17489,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>309</v>
+        <v>616</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>9</v>
@@ -17434,16 +17557,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>9</v>
@@ -17461,19 +17584,19 @@
         <v>16</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>267</v>
+        <v>620</v>
       </c>
       <c r="P4" s="33" t="s">
         <v>9</v>
@@ -17529,16 +17652,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>9</v>
@@ -17556,19 +17679,19 @@
         <v>16</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P5" s="33" t="s">
         <v>9</v>
@@ -17624,16 +17747,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>9</v>
@@ -17651,19 +17774,19 @@
         <v>16</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P6" s="33" t="s">
         <v>9</v>
@@ -17719,16 +17842,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>9</v>
@@ -17746,19 +17869,19 @@
         <v>16</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P7" s="33" t="s">
         <v>9</v>
@@ -17814,16 +17937,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>9</v>
@@ -17841,19 +17964,19 @@
         <v>16</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P8" s="33" t="s">
         <v>9</v>
@@ -17909,16 +18032,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>9</v>
@@ -17936,19 +18059,19 @@
         <v>16</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P9" s="33" t="s">
         <v>9</v>
@@ -18004,16 +18127,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>9</v>
@@ -18031,19 +18154,19 @@
         <v>16</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P10" s="33" t="s">
         <v>9</v>
@@ -18099,16 +18222,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>9</v>
@@ -18126,19 +18249,19 @@
         <v>16</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>9</v>
@@ -18194,16 +18317,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D12" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>9</v>
@@ -18221,19 +18344,19 @@
         <v>16</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M12" s="61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N12" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P12" s="33" t="s">
         <v>9</v>
@@ -18289,16 +18412,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>9</v>
@@ -18316,19 +18439,19 @@
         <v>16</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L13" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N13" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P13" s="33" t="s">
         <v>9</v>
@@ -18383,17 +18506,17 @@
       <c r="A14" s="16">
         <v>14</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>223</v>
+      <c r="B14" s="66" t="s">
+        <v>605</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F14" s="67" t="s">
         <v>9</v>
@@ -18411,19 +18534,19 @@
         <v>16</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>295</v>
+        <v>609</v>
       </c>
       <c r="L14" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M14" s="62" t="s">
-        <v>238</v>
+        <v>607</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>285</v>
+        <v>618</v>
       </c>
       <c r="P14" s="33" t="s">
         <v>9</v>
@@ -18478,17 +18601,17 @@
       <c r="A15" s="16">
         <v>15</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>289</v>
+      <c r="B15" s="66" t="s">
+        <v>606</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>9</v>
@@ -18506,19 +18629,19 @@
         <v>16</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>296</v>
+        <v>621</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M15" s="62" t="s">
-        <v>290</v>
+        <v>612</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>291</v>
+        <v>617</v>
       </c>
       <c r="P15" s="33" t="s">
         <v>9</v>
@@ -18573,17 +18696,17 @@
       <c r="A16" s="16">
         <v>16</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>283</v>
+      <c r="B16" s="66" t="s">
+        <v>610</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>9</v>
@@ -18601,19 +18724,19 @@
         <v>16</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>297</v>
+        <v>608</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M16" s="62" t="s">
-        <v>282</v>
+        <v>611</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>284</v>
+        <v>618</v>
       </c>
       <c r="P16" s="33" t="s">
         <v>9</v>
@@ -18669,16 +18792,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F17" s="67" t="s">
         <v>9</v>
@@ -18696,19 +18819,19 @@
         <v>16</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L17" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M17" s="62" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>288</v>
+        <v>619</v>
       </c>
       <c r="P17" s="33" t="s">
         <v>9</v>
@@ -18764,16 +18887,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>9</v>
@@ -18791,19 +18914,19 @@
         <v>16</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="M18" s="61" t="s">
-        <v>248</v>
+      <c r="M18" s="62" t="s">
+        <v>286</v>
       </c>
       <c r="N18" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P18" s="33" t="s">
         <v>9</v>
@@ -18859,16 +18982,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F19" s="67" t="s">
         <v>9</v>
@@ -18886,19 +19009,19 @@
         <v>16</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="L19" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="M19" s="61" t="s">
-        <v>254</v>
+      <c r="M19" s="62" t="s">
+        <v>279</v>
       </c>
       <c r="N19" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="P19" s="33" t="s">
         <v>9</v>
@@ -18954,16 +19077,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F20" s="67" t="s">
         <v>9</v>
@@ -18981,19 +19104,19 @@
         <v>16</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L20" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M20" s="62" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="N20" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="P20" s="33" t="s">
         <v>9</v>
@@ -19049,16 +19172,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F21" s="67" t="s">
         <v>9</v>
@@ -19076,19 +19199,19 @@
         <v>16</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L21" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="M21" s="62" t="s">
-        <v>240</v>
+      <c r="M21" s="61" t="s">
+        <v>248</v>
       </c>
       <c r="N21" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P21" s="33" t="s">
         <v>9</v>
@@ -19144,16 +19267,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>9</v>
@@ -19171,19 +19294,19 @@
         <v>16</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L22" s="33" t="s">
         <v>222</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N22" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="P22" s="33" t="s">
         <v>9</v>
@@ -19239,16 +19362,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F23" s="67" t="s">
         <v>9</v>
@@ -19266,19 +19389,19 @@
         <v>16</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L23" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="M23" s="61" t="s">
-        <v>237</v>
+      <c r="M23" s="62" t="s">
+        <v>239</v>
       </c>
       <c r="N23" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P23" s="33" t="s">
         <v>9</v>
@@ -19334,16 +19457,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>251</v>
+        <v>614</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>9</v>
@@ -19361,19 +19484,19 @@
         <v>16</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="M24" s="61" t="s">
-        <v>247</v>
+      <c r="M24" s="62" t="s">
+        <v>240</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P24" s="33" t="s">
         <v>9</v>
@@ -19429,16 +19552,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>252</v>
+        <v>614</v>
       </c>
       <c r="F25" s="67" t="s">
         <v>9</v>
@@ -19456,19 +19579,19 @@
         <v>16</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>9</v>
+        <v>222</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>249</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="P25" s="33" t="s">
         <v>9</v>
@@ -19524,16 +19647,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>252</v>
+        <v>614</v>
       </c>
       <c r="F26" s="67" t="s">
         <v>9</v>
@@ -19551,19 +19674,19 @@
         <v>16</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>9</v>
+        <v>222</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>237</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="P26" s="33" t="s">
         <v>9</v>
@@ -19619,16 +19742,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>94</v>
+        <v>471</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>79</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>252</v>
+        <v>614</v>
       </c>
       <c r="F27" s="67" t="s">
         <v>9</v>
@@ -19646,19 +19769,19 @@
         <v>16</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>9</v>
+        <v>222</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>247</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="P27" s="33" t="s">
         <v>9</v>
@@ -19714,7 +19837,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>94</v>
@@ -19723,7 +19846,7 @@
         <v>79</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>252</v>
+        <v>614</v>
       </c>
       <c r="F28" s="67" t="s">
         <v>9</v>
@@ -19741,7 +19864,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L28" s="33" t="s">
         <v>9</v>
@@ -19809,7 +19932,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>94</v>
@@ -19818,7 +19941,7 @@
         <v>79</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>252</v>
+        <v>614</v>
       </c>
       <c r="F29" s="67" t="s">
         <v>9</v>
@@ -19836,7 +19959,7 @@
         <v>16</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L29" s="33" t="s">
         <v>9</v>
@@ -19896,17 +20019,302 @@
         <v>9</v>
       </c>
       <c r="AE29" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16">
+        <v>30</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="F30" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE30" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16">
+        <v>31</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE31" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16">
+        <v>32</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="X32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD32" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="18" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="165"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B29 B1:B5">
-    <cfRule type="duplicateValues" dxfId="1" priority="513"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="514"/>
+  <conditionalFormatting sqref="B17:B32 B12:B13 B1:B5">
+    <cfRule type="duplicateValues" dxfId="10" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="517"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE4FCB-4D05-48A7-870C-6DC6B3600D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0578C0B7-8DFB-40D9-835A-CDE3303FBC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -2234,7 +2234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2436,101 +2436,14 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3008,15 +2921,15 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.69140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.3828125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15234375" style="13"/>
+    <col min="1" max="1" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3027,7 +2940,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3038,7 +2951,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -3049,7 +2962,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +2973,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3072,7 +2985,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3084,7 +2997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -3095,7 +3008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="46" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" s="46" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3106,7 +3019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +3030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3128,7 +3041,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -3139,7 +3052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3063,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -3161,7 +3074,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3172,7 +3085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3183,7 +3096,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3194,7 +3107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -3205,19 +3118,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46015.392798726854</v>
+        <v>46063.63779479167</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3228,7 +3141,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3239,7 +3152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3250,7 +3163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -3261,7 +3174,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -3273,7 +3186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="46" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" s="46" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
@@ -3294,39 +3207,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119:C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69140625" defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.3046875" customWidth="1"/>
-    <col min="2" max="2" width="4.61328125" customWidth="1"/>
-    <col min="3" max="3" width="5.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4609375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="6.4609375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.53515625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" customWidth="1"/>
     <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.84375" customWidth="1"/>
-    <col min="15" max="15" width="13.61328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.3828125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.53515625" customWidth="1"/>
-    <col min="18" max="18" width="4.4609375" style="34" customWidth="1"/>
-    <col min="19" max="19" width="6.84375" style="34" customWidth="1"/>
-    <col min="20" max="20" width="12.765625" style="34" customWidth="1"/>
-    <col min="21" max="21" width="11.61328125" style="34" customWidth="1"/>
-    <col min="22" max="22" width="6.3046875" style="38" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="34" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="34" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" style="34" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" style="38" customWidth="1"/>
     <col min="23" max="23" width="7" style="38" customWidth="1"/>
-    <col min="24" max="24" width="6.15234375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.3046875" customWidth="1"/>
-    <col min="26" max="26" width="16.3828125" customWidth="1"/>
-    <col min="27" max="27" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="33.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24">
         <v>0</v>
       </c>
@@ -3409,7 +3322,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>2</v>
       </c>
@@ -3503,7 +3416,7 @@
         <v>Defines an information container in accordance with the NBR 19650-1 standard.</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="55" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" s="55" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>3</v>
       </c>
@@ -3596,7 +3509,7 @@
         <v>Acoustics Supplier: It is a purchase of products</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51">
         <v>4</v>
       </c>
@@ -3689,7 +3602,7 @@
         <v>Acoustics Supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51">
         <v>5</v>
       </c>
@@ -3772,7 +3685,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51">
         <v>6</v>
       </c>
@@ -3865,7 +3778,7 @@
         <v>Supplier in the acoustics segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51">
         <v>7</v>
       </c>
@@ -3958,7 +3871,7 @@
         <v>Acoustics Segment Supplier: is a manufacturer of products</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>8</v>
       </c>
@@ -4051,7 +3964,7 @@
         <v>Acoustics segment supplier: is a supplier</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51">
         <v>9</v>
       </c>
@@ -4144,7 +4057,7 @@
         <v>Acoustics Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="51">
         <v>10</v>
       </c>
@@ -4237,7 +4150,7 @@
         <v>Acoustics Supplier: It's a Service</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="51">
         <v>11</v>
       </c>
@@ -4330,7 +4243,7 @@
         <v>Supplier in the acoustics segment: it is a sale of products</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51">
         <v>12</v>
       </c>
@@ -4423,7 +4336,7 @@
         <v>Architecture Vendor: It's a purchase of products</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51">
         <v>13</v>
       </c>
@@ -4516,7 +4429,7 @@
         <v>Architecture Vendor: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51">
         <v>14</v>
       </c>
@@ -4599,7 +4512,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51">
         <v>15</v>
       </c>
@@ -4692,7 +4605,7 @@
         <v>Supplier in the architecture segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51">
         <v>16</v>
       </c>
@@ -4785,7 +4698,7 @@
         <v>Architecture Vendor: is a manufacturer of products</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51">
         <v>17</v>
       </c>
@@ -4878,7 +4791,7 @@
         <v>Architecture Vendor: is a vendor</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51">
         <v>18</v>
       </c>
@@ -4971,7 +4884,7 @@
         <v>Architecture Vendor: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51">
         <v>19</v>
       </c>
@@ -5064,7 +4977,7 @@
         <v>Architecture Vendor: It's a service</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>20</v>
       </c>
@@ -5157,7 +5070,7 @@
         <v>Architecture Vendor: It's a product sale</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51">
         <v>21</v>
       </c>
@@ -5250,7 +5163,7 @@
         <v>Supplier in the structure segment: it is a purchase of products</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51">
         <v>22</v>
       </c>
@@ -5343,7 +5256,7 @@
         <v>Structure segment supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51">
         <v>23</v>
       </c>
@@ -5426,7 +5339,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51">
         <v>24</v>
       </c>
@@ -5519,7 +5432,7 @@
         <v>Supplier of the structure segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51">
         <v>25</v>
       </c>
@@ -5612,7 +5525,7 @@
         <v>Supplier of the structure segment: it is a manufacturer of products</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51">
         <v>26</v>
       </c>
@@ -5705,7 +5618,7 @@
         <v>Structure segment supplier: is a supplier</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51">
         <v>27</v>
       </c>
@@ -5798,7 +5711,7 @@
         <v>Supplier in the structure segment: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51">
         <v>28</v>
       </c>
@@ -5891,7 +5804,7 @@
         <v>Structure segment supplier: it is a service</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51">
         <v>29</v>
       </c>
@@ -5984,7 +5897,7 @@
         <v>Structure segment supplier: it is a sale of products</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51">
         <v>30</v>
       </c>
@@ -6077,7 +5990,7 @@
         <v>Geotechnical segment supplier: it is a purchase of products</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51">
         <v>31</v>
       </c>
@@ -6170,7 +6083,7 @@
         <v>Geotechnical Supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51">
         <v>32</v>
       </c>
@@ -6253,7 +6166,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51">
         <v>33</v>
       </c>
@@ -6346,7 +6259,7 @@
         <v>Supplier in the geotechnical segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="51">
         <v>34</v>
       </c>
@@ -6439,7 +6352,7 @@
         <v>Geotechnical Segment Supplier: is a manufacturer of</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51">
         <v>35</v>
       </c>
@@ -6532,7 +6445,7 @@
         <v>Geotechnical Segment Supplier: is a supplier</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51">
         <v>36</v>
       </c>
@@ -6625,7 +6538,7 @@
         <v>Geotechnical Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="51">
         <v>37</v>
       </c>
@@ -6718,7 +6631,7 @@
         <v>Geotechnical Supplier: It's a Service</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="51">
         <v>38</v>
       </c>
@@ -6811,7 +6724,7 @@
         <v>Geotechnical Segment Supplier: It is a sale of products</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="51">
         <v>39</v>
       </c>
@@ -6904,7 +6817,7 @@
         <v>General segment supplier: it is a purchase of products</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51">
         <v>40</v>
       </c>
@@ -6997,7 +6910,7 @@
         <v>General segment supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51">
         <v>41</v>
       </c>
@@ -7080,7 +6993,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51">
         <v>42</v>
       </c>
@@ -7173,7 +7086,7 @@
         <v>General segment supplier: it is a consulting company</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="51">
         <v>43</v>
       </c>
@@ -7266,7 +7179,7 @@
         <v>General segment supplier: is a manufacturer of products</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51">
         <v>44</v>
       </c>
@@ -7359,7 +7272,7 @@
         <v>General segment supplier: is a supplier</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="51">
         <v>45</v>
       </c>
@@ -7452,7 +7365,7 @@
         <v>General Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51">
         <v>46</v>
       </c>
@@ -7545,7 +7458,7 @@
         <v>General Segment Supplier: It is a service</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51">
         <v>47</v>
       </c>
@@ -7638,7 +7551,7 @@
         <v>General segment supplier: it is a sale of products</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51">
         <v>48</v>
       </c>
@@ -7731,7 +7644,7 @@
         <v>Hospital segment supplier: it is a purchase of products</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="51">
         <v>49</v>
       </c>
@@ -7824,7 +7737,7 @@
         <v>Hospital Segment Supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="51">
         <v>50</v>
       </c>
@@ -7907,7 +7820,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="51">
         <v>51</v>
       </c>
@@ -8000,7 +7913,7 @@
         <v>Supplier in the hospital segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51">
         <v>52</v>
       </c>
@@ -8093,7 +8006,7 @@
         <v>Supplier in the hospital segment: it is a manufacturer of products</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51">
         <v>53</v>
       </c>
@@ -8186,7 +8099,7 @@
         <v>Hospital Segment Supplier: is a supplier</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51">
         <v>54</v>
       </c>
@@ -8279,7 +8192,7 @@
         <v>Supplier in the hospital segment: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="51">
         <v>55</v>
       </c>
@@ -8372,7 +8285,7 @@
         <v>Supplier in the hospital segment: it is a service</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51">
         <v>56</v>
       </c>
@@ -8465,7 +8378,7 @@
         <v>Supplier in the hospital segment: it is a sale of products</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51">
         <v>57</v>
       </c>
@@ -8558,7 +8471,7 @@
         <v>Lighting segment supplier: it is a purchase of products</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="51">
         <v>58</v>
       </c>
@@ -8651,7 +8564,7 @@
         <v>Lighting Segment Supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="51">
         <v>59</v>
       </c>
@@ -8734,7 +8647,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51">
         <v>60</v>
       </c>
@@ -8827,7 +8740,7 @@
         <v>Supplier in the lighting segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="51">
         <v>61</v>
       </c>
@@ -8920,7 +8833,7 @@
         <v>Lighting Segment Supplier: is a manufacturer of products</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="51">
         <v>62</v>
       </c>
@@ -9013,7 +8926,7 @@
         <v>Lighting segment supplier: is a supplier</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="51">
         <v>63</v>
       </c>
@@ -9106,7 +9019,7 @@
         <v>Lighting Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="51">
         <v>64</v>
       </c>
@@ -9199,7 +9112,7 @@
         <v>Lighting Segment Supplier: It's a Service</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51">
         <v>65</v>
       </c>
@@ -9292,7 +9205,7 @@
         <v>Lighting Segment Supplier: It is a sale of products</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>66</v>
       </c>
@@ -9385,7 +9298,7 @@
         <v>Innovation Segment Supplier: It is a purchase of products</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="51">
         <v>67</v>
       </c>
@@ -9478,7 +9391,7 @@
         <v>Innovation Segment Provider: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="51">
         <v>68</v>
       </c>
@@ -9561,7 +9474,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="51">
         <v>69</v>
       </c>
@@ -9654,7 +9567,7 @@
         <v>Supplier of the innovation segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="51">
         <v>70</v>
       </c>
@@ -9747,7 +9660,7 @@
         <v>Innovation Segment Supplier: is a manufacturer of products</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="51">
         <v>71</v>
       </c>
@@ -9840,7 +9753,7 @@
         <v>Innovation Segment Supplier: is a supplier</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="51">
         <v>72</v>
       </c>
@@ -9933,7 +9846,7 @@
         <v>Innovation Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="51">
         <v>73</v>
       </c>
@@ -10026,7 +9939,7 @@
         <v>Innovation Supplier: It's a Service</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="51">
         <v>74</v>
       </c>
@@ -10119,7 +10032,7 @@
         <v>Supplier of the innovation segment: it is a sale of products</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="51">
         <v>75</v>
       </c>
@@ -10212,7 +10125,7 @@
         <v>Facilities segment supplier: it is a purchase of products</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="51">
         <v>76</v>
       </c>
@@ -10305,7 +10218,7 @@
         <v>Facilities Segment Provider: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="51">
         <v>77</v>
       </c>
@@ -10388,7 +10301,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="51">
         <v>78</v>
       </c>
@@ -10481,7 +10394,7 @@
         <v>Supplier in the facilities segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="51">
         <v>79</v>
       </c>
@@ -10574,7 +10487,7 @@
         <v>Supplier in the installation segment: is a manufacturer of products</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="51">
         <v>80</v>
       </c>
@@ -10667,7 +10580,7 @@
         <v>Facilities Segment Supplier: is a supplier</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51">
         <v>81</v>
       </c>
@@ -10760,7 +10673,7 @@
         <v>Installation Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="51">
         <v>82</v>
       </c>
@@ -10853,7 +10766,7 @@
         <v>Facilities Segment Provider: It's a Service</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="51">
         <v>83</v>
       </c>
@@ -10946,7 +10859,7 @@
         <v>Supplier in the facilities segment: it is a sale of products</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="51">
         <v>84</v>
       </c>
@@ -11039,7 +10952,7 @@
         <v>Supplier in the laboratory segment: it is a purchase of products</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="51">
         <v>85</v>
       </c>
@@ -11132,7 +11045,7 @@
         <v>Laboratory Segment Supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="51">
         <v>86</v>
       </c>
@@ -11215,7 +11128,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="51">
         <v>87</v>
       </c>
@@ -11308,7 +11221,7 @@
         <v>Supplier in the laboratory segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="51">
         <v>88</v>
       </c>
@@ -11401,7 +11314,7 @@
         <v>Supplier of the laboratory segment: it is a manufacturer of products</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="51">
         <v>89</v>
       </c>
@@ -11494,7 +11407,7 @@
         <v>Supplier in the laboratory segment: is a supplier</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="51">
         <v>90</v>
       </c>
@@ -11587,7 +11500,7 @@
         <v>Laboratory Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="51">
         <v>91</v>
       </c>
@@ -11680,7 +11593,7 @@
         <v>Supplier in the laboratory segment: it is a service</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="51">
         <v>92</v>
       </c>
@@ -11773,7 +11686,7 @@
         <v>Supplier of the laboratory segment: it is a sale of products</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="51">
         <v>93</v>
       </c>
@@ -11866,7 +11779,7 @@
         <v>Supplier in the mechanical equipment segment: it is a purchase of products</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="51">
         <v>94</v>
       </c>
@@ -11959,7 +11872,7 @@
         <v>Supplier in the mechanical equipment segment: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="51">
         <v>95</v>
       </c>
@@ -12042,7 +11955,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="51">
         <v>96</v>
       </c>
@@ -12135,7 +12048,7 @@
         <v>Supplier in the mechanical equipment segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="51">
         <v>97</v>
       </c>
@@ -12228,7 +12141,7 @@
         <v>Supplier in the mechanical equipment segment: it is a manufacturer of products</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="51">
         <v>98</v>
       </c>
@@ -12321,7 +12234,7 @@
         <v>Supplier in the mechanical equipment segment: it is a supplier</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="51">
         <v>99</v>
       </c>
@@ -12414,7 +12327,7 @@
         <v>Supplier in the mechanical equipment segment: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="51">
         <v>100</v>
       </c>
@@ -12507,7 +12420,7 @@
         <v>Supplier in the mechanical equipment segment: it is a service</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="51">
         <v>101</v>
       </c>
@@ -12600,7 +12513,7 @@
         <v>Supplier in the mechanical equipment segment: it is a sale of products</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="51">
         <v>102</v>
       </c>
@@ -12693,7 +12606,7 @@
         <v>Furniture supplier: it is a purchase of products</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="51">
         <v>103</v>
       </c>
@@ -12786,7 +12699,7 @@
         <v>Furniture supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="51">
         <v>104</v>
       </c>
@@ -12869,7 +12782,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="51">
         <v>105</v>
       </c>
@@ -12962,7 +12875,7 @@
         <v>Supplier of the furniture segment: it is a consulting company</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="51">
         <v>106</v>
       </c>
@@ -13055,7 +12968,7 @@
         <v>Furniture segment supplier: is a manufacturer of products</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="51">
         <v>107</v>
       </c>
@@ -13148,7 +13061,7 @@
         <v>Furniture Supplier: is a supplier</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="51">
         <v>108</v>
       </c>
@@ -13241,7 +13154,7 @@
         <v>Furniture Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="51">
         <v>109</v>
       </c>
@@ -13334,7 +13247,7 @@
         <v>Furniture supplier: it is a service</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="51">
         <v>110</v>
       </c>
@@ -13427,7 +13340,7 @@
         <v>Furniture Supplier: It is a sale of products</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="51">
         <v>111</v>
       </c>
@@ -13520,7 +13433,7 @@
         <v>Telecom supplier: it is a purchase of products</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="51">
         <v>112</v>
       </c>
@@ -13613,7 +13526,7 @@
         <v>Telecom supplier: is a self-employed consultant</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="51">
         <v>113</v>
       </c>
@@ -13696,7 +13609,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="51">
         <v>114</v>
       </c>
@@ -13789,7 +13702,7 @@
         <v>Telecom supplier: it is a consulting company</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="51">
         <v>115</v>
       </c>
@@ -13882,7 +13795,7 @@
         <v>Telecom Segment Supplier: is a manufacturer of telecom products</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="51">
         <v>116</v>
       </c>
@@ -13975,7 +13888,7 @@
         <v>Telecom Segment Supplier: is a supplier</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="51">
         <v>117</v>
       </c>
@@ -14068,7 +13981,7 @@
         <v>Telecom Segment Supplier: is a Designer or Design Company</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="51">
         <v>118</v>
       </c>
@@ -14161,7 +14074,7 @@
         <v>Telecom Segment Supplier: It's a Service</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="51">
         <v>119</v>
       </c>
@@ -14254,7 +14167,7 @@
         <v>Telecom segment supplier: it is a sale of products</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="51">
         <v>120</v>
       </c>
@@ -14347,7 +14260,7 @@
         <v>It is a product or element of the geotechnical segment</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="51">
         <v>121</v>
       </c>
@@ -14440,7 +14353,7 @@
         <v>It is a product or element of the construction site segment</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="51">
         <v>122</v>
       </c>
@@ -14533,7 +14446,7 @@
         <v>It is a product or element of the drainage segment</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="51">
         <v>123</v>
       </c>
@@ -14626,7 +14539,7 @@
         <v>It is a product or element of the traffic and paving segment</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="51">
         <v>124</v>
       </c>
@@ -14719,7 +14632,7 @@
         <v>It is a product or element of the foundation structure segment</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="51">
         <v>125</v>
       </c>
@@ -14812,7 +14725,7 @@
         <v>It is a product or element of the structure segment</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="51">
         <v>126</v>
       </c>
@@ -14905,7 +14818,7 @@
         <v>It is a product or element of the sealing, walls and roofs segment</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="51">
         <v>127</v>
       </c>
@@ -14998,7 +14911,7 @@
         <v>It is a product or element of the finished segment</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="51">
         <v>128</v>
       </c>
@@ -15091,7 +15004,7 @@
         <v>It is a product or element of the openings and frames segment</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="51">
         <v>129</v>
       </c>
@@ -15184,7 +15097,7 @@
         <v>It is a product or element of the acoustics segment</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="51">
         <v>130</v>
       </c>
@@ -15277,7 +15190,7 @@
         <v>It is a product or element of the electrical segment</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="51">
         <v>131</v>
       </c>
@@ -15370,7 +15283,7 @@
         <v>It is a product or element of the Lighting segment</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="51">
         <v>132</v>
       </c>
@@ -15463,7 +15376,7 @@
         <v>It is a product or element of the exhaust and ventilation segment</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="51">
         <v>133</v>
       </c>
@@ -15556,7 +15469,7 @@
         <v>It is a product or element of the urban telecom network segment</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="51">
         <v>134</v>
       </c>
@@ -15649,7 +15562,7 @@
         <v>It is a product or element of the building telecom network segment</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="51">
         <v>135</v>
       </c>
@@ -15742,7 +15655,7 @@
         <v>It is a product or element of the urban hydraulics network segment</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="51">
         <v>136</v>
       </c>
@@ -15835,7 +15748,7 @@
         <v>It is a product or element of the building hydraulic network segment</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="51">
         <v>137</v>
       </c>
@@ -15928,7 +15841,7 @@
         <v>It is a product or element of the rainwater network segment</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="51">
         <v>138</v>
       </c>
@@ -16021,7 +15934,7 @@
         <v>It is a product or element of the building sewer network segment</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="51">
         <v>139</v>
       </c>
@@ -16114,7 +16027,7 @@
         <v>It is a product or element of the urban sewer network segment</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="51">
         <v>140</v>
       </c>
@@ -16207,7 +16120,7 @@
         <v>It is a product or element of the waste treatment segment</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="51">
         <v>141</v>
       </c>
@@ -16300,7 +16213,7 @@
         <v>It is a product or element of the refrigeration segment</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="51">
         <v>142</v>
       </c>
@@ -16393,7 +16306,7 @@
         <v>It is a product or element of the heating segment</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="51">
         <v>143</v>
       </c>
@@ -16486,7 +16399,7 @@
         <v>It is a product or element of the gas segment</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="51">
         <v>144</v>
       </c>
@@ -16579,7 +16492,7 @@
         <v>It is a product or element of the furniture segment</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="51">
         <v>145</v>
       </c>
@@ -16672,7 +16585,7 @@
         <v>It is a product or element of the automation segment</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="51">
         <v>146</v>
       </c>
@@ -16765,7 +16678,7 @@
         <v>It is a product or element of the lightning protection segment</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="51">
         <v>147</v>
       </c>
@@ -16858,7 +16771,7 @@
         <v>It is a product or element of the fire protection segment</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="51">
         <v>148</v>
       </c>
@@ -16957,45 +16870,45 @@
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="F1:F119 F149:F1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F106">
-    <cfRule type="duplicateValues" dxfId="20" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="524"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F119">
-    <cfRule type="duplicateValues" dxfId="19" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="528"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F144">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F148">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F145:F148">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149:F1048576 F107:F110 F1">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="14" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA2">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA148">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17007,21 +16920,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779E4F22-2568-4D5A-A538-DD63A5C43724}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.69140625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.3046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.07421875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="21" width="5.61328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="5.69140625" style="21"/>
+    <col min="1" max="1" width="1.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="12" customWidth="1"/>
+    <col min="4" max="10" width="5.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="5.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="5.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -17086,15 +17001,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>9</v>
+      <c r="B2" s="69" t="s">
+        <v>95</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>9</v>
@@ -17166,16 +17081,16 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.3828125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.07421875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="7.4609375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.69140625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.15234375" style="13"/>
+    <col min="1" max="1" width="1.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -17189,7 +17104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -17203,7 +17118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -17226,48 +17141,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="10.53515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.15234375" style="55" customWidth="1"/>
-    <col min="4" max="4" width="7.07421875" style="55" customWidth="1"/>
-    <col min="5" max="5" width="9.69140625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="2.3828125" style="65" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.84375" style="65" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.15234375" style="65" customWidth="1"/>
-    <col min="9" max="9" width="2.84375" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.61328125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="29.84375" style="63" customWidth="1"/>
-    <col min="12" max="12" width="3.765625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="21.23046875" style="64" customWidth="1"/>
-    <col min="14" max="14" width="6.07421875" style="63" customWidth="1"/>
-    <col min="15" max="15" width="60.53515625" style="63" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.84375" style="65" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.84375" style="65" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.15234375" style="63" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.84375" style="65" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.84375" style="65" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.3828125" style="55" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.84375" style="55" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.84375" style="63" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.84375" style="63" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.3828125" style="63" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.84375" style="63" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.15234375" style="55"/>
+    <col min="1" max="1" width="2.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.140625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" style="63" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="63" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" style="63" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="64" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="63" customWidth="1"/>
+    <col min="15" max="15" width="60.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.85546875" style="65" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -17362,7 +17276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -17457,7 +17371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -17552,7 +17466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -17647,7 +17561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -17742,7 +17656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -17837,7 +17751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -17932,7 +17846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -18027,7 +17941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -18122,7 +18036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -18217,7 +18131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -18312,7 +18226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -18407,7 +18321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -18502,7 +18416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -18597,7 +18511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -18692,7 +18606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -18787,7 +18701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -18882,7 +18796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -18977,7 +18891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -19072,7 +18986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -19167,7 +19081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -19262,7 +19176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -19357,7 +19271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -19452,7 +19366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -19547,7 +19461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -19642,7 +19556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -19737,7 +19651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -19832,7 +19746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -19927,7 +19841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -20022,7 +19936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -20117,7 +20031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -20212,7 +20126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:31" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -20310,11 +20224,11 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B32 B12:B13 B1:B5">
-    <cfRule type="duplicateValues" dxfId="10" priority="516"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="517"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/FABR/Ontologia_FABRI.xlsx
+++ b/Versão5/FABR/Ontologia_FABRI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\FABR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0578C0B7-8DFB-40D9-835A-CDE3303FBC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870F7124-C8E2-41A3-A07D-A6CD52506B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>46063.63779479167</v>
+        <v>46063.648207986109</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>88</v>
@@ -3207,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C119" sqref="C119:C120"/>
     </sheetView>
   </sheetViews>
@@ -3217,8 +3217,8 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" customWidth="1"/>
@@ -17141,7 +17141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
